--- a/IS_456_COLUMN/IS456_Column_Specifications__0817_1.xlsx
+++ b/IS_456_COLUMN/IS456_Column_Specifications__0817_1.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="180">
   <si>
     <t>Development Specifications</t>
   </si>
@@ -883,6 +883,9 @@
   </si>
   <si>
     <t>Nothing to Change</t>
+  </si>
+  <si>
+    <t>Seismic design asper IS 13920</t>
   </si>
 </sst>
 </file>
@@ -1944,6 +1947,24 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1980,10 +2001,19 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1992,46 +2022,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2061,20 +2055,59 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2097,10 +2130,37 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2130,63 +2190,6 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16033,41 +16036,41 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G4" s="134" t="s">
+      <c r="G4" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="5:13" ht="14.25" customHeight="1">
@@ -16089,118 +16092,118 @@
       </c>
       <c r="L13" s="21">
         <f ca="1">(TODAY())</f>
-        <v>42965</v>
+        <v>42966</v>
       </c>
     </row>
     <row r="14" spans="5:13" ht="15">
       <c r="E14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="135" t="s">
+      <c r="F14" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="136"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="148"/>
     </row>
     <row r="15" spans="5:13" ht="15">
       <c r="E15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="130" t="s">
+      <c r="F15" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="131"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
     </row>
     <row r="16" spans="5:13" ht="15">
       <c r="E16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="131"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="143"/>
     </row>
     <row r="17" spans="5:12" ht="15">
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="130" t="s">
+      <c r="F17" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="131"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="143"/>
     </row>
     <row r="18" spans="5:12" ht="30">
       <c r="E18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="131"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="143"/>
     </row>
     <row r="19" spans="5:12" ht="15">
       <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="130" t="s">
+      <c r="F19" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="131"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="143"/>
     </row>
     <row r="20" spans="5:12" ht="15">
       <c r="E20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="130" t="s">
+      <c r="F20" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="131"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="143"/>
     </row>
     <row r="21" spans="5:12" ht="33.75" customHeight="1" thickBot="1">
       <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="132" t="s">
+      <c r="F21" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="133"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="145"/>
     </row>
     <row r="22" spans="5:12" ht="15">
       <c r="E22" s="3"/>
@@ -16258,14 +16261,14 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
-      <c r="F1" s="134" t="s">
+      <c r="F1" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
@@ -16276,12 +16279,12 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
@@ -16292,12 +16295,12 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
@@ -16308,12 +16311,12 @@
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
@@ -16357,10 +16360,10 @@
       <c r="E7" s="37">
         <v>40</v>
       </c>
-      <c r="F7" s="214" t="s">
+      <c r="F7" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="215" t="s">
+      <c r="G7" s="140" t="s">
         <v>161</v>
       </c>
       <c r="H7" s="37">
@@ -16573,7 +16576,7 @@
       <c r="AA16" s="63"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="216" t="s">
+      <c r="A17" s="141" t="s">
         <v>161</v>
       </c>
       <c r="B17" s="29">
@@ -16812,7 +16815,7 @@
       <c r="A23" s="48"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="207"/>
+      <c r="D23" s="132"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
@@ -16964,7 +16967,7 @@
       <c r="A28" s="48"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="207"/>
+      <c r="D28" s="132"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
@@ -17057,18 +17060,18 @@
       <c r="AA30" s="52"/>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="208"/>
-      <c r="B31" s="209"/>
-      <c r="C31" s="209"/>
-      <c r="D31" s="209"/>
-      <c r="E31" s="209"/>
-      <c r="F31" s="209"/>
-      <c r="G31" s="209"/>
-      <c r="H31" s="209"/>
-      <c r="I31" s="209"/>
-      <c r="J31" s="209"/>
-      <c r="K31" s="209"/>
-      <c r="L31" s="210"/>
+      <c r="A31" s="133"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="135"/>
       <c r="M31" s="28"/>
       <c r="N31" s="29"/>
       <c r="O31" s="29"/>
@@ -17118,7 +17121,7 @@
       <c r="A33" s="48"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
-      <c r="D33" s="207"/>
+      <c r="D33" s="132"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
@@ -17173,18 +17176,18 @@
       <c r="AA34" s="52"/>
     </row>
     <row r="35" spans="1:27">
-      <c r="A35" s="208"/>
-      <c r="B35" s="209"/>
-      <c r="C35" s="209"/>
-      <c r="D35" s="209"/>
-      <c r="E35" s="209"/>
-      <c r="F35" s="209"/>
-      <c r="G35" s="209"/>
-      <c r="H35" s="209"/>
-      <c r="I35" s="209"/>
-      <c r="J35" s="209"/>
-      <c r="K35" s="209"/>
-      <c r="L35" s="210"/>
+      <c r="A35" s="133"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="134"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="135"/>
       <c r="M35" s="42"/>
       <c r="N35" s="43"/>
       <c r="O35" s="43"/>
@@ -17234,7 +17237,7 @@
       <c r="A37" s="48"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
-      <c r="D37" s="207"/>
+      <c r="D37" s="132"/>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
@@ -17637,18 +17640,18 @@
       <c r="AA50" s="52"/>
     </row>
     <row r="51" spans="1:27" ht="15" thickBot="1">
-      <c r="A51" s="211"/>
-      <c r="B51" s="212"/>
-      <c r="C51" s="212"/>
-      <c r="D51" s="212"/>
-      <c r="E51" s="212"/>
-      <c r="F51" s="212"/>
-      <c r="G51" s="212"/>
-      <c r="H51" s="212"/>
-      <c r="I51" s="212"/>
-      <c r="J51" s="212"/>
-      <c r="K51" s="212"/>
-      <c r="L51" s="213"/>
+      <c r="A51" s="136"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="137"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="137"/>
+      <c r="J51" s="137"/>
+      <c r="K51" s="137"/>
+      <c r="L51" s="138"/>
       <c r="M51" s="67"/>
       <c r="N51" s="59"/>
       <c r="O51" s="59"/>
@@ -17691,14 +17694,14 @@
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
-      <c r="F1" s="141" t="s">
+      <c r="F1" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
       <c r="N1" s="55"/>
@@ -17712,12 +17715,12 @@
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
       <c r="L2" s="55"/>
       <c r="M2" s="55"/>
       <c r="N2" s="55"/>
@@ -17731,12 +17734,12 @@
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
       <c r="N3" s="55"/>
@@ -17750,12 +17753,12 @@
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
       <c r="L4" s="55"/>
       <c r="M4" s="55"/>
       <c r="N4" s="55"/>
@@ -17913,14 +17916,14 @@
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
-      <c r="F1" s="141" t="s">
+      <c r="F1" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
       <c r="N1" s="55"/>
@@ -17934,12 +17937,12 @@
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
       <c r="L2" s="55"/>
       <c r="M2" s="55"/>
       <c r="N2" s="55"/>
@@ -17953,12 +17956,12 @@
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
       <c r="N3" s="55"/>
@@ -17972,12 +17975,12 @@
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
       <c r="L4" s="55"/>
       <c r="M4" s="55"/>
       <c r="N4" s="55"/>
@@ -18018,14 +18021,14 @@
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
-      <c r="F1" s="141" t="s">
+      <c r="F1" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
       <c r="N1" s="55"/>
@@ -18039,12 +18042,12 @@
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
       <c r="L2" s="55"/>
       <c r="M2" s="55"/>
       <c r="N2" s="55"/>
@@ -18058,12 +18061,12 @@
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
       <c r="N3" s="55"/>
@@ -18077,12 +18080,12 @@
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
       <c r="L4" s="55"/>
       <c r="M4" s="55"/>
       <c r="N4" s="55"/>
@@ -18133,24 +18136,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="162"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="165"/>
       <c r="Q1" s="99"/>
       <c r="R1" s="99"/>
       <c r="S1" s="99"/>
@@ -18160,22 +18163,22 @@
       <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
       <c r="Q2" s="99"/>
       <c r="R2" s="99"/>
       <c r="S2" s="99"/>
@@ -18185,22 +18188,22 @@
       <c r="W2" s="99"/>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="168"/>
       <c r="Q3" s="99"/>
       <c r="R3" s="99"/>
       <c r="S3" s="99"/>
@@ -18210,22 +18213,22 @@
       <c r="W3" s="99"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A4" s="166"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="168"/>
+      <c r="A4" s="169"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="171"/>
       <c r="Q4" s="99"/>
       <c r="R4" s="99"/>
       <c r="S4" s="99"/>
@@ -18335,373 +18338,373 @@
       <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A10" s="197"/>
-      <c r="B10" s="198"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="79" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="152" t="s">
+      <c r="E10" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="152" t="s">
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="154"/>
-      <c r="J10" s="152" t="s">
+      <c r="I10" s="162"/>
+      <c r="J10" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="154"/>
-      <c r="L10" s="152" t="s">
+      <c r="K10" s="162"/>
+      <c r="L10" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="154"/>
-      <c r="N10" s="152" t="s">
+      <c r="M10" s="162"/>
+      <c r="N10" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="153"/>
-      <c r="P10" s="154"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="162"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="199" t="s">
+      <c r="A11" s="185" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="200" t="s">
+      <c r="B11" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="148" t="s">
+      <c r="C11" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="144" t="s">
+      <c r="D11" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="146" t="s">
+      <c r="E11" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="155"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="157"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="173"/>
+      <c r="L11" s="172"/>
+      <c r="M11" s="173"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="175"/>
+      <c r="P11" s="176"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="201"/>
-      <c r="B12" s="202"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="158" t="s">
+      <c r="A12" s="186"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="142"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="157"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="173"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="173"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="176"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="201"/>
-      <c r="B13" s="202"/>
-      <c r="C13" s="196" t="s">
+      <c r="A13" s="186"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="188" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="146" t="s">
+      <c r="E13" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="142"/>
-      <c r="M13" s="143"/>
-      <c r="N13" s="155"/>
-      <c r="O13" s="156"/>
-      <c r="P13" s="157"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="174"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="176"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="201"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="158" t="s">
+      <c r="A14" s="186"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="157"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="174"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="176"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="201"/>
-      <c r="B15" s="202"/>
-      <c r="C15" s="148" t="s">
+      <c r="A15" s="186"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="177" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="144" t="s">
+      <c r="D15" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="146" t="s">
+      <c r="E15" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="147"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="155"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="157"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="174"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="176"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="201"/>
-      <c r="B16" s="202"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="149" t="s">
+      <c r="A16" s="186"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="150"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="143"/>
-      <c r="N16" s="155"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="157"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="173"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="176"/>
     </row>
     <row r="17" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="201"/>
-      <c r="B17" s="202"/>
-      <c r="C17" s="148" t="s">
+      <c r="A17" s="186"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="177" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="144" t="s">
+      <c r="D17" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="146" t="s">
+      <c r="E17" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="177"/>
       <c r="H17" s="107"/>
       <c r="I17" s="108"/>
       <c r="J17" s="107"/>
       <c r="K17" s="108"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="143"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="173"/>
       <c r="N17" s="104"/>
       <c r="O17" s="105"/>
       <c r="P17" s="106"/>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="201"/>
-      <c r="B18" s="206"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="151"/>
+      <c r="A18" s="186"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="178"/>
       <c r="H18" s="107"/>
       <c r="I18" s="108"/>
       <c r="J18" s="107"/>
       <c r="K18" s="108"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="143"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="173"/>
       <c r="N18" s="104"/>
       <c r="O18" s="105"/>
       <c r="P18" s="106"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="201"/>
-      <c r="B19" s="203" t="s">
+      <c r="A19" s="186"/>
+      <c r="B19" s="154" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="144" t="s">
+      <c r="D19" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="146" t="s">
+      <c r="E19" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="157"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="173"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="174"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="176"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="201"/>
-      <c r="B20" s="202"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="158" t="s">
+      <c r="A20" s="186"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="157"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="174"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="176"/>
     </row>
     <row r="21" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="201"/>
-      <c r="B21" s="202"/>
-      <c r="C21" s="196" t="s">
+      <c r="A21" s="186"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="188" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="144" t="s">
+      <c r="D21" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="146" t="s">
+      <c r="E21" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="155"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="157"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="174"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="176"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="201"/>
-      <c r="B22" s="202"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="158" t="s">
+      <c r="A22" s="186"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="157"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="172"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="174"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="176"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="201"/>
-      <c r="B23" s="202"/>
-      <c r="C23" s="148" t="s">
+      <c r="A23" s="186"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="177" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="144" t="s">
+      <c r="D23" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="146" t="s">
+      <c r="E23" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="147"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="157"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="173"/>
+      <c r="L23" s="172"/>
+      <c r="M23" s="173"/>
+      <c r="N23" s="174"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="176"/>
       <c r="Q23" s="75"/>
       <c r="R23" s="75"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="201"/>
-      <c r="B24" s="202"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="149" t="s">
+      <c r="A24" s="186"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="150"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="143"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="155"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="157"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="172"/>
+      <c r="M24" s="173"/>
+      <c r="N24" s="174"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="176"/>
       <c r="Q24" s="74"/>
       <c r="R24" s="75"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="201"/>
-      <c r="B25" s="202"/>
-      <c r="C25" s="148" t="s">
+      <c r="A25" s="186"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="177" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="144" t="s">
+      <c r="D25" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="146" t="s">
+      <c r="E25" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="147"/>
-      <c r="G25" s="148"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="177"/>
       <c r="H25" s="107"/>
       <c r="I25" s="108"/>
       <c r="J25" s="107"/>
       <c r="K25" s="108"/>
-      <c r="L25" s="142"/>
-      <c r="M25" s="143"/>
+      <c r="L25" s="172"/>
+      <c r="M25" s="173"/>
       <c r="N25" s="104"/>
       <c r="O25" s="105"/>
       <c r="P25" s="106"/>
@@ -18709,19 +18712,19 @@
       <c r="R25" s="75"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="204"/>
-      <c r="B26" s="205"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="151"/>
+      <c r="A26" s="187"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="178"/>
       <c r="H26" s="107"/>
       <c r="I26" s="108"/>
       <c r="J26" s="107"/>
       <c r="K26" s="108"/>
-      <c r="L26" s="142"/>
-      <c r="M26" s="143"/>
+      <c r="L26" s="172"/>
+      <c r="M26" s="173"/>
       <c r="N26" s="104"/>
       <c r="O26" s="105"/>
       <c r="P26" s="106"/>
@@ -18750,11 +18753,65 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A11:A26"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
     <mergeCell ref="A1:P4"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
@@ -18771,76 +18828,22 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="J21:K21"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
     <mergeCell ref="E24:G24"/>
-    <mergeCell ref="A11:A26"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D17:D18"/>
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E17:G18"/>
     <mergeCell ref="E25:G26"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18865,66 +18868,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="172"/>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172" t="s">
+      <c r="A1" s="202"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="172"/>
-      <c r="AH1" s="172"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="202"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="202"/>
+      <c r="W1" s="202"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="202"/>
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="202"/>
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
+      <c r="AF1" s="202"/>
+      <c r="AG1" s="202"/>
+      <c r="AH1" s="202"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="172"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
+      <c r="A2" s="202"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="172" t="s">
+      <c r="I2" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -18941,10 +18944,10 @@
       <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="172"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -19037,14 +19040,14 @@
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="203" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="194" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -19076,12 +19079,12 @@
       <c r="AH4" s="16"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="173"/>
-      <c r="B5" s="178" t="s">
+      <c r="A5" s="203"/>
+      <c r="B5" s="194" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
       <c r="E5" s="16"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
@@ -19114,12 +19117,12 @@
       <c r="AH5" s="16"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="173"/>
-      <c r="B6" s="178" t="s">
+      <c r="A6" s="203"/>
+      <c r="B6" s="194" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
       <c r="E6" s="16"/>
       <c r="F6" s="93"/>
       <c r="G6" s="93"/>
@@ -19152,12 +19155,12 @@
       <c r="AH6" s="16"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="173"/>
-      <c r="B7" s="178" t="s">
+      <c r="A7" s="203"/>
+      <c r="B7" s="194" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
       <c r="E7" s="16"/>
       <c r="F7" s="93"/>
       <c r="G7" s="93"/>
@@ -19227,66 +19230,66 @@
       <c r="AI8" s="18"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="172"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172" t="s">
+      <c r="A9" s="202"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="172"/>
-      <c r="M9" s="172"/>
-      <c r="N9" s="172"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="172"/>
-      <c r="S9" s="172"/>
-      <c r="T9" s="172"/>
-      <c r="U9" s="172"/>
-      <c r="V9" s="172"/>
-      <c r="W9" s="172"/>
-      <c r="X9" s="172"/>
-      <c r="Y9" s="172"/>
-      <c r="Z9" s="172"/>
-      <c r="AA9" s="172"/>
-      <c r="AB9" s="172"/>
-      <c r="AC9" s="172"/>
-      <c r="AD9" s="172"/>
-      <c r="AE9" s="172"/>
-      <c r="AF9" s="172"/>
-      <c r="AG9" s="172"/>
-      <c r="AH9" s="172"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="202"/>
+      <c r="P9" s="202"/>
+      <c r="Q9" s="202"/>
+      <c r="R9" s="202"/>
+      <c r="S9" s="202"/>
+      <c r="T9" s="202"/>
+      <c r="U9" s="202"/>
+      <c r="V9" s="202"/>
+      <c r="W9" s="202"/>
+      <c r="X9" s="202"/>
+      <c r="Y9" s="202"/>
+      <c r="Z9" s="202"/>
+      <c r="AA9" s="202"/>
+      <c r="AB9" s="202"/>
+      <c r="AC9" s="202"/>
+      <c r="AD9" s="202"/>
+      <c r="AE9" s="202"/>
+      <c r="AF9" s="202"/>
+      <c r="AG9" s="202"/>
+      <c r="AH9" s="202"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="172"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
+      <c r="A10" s="202"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="172" t="s">
+      <c r="I10" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
-      <c r="L10" s="172"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="172"/>
-      <c r="R10" s="172"/>
-      <c r="S10" s="172"/>
-      <c r="T10" s="172"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="202"/>
+      <c r="P10" s="202"/>
+      <c r="Q10" s="202"/>
+      <c r="R10" s="202"/>
+      <c r="S10" s="202"/>
+      <c r="T10" s="202"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
@@ -19303,10 +19306,10 @@
       <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="172"/>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
+      <c r="A11" s="202"/>
+      <c r="B11" s="202"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202"/>
       <c r="E11" s="13">
         <v>1</v>
       </c>
@@ -19403,10 +19406,10 @@
       <c r="B12" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="181" t="s">
+      <c r="C12" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="182"/>
+      <c r="D12" s="201"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
@@ -19439,13 +19442,13 @@
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="175" t="s">
+      <c r="A13" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="169" t="s">
+      <c r="B13" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="169" t="s">
+      <c r="C13" s="197" t="s">
         <v>171</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -19483,9 +19486,9 @@
       <c r="AH13" s="13"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="176"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
+      <c r="A14" s="192"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="199"/>
       <c r="D14" s="23" t="s">
         <v>70</v>
       </c>
@@ -19521,9 +19524,9 @@
       <c r="AH14" s="13"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="176"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
+      <c r="A15" s="192"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="199"/>
       <c r="D15" s="23" t="s">
         <v>71</v>
       </c>
@@ -19559,9 +19562,9 @@
       <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="176"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
+      <c r="A16" s="192"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="199"/>
       <c r="D16" s="23" t="s">
         <v>72</v>
       </c>
@@ -19597,9 +19600,9 @@
       <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="1:45">
-      <c r="A17" s="176"/>
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
+      <c r="A17" s="192"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="199"/>
       <c r="D17" s="23" t="s">
         <v>174</v>
       </c>
@@ -19635,9 +19638,9 @@
       <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="1:45">
-      <c r="A18" s="176"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="171"/>
+      <c r="A18" s="192"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="198"/>
       <c r="D18" s="109" t="s">
         <v>129</v>
       </c>
@@ -19673,9 +19676,9 @@
       <c r="AH18" s="13"/>
     </row>
     <row r="19" spans="1:45">
-      <c r="A19" s="176"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="169" t="s">
+      <c r="A19" s="192"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="197" t="s">
         <v>172</v>
       </c>
       <c r="D19" s="23" t="s">
@@ -19713,9 +19716,9 @@
       <c r="AH19" s="13"/>
     </row>
     <row r="20" spans="1:45">
-      <c r="A20" s="176"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="170"/>
+      <c r="A20" s="192"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="199"/>
       <c r="D20" s="23" t="s">
         <v>70</v>
       </c>
@@ -19751,9 +19754,9 @@
       <c r="AH20" s="13"/>
     </row>
     <row r="21" spans="1:45">
-      <c r="A21" s="176"/>
-      <c r="B21" s="170"/>
-      <c r="C21" s="170"/>
+      <c r="A21" s="192"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="199"/>
       <c r="D21" s="23" t="s">
         <v>71</v>
       </c>
@@ -19789,9 +19792,9 @@
       <c r="AH21" s="13"/>
     </row>
     <row r="22" spans="1:45">
-      <c r="A22" s="176"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="170"/>
+      <c r="A22" s="192"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="199"/>
       <c r="D22" s="23" t="s">
         <v>72</v>
       </c>
@@ -19827,9 +19830,9 @@
       <c r="AH22" s="13"/>
     </row>
     <row r="23" spans="1:45">
-      <c r="A23" s="176"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
+      <c r="A23" s="192"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="199"/>
       <c r="D23" s="23" t="s">
         <v>173</v>
       </c>
@@ -19865,9 +19868,9 @@
       <c r="AH23" s="13"/>
     </row>
     <row r="24" spans="1:45">
-      <c r="A24" s="176"/>
+      <c r="A24" s="192"/>
       <c r="B24" s="110"/>
-      <c r="C24" s="171"/>
+      <c r="C24" s="198"/>
       <c r="D24" s="111" t="s">
         <v>129</v>
       </c>
@@ -19903,11 +19906,11 @@
       <c r="AH24" s="13"/>
     </row>
     <row r="25" spans="1:45">
-      <c r="A25" s="176"/>
-      <c r="B25" s="176" t="s">
+      <c r="A25" s="192"/>
+      <c r="B25" s="192" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="169" t="s">
+      <c r="C25" s="197" t="s">
         <v>175</v>
       </c>
       <c r="D25" s="96" t="s">
@@ -19945,9 +19948,9 @@
       <c r="AH25" s="13"/>
     </row>
     <row r="26" spans="1:45">
-      <c r="A26" s="176"/>
-      <c r="B26" s="176"/>
-      <c r="C26" s="171"/>
+      <c r="A26" s="192"/>
+      <c r="B26" s="192"/>
+      <c r="C26" s="198"/>
       <c r="D26" s="96" t="s">
         <v>119</v>
       </c>
@@ -19994,14 +19997,14 @@
       <c r="AS26" s="29"/>
     </row>
     <row r="27" spans="1:45">
-      <c r="A27" s="176"/>
-      <c r="B27" s="174" t="s">
+      <c r="A27" s="192"/>
+      <c r="B27" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="179" t="s">
+      <c r="C27" s="195" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="180"/>
+      <c r="D27" s="196"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -20045,12 +20048,12 @@
       <c r="AS27" s="29"/>
     </row>
     <row r="28" spans="1:45">
-      <c r="A28" s="176"/>
-      <c r="B28" s="174"/>
-      <c r="C28" s="179" t="s">
+      <c r="A28" s="192"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="180"/>
+      <c r="D28" s="196"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -20094,11 +20097,11 @@
       <c r="AS28" s="29"/>
     </row>
     <row r="29" spans="1:45">
-      <c r="A29" s="176"/>
-      <c r="B29" s="174" t="s">
+      <c r="A29" s="192"/>
+      <c r="B29" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="174" t="s">
+      <c r="C29" s="190" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="94" t="s">
@@ -20147,9 +20150,9 @@
       <c r="AS29" s="29"/>
     </row>
     <row r="30" spans="1:45">
-      <c r="A30" s="176"/>
-      <c r="B30" s="174"/>
-      <c r="C30" s="174"/>
+      <c r="A30" s="192"/>
+      <c r="B30" s="190"/>
+      <c r="C30" s="190"/>
       <c r="D30" s="94" t="s">
         <v>18</v>
       </c>
@@ -20196,9 +20199,9 @@
       <c r="AS30" s="29"/>
     </row>
     <row r="31" spans="1:45">
-      <c r="A31" s="176"/>
-      <c r="B31" s="174"/>
-      <c r="C31" s="174"/>
+      <c r="A31" s="192"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="190"/>
       <c r="D31" s="94" t="s">
         <v>19</v>
       </c>
@@ -20245,9 +20248,9 @@
       <c r="AS31" s="29"/>
     </row>
     <row r="32" spans="1:45">
-      <c r="A32" s="176"/>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174"/>
+      <c r="A32" s="192"/>
+      <c r="B32" s="190"/>
+      <c r="C32" s="190"/>
       <c r="D32" s="94" t="s">
         <v>20</v>
       </c>
@@ -20294,9 +20297,9 @@
       <c r="AS32" s="29"/>
     </row>
     <row r="33" spans="1:45">
-      <c r="A33" s="176"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174" t="s">
+      <c r="A33" s="192"/>
+      <c r="B33" s="190"/>
+      <c r="C33" s="190" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="94" t="s">
@@ -20345,9 +20348,9 @@
       <c r="AS33" s="29"/>
     </row>
     <row r="34" spans="1:45">
-      <c r="A34" s="176"/>
-      <c r="B34" s="174"/>
-      <c r="C34" s="174"/>
+      <c r="A34" s="192"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="190"/>
       <c r="D34" s="94" t="s">
         <v>18</v>
       </c>
@@ -20394,9 +20397,9 @@
       <c r="AS34" s="29"/>
     </row>
     <row r="35" spans="1:45">
-      <c r="A35" s="176"/>
-      <c r="B35" s="174"/>
-      <c r="C35" s="174"/>
+      <c r="A35" s="192"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="190"/>
       <c r="D35" s="94" t="s">
         <v>19</v>
       </c>
@@ -20443,9 +20446,9 @@
       <c r="AS35" s="29"/>
     </row>
     <row r="36" spans="1:45">
-      <c r="A36" s="176"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="174" t="s">
+      <c r="A36" s="192"/>
+      <c r="B36" s="190"/>
+      <c r="C36" s="190" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="94" t="s">
@@ -20494,9 +20497,9 @@
       <c r="AS36" s="29"/>
     </row>
     <row r="37" spans="1:45">
-      <c r="A37" s="177"/>
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
+      <c r="A37" s="193"/>
+      <c r="B37" s="190"/>
+      <c r="C37" s="190"/>
       <c r="D37" s="94" t="s">
         <v>18</v>
       </c>
@@ -20560,6 +20563,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:AH1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:D11"/>
+    <mergeCell ref="E9:AH9"/>
+    <mergeCell ref="I10:T10"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="A13:A37"/>
@@ -20576,15 +20588,6 @@
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:AH1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:D11"/>
-    <mergeCell ref="E9:AH9"/>
-    <mergeCell ref="I10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20604,133 +20607,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="185"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="186"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="188"/>
+      <c r="A2" s="211"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="213"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="186"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="188"/>
+      <c r="A3" s="211"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="213"/>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1">
-      <c r="A4" s="189"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="190"/>
-      <c r="L4" s="190"/>
-      <c r="M4" s="190"/>
-      <c r="N4" s="190"/>
-      <c r="O4" s="191"/>
+      <c r="A4" s="214"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="216"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="100">
         <v>1</v>
       </c>
-      <c r="B5" s="192"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="192"/>
-      <c r="L5" s="192"/>
-      <c r="M5" s="192"/>
-      <c r="N5" s="192"/>
-      <c r="O5" s="193"/>
+      <c r="B5" s="204"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="204"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="204"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="204"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="204"/>
+      <c r="O5" s="205"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="101">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="192"/>
-      <c r="M6" s="192"/>
-      <c r="N6" s="192"/>
-      <c r="O6" s="193"/>
+      <c r="B6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="204"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="205"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="101">
         <f t="shared" ref="A7:A42" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="192"/>
-      <c r="O7" s="193"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="205"/>
       <c r="W7" s="35"/>
       <c r="X7" s="35"/>
       <c r="Y7" s="35"/>
@@ -20747,20 +20750,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="192"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="192"/>
-      <c r="J8" s="192"/>
-      <c r="K8" s="192"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="192"/>
-      <c r="N8" s="192"/>
-      <c r="O8" s="193"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="205"/>
       <c r="W8" s="35"/>
       <c r="X8" s="35"/>
       <c r="Y8" s="35"/>
@@ -20777,20 +20780,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="192"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="192"/>
-      <c r="M9" s="192"/>
-      <c r="N9" s="192"/>
-      <c r="O9" s="193"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="205"/>
       <c r="W9" s="35"/>
       <c r="X9" s="35"/>
       <c r="Y9" s="35"/>
@@ -20807,20 +20810,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="192"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="192"/>
-      <c r="M10" s="192"/>
-      <c r="N10" s="192"/>
-      <c r="O10" s="193"/>
+      <c r="B10" s="204"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="205"/>
       <c r="W10" s="35"/>
       <c r="X10" s="35"/>
       <c r="Y10" s="35"/>
@@ -20837,20 +20840,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="192"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="192"/>
-      <c r="F11" s="192"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="192"/>
-      <c r="N11" s="192"/>
-      <c r="O11" s="193"/>
+      <c r="B11" s="204"/>
+      <c r="C11" s="204"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="204"/>
+      <c r="K11" s="204"/>
+      <c r="L11" s="204"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="204"/>
+      <c r="O11" s="205"/>
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
@@ -20867,20 +20870,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="192"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="192"/>
-      <c r="N12" s="192"/>
-      <c r="O12" s="193"/>
+      <c r="B12" s="204"/>
+      <c r="C12" s="204"/>
+      <c r="D12" s="204"/>
+      <c r="E12" s="204"/>
+      <c r="F12" s="204"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="204"/>
+      <c r="I12" s="204"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="204"/>
+      <c r="L12" s="204"/>
+      <c r="M12" s="204"/>
+      <c r="N12" s="204"/>
+      <c r="O12" s="205"/>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
       <c r="Y12" s="35"/>
@@ -20897,20 +20900,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="192"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="192"/>
-      <c r="L13" s="192"/>
-      <c r="M13" s="192"/>
-      <c r="N13" s="192"/>
-      <c r="O13" s="193"/>
+      <c r="B13" s="204"/>
+      <c r="C13" s="204"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="204"/>
+      <c r="K13" s="204"/>
+      <c r="L13" s="204"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="204"/>
+      <c r="O13" s="205"/>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
@@ -20927,20 +20930,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="192"/>
-      <c r="C14" s="192"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="192"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="192"/>
-      <c r="N14" s="192"/>
-      <c r="O14" s="193"/>
+      <c r="B14" s="204"/>
+      <c r="C14" s="204"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="204"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="204"/>
+      <c r="I14" s="204"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="204"/>
+      <c r="L14" s="204"/>
+      <c r="M14" s="204"/>
+      <c r="N14" s="204"/>
+      <c r="O14" s="205"/>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
@@ -20957,20 +20960,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="192"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="192"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="192"/>
-      <c r="O15" s="193"/>
+      <c r="B15" s="204"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="204"/>
+      <c r="I15" s="204"/>
+      <c r="J15" s="204"/>
+      <c r="K15" s="204"/>
+      <c r="L15" s="204"/>
+      <c r="M15" s="204"/>
+      <c r="N15" s="204"/>
+      <c r="O15" s="205"/>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
       <c r="Y15" s="35"/>
@@ -20987,20 +20990,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="192"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="192"/>
-      <c r="L16" s="192"/>
-      <c r="M16" s="192"/>
-      <c r="N16" s="192"/>
-      <c r="O16" s="193"/>
+      <c r="B16" s="204"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="204"/>
+      <c r="L16" s="204"/>
+      <c r="M16" s="204"/>
+      <c r="N16" s="204"/>
+      <c r="O16" s="205"/>
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="35"/>
@@ -21017,20 +21020,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="192"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="192"/>
-      <c r="N17" s="192"/>
-      <c r="O17" s="193"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="204"/>
+      <c r="L17" s="204"/>
+      <c r="M17" s="204"/>
+      <c r="N17" s="204"/>
+      <c r="O17" s="205"/>
       <c r="W17" s="35"/>
       <c r="X17" s="35"/>
       <c r="Y17" s="35"/>
@@ -21047,20 +21050,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="192"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
-      <c r="O18" s="193"/>
+      <c r="B18" s="204"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="204"/>
+      <c r="K18" s="204"/>
+      <c r="L18" s="204"/>
+      <c r="M18" s="204"/>
+      <c r="N18" s="204"/>
+      <c r="O18" s="205"/>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
       <c r="Y18" s="35"/>
@@ -21077,20 +21080,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="192"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="192"/>
-      <c r="K19" s="192"/>
-      <c r="L19" s="192"/>
-      <c r="M19" s="192"/>
-      <c r="N19" s="192"/>
-      <c r="O19" s="193"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="204"/>
+      <c r="H19" s="204"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="204"/>
+      <c r="K19" s="204"/>
+      <c r="L19" s="204"/>
+      <c r="M19" s="204"/>
+      <c r="N19" s="204"/>
+      <c r="O19" s="205"/>
       <c r="W19" s="35"/>
       <c r="X19" s="35"/>
       <c r="Y19" s="35"/>
@@ -21107,20 +21110,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="192"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="192"/>
-      <c r="K20" s="192"/>
-      <c r="L20" s="192"/>
-      <c r="M20" s="192"/>
-      <c r="N20" s="192"/>
-      <c r="O20" s="193"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="204"/>
+      <c r="I20" s="204"/>
+      <c r="J20" s="204"/>
+      <c r="K20" s="204"/>
+      <c r="L20" s="204"/>
+      <c r="M20" s="204"/>
+      <c r="N20" s="204"/>
+      <c r="O20" s="205"/>
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
       <c r="Y20" s="35"/>
@@ -21137,20 +21140,20 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="192"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="192"/>
-      <c r="K21" s="192"/>
-      <c r="L21" s="192"/>
-      <c r="M21" s="192"/>
-      <c r="N21" s="192"/>
-      <c r="O21" s="193"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="204"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="204"/>
+      <c r="I21" s="204"/>
+      <c r="J21" s="204"/>
+      <c r="K21" s="204"/>
+      <c r="L21" s="204"/>
+      <c r="M21" s="204"/>
+      <c r="N21" s="204"/>
+      <c r="O21" s="205"/>
       <c r="W21" s="35"/>
       <c r="X21" s="35"/>
       <c r="Y21" s="35"/>
@@ -21167,20 +21170,20 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="192"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="192"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="192"/>
-      <c r="M22" s="192"/>
-      <c r="N22" s="192"/>
-      <c r="O22" s="193"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="204"/>
+      <c r="K22" s="204"/>
+      <c r="L22" s="204"/>
+      <c r="M22" s="204"/>
+      <c r="N22" s="204"/>
+      <c r="O22" s="205"/>
       <c r="W22" s="35"/>
       <c r="X22" s="35"/>
       <c r="Y22" s="35"/>
@@ -21197,20 +21200,20 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="192"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="192"/>
-      <c r="K23" s="192"/>
-      <c r="L23" s="192"/>
-      <c r="M23" s="192"/>
-      <c r="N23" s="192"/>
-      <c r="O23" s="193"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="204"/>
+      <c r="J23" s="204"/>
+      <c r="K23" s="204"/>
+      <c r="L23" s="204"/>
+      <c r="M23" s="204"/>
+      <c r="N23" s="204"/>
+      <c r="O23" s="205"/>
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
@@ -21227,20 +21230,20 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="192"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="192"/>
-      <c r="K24" s="192"/>
-      <c r="L24" s="192"/>
-      <c r="M24" s="192"/>
-      <c r="N24" s="192"/>
-      <c r="O24" s="193"/>
+      <c r="B24" s="204"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="204"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="204"/>
+      <c r="H24" s="204"/>
+      <c r="I24" s="204"/>
+      <c r="J24" s="204"/>
+      <c r="K24" s="204"/>
+      <c r="L24" s="204"/>
+      <c r="M24" s="204"/>
+      <c r="N24" s="204"/>
+      <c r="O24" s="205"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
@@ -21257,20 +21260,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="192"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
-      <c r="K25" s="192"/>
-      <c r="L25" s="192"/>
-      <c r="M25" s="192"/>
-      <c r="N25" s="192"/>
-      <c r="O25" s="193"/>
+      <c r="B25" s="204"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="204"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="204"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="204"/>
+      <c r="L25" s="204"/>
+      <c r="M25" s="204"/>
+      <c r="N25" s="204"/>
+      <c r="O25" s="205"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
@@ -21287,20 +21290,20 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="192"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="192"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="192"/>
-      <c r="M26" s="192"/>
-      <c r="N26" s="192"/>
-      <c r="O26" s="193"/>
+      <c r="B26" s="204"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="204"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="204"/>
+      <c r="K26" s="204"/>
+      <c r="L26" s="204"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="204"/>
+      <c r="O26" s="205"/>
       <c r="W26" s="35"/>
       <c r="X26" s="35"/>
       <c r="Y26" s="35"/>
@@ -21317,20 +21320,20 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="192"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="192"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="192"/>
-      <c r="K27" s="192"/>
-      <c r="L27" s="192"/>
-      <c r="M27" s="192"/>
-      <c r="N27" s="192"/>
-      <c r="O27" s="193"/>
+      <c r="B27" s="204"/>
+      <c r="C27" s="204"/>
+      <c r="D27" s="204"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="204"/>
+      <c r="G27" s="204"/>
+      <c r="H27" s="204"/>
+      <c r="I27" s="204"/>
+      <c r="J27" s="204"/>
+      <c r="K27" s="204"/>
+      <c r="L27" s="204"/>
+      <c r="M27" s="204"/>
+      <c r="N27" s="204"/>
+      <c r="O27" s="205"/>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
@@ -21347,20 +21350,20 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="192"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="192"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="192"/>
-      <c r="H28" s="192"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="192"/>
-      <c r="K28" s="192"/>
-      <c r="L28" s="192"/>
-      <c r="M28" s="192"/>
-      <c r="N28" s="192"/>
-      <c r="O28" s="193"/>
+      <c r="B28" s="204"/>
+      <c r="C28" s="204"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="204"/>
+      <c r="I28" s="204"/>
+      <c r="J28" s="204"/>
+      <c r="K28" s="204"/>
+      <c r="L28" s="204"/>
+      <c r="M28" s="204"/>
+      <c r="N28" s="204"/>
+      <c r="O28" s="205"/>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
@@ -21377,20 +21380,20 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="192"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="192"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="192"/>
-      <c r="K29" s="192"/>
-      <c r="L29" s="192"/>
-      <c r="M29" s="192"/>
-      <c r="N29" s="192"/>
-      <c r="O29" s="193"/>
+      <c r="B29" s="204"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="204"/>
+      <c r="J29" s="204"/>
+      <c r="K29" s="204"/>
+      <c r="L29" s="204"/>
+      <c r="M29" s="204"/>
+      <c r="N29" s="204"/>
+      <c r="O29" s="205"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
@@ -21407,20 +21410,20 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="192"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="192"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="192"/>
-      <c r="G30" s="192"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="192"/>
-      <c r="J30" s="192"/>
-      <c r="K30" s="192"/>
-      <c r="L30" s="192"/>
-      <c r="M30" s="192"/>
-      <c r="N30" s="192"/>
-      <c r="O30" s="193"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="204"/>
+      <c r="K30" s="204"/>
+      <c r="L30" s="204"/>
+      <c r="M30" s="204"/>
+      <c r="N30" s="204"/>
+      <c r="O30" s="205"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
@@ -21437,20 +21440,20 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="192"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="192"/>
-      <c r="G31" s="192"/>
-      <c r="H31" s="192"/>
-      <c r="I31" s="192"/>
-      <c r="J31" s="192"/>
-      <c r="K31" s="192"/>
-      <c r="L31" s="192"/>
-      <c r="M31" s="192"/>
-      <c r="N31" s="192"/>
-      <c r="O31" s="193"/>
+      <c r="B31" s="204"/>
+      <c r="C31" s="204"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="204"/>
+      <c r="K31" s="204"/>
+      <c r="L31" s="204"/>
+      <c r="M31" s="204"/>
+      <c r="N31" s="204"/>
+      <c r="O31" s="205"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
@@ -21467,20 +21470,20 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="192"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="192"/>
-      <c r="K32" s="192"/>
-      <c r="L32" s="192"/>
-      <c r="M32" s="192"/>
-      <c r="N32" s="192"/>
-      <c r="O32" s="193"/>
+      <c r="B32" s="204"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="204"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="204"/>
+      <c r="I32" s="204"/>
+      <c r="J32" s="204"/>
+      <c r="K32" s="204"/>
+      <c r="L32" s="204"/>
+      <c r="M32" s="204"/>
+      <c r="N32" s="204"/>
+      <c r="O32" s="205"/>
       <c r="W32" s="35"/>
       <c r="X32" s="35"/>
       <c r="Y32" s="35"/>
@@ -21497,20 +21500,20 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="192"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="192"/>
-      <c r="K33" s="192"/>
-      <c r="L33" s="192"/>
-      <c r="M33" s="192"/>
-      <c r="N33" s="192"/>
-      <c r="O33" s="193"/>
+      <c r="B33" s="204"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="204"/>
+      <c r="H33" s="204"/>
+      <c r="I33" s="204"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="204"/>
+      <c r="L33" s="204"/>
+      <c r="M33" s="204"/>
+      <c r="N33" s="204"/>
+      <c r="O33" s="205"/>
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
@@ -21527,20 +21530,20 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="192"/>
-      <c r="C34" s="192"/>
-      <c r="D34" s="192"/>
-      <c r="E34" s="192"/>
-      <c r="F34" s="192"/>
-      <c r="G34" s="192"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="192"/>
-      <c r="J34" s="192"/>
-      <c r="K34" s="192"/>
-      <c r="L34" s="192"/>
-      <c r="M34" s="192"/>
-      <c r="N34" s="192"/>
-      <c r="O34" s="193"/>
+      <c r="B34" s="204"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="204"/>
+      <c r="G34" s="204"/>
+      <c r="H34" s="204"/>
+      <c r="I34" s="204"/>
+      <c r="J34" s="204"/>
+      <c r="K34" s="204"/>
+      <c r="L34" s="204"/>
+      <c r="M34" s="204"/>
+      <c r="N34" s="204"/>
+      <c r="O34" s="205"/>
       <c r="W34" s="35"/>
       <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
@@ -21557,20 +21560,20 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="192"/>
-      <c r="C35" s="192"/>
-      <c r="D35" s="192"/>
-      <c r="E35" s="192"/>
-      <c r="F35" s="192"/>
-      <c r="G35" s="192"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="192"/>
-      <c r="J35" s="192"/>
-      <c r="K35" s="192"/>
-      <c r="L35" s="192"/>
-      <c r="M35" s="192"/>
-      <c r="N35" s="192"/>
-      <c r="O35" s="193"/>
+      <c r="B35" s="204"/>
+      <c r="C35" s="204"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="204"/>
+      <c r="L35" s="204"/>
+      <c r="M35" s="204"/>
+      <c r="N35" s="204"/>
+      <c r="O35" s="205"/>
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
       <c r="Y35" s="35"/>
@@ -21587,20 +21590,20 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="192"/>
-      <c r="C36" s="192"/>
-      <c r="D36" s="192"/>
-      <c r="E36" s="192"/>
-      <c r="F36" s="192"/>
-      <c r="G36" s="192"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="192"/>
-      <c r="J36" s="192"/>
-      <c r="K36" s="192"/>
-      <c r="L36" s="192"/>
-      <c r="M36" s="192"/>
-      <c r="N36" s="192"/>
-      <c r="O36" s="193"/>
+      <c r="B36" s="204"/>
+      <c r="C36" s="204"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="204"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="204"/>
+      <c r="I36" s="204"/>
+      <c r="J36" s="204"/>
+      <c r="K36" s="204"/>
+      <c r="L36" s="204"/>
+      <c r="M36" s="204"/>
+      <c r="N36" s="204"/>
+      <c r="O36" s="205"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
       <c r="Y36" s="35"/>
@@ -21617,20 +21620,20 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="192"/>
-      <c r="C37" s="192"/>
-      <c r="D37" s="192"/>
-      <c r="E37" s="192"/>
-      <c r="F37" s="192"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="192"/>
-      <c r="J37" s="192"/>
-      <c r="K37" s="192"/>
-      <c r="L37" s="192"/>
-      <c r="M37" s="192"/>
-      <c r="N37" s="192"/>
-      <c r="O37" s="193"/>
+      <c r="B37" s="204"/>
+      <c r="C37" s="204"/>
+      <c r="D37" s="204"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="204"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
+      <c r="I37" s="204"/>
+      <c r="J37" s="204"/>
+      <c r="K37" s="204"/>
+      <c r="L37" s="204"/>
+      <c r="M37" s="204"/>
+      <c r="N37" s="204"/>
+      <c r="O37" s="205"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
@@ -21647,20 +21650,20 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="192"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="192"/>
-      <c r="F38" s="192"/>
-      <c r="G38" s="192"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="192"/>
-      <c r="J38" s="192"/>
-      <c r="K38" s="192"/>
-      <c r="L38" s="192"/>
-      <c r="M38" s="192"/>
-      <c r="N38" s="192"/>
-      <c r="O38" s="193"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="204"/>
+      <c r="D38" s="204"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="204"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
+      <c r="I38" s="204"/>
+      <c r="J38" s="204"/>
+      <c r="K38" s="204"/>
+      <c r="L38" s="204"/>
+      <c r="M38" s="204"/>
+      <c r="N38" s="204"/>
+      <c r="O38" s="205"/>
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
       <c r="Y38" s="35"/>
@@ -21677,20 +21680,20 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="192"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="192"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="192"/>
-      <c r="G39" s="192"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="192"/>
-      <c r="K39" s="192"/>
-      <c r="L39" s="192"/>
-      <c r="M39" s="192"/>
-      <c r="N39" s="192"/>
-      <c r="O39" s="193"/>
+      <c r="B39" s="204"/>
+      <c r="C39" s="204"/>
+      <c r="D39" s="204"/>
+      <c r="E39" s="204"/>
+      <c r="F39" s="204"/>
+      <c r="G39" s="204"/>
+      <c r="H39" s="204"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="204"/>
+      <c r="L39" s="204"/>
+      <c r="M39" s="204"/>
+      <c r="N39" s="204"/>
+      <c r="O39" s="205"/>
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
       <c r="Y39" s="35"/>
@@ -21707,20 +21710,20 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="192"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="192"/>
-      <c r="E40" s="192"/>
-      <c r="F40" s="192"/>
-      <c r="G40" s="192"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="192"/>
-      <c r="J40" s="192"/>
-      <c r="K40" s="192"/>
-      <c r="L40" s="192"/>
-      <c r="M40" s="192"/>
-      <c r="N40" s="192"/>
-      <c r="O40" s="193"/>
+      <c r="B40" s="204"/>
+      <c r="C40" s="204"/>
+      <c r="D40" s="204"/>
+      <c r="E40" s="204"/>
+      <c r="F40" s="204"/>
+      <c r="G40" s="204"/>
+      <c r="H40" s="204"/>
+      <c r="I40" s="204"/>
+      <c r="J40" s="204"/>
+      <c r="K40" s="204"/>
+      <c r="L40" s="204"/>
+      <c r="M40" s="204"/>
+      <c r="N40" s="204"/>
+      <c r="O40" s="205"/>
       <c r="W40" s="35"/>
       <c r="X40" s="35"/>
       <c r="Y40" s="35"/>
@@ -21737,20 +21740,20 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="192"/>
-      <c r="C41" s="192"/>
-      <c r="D41" s="192"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="192"/>
-      <c r="G41" s="192"/>
-      <c r="H41" s="192"/>
-      <c r="I41" s="192"/>
-      <c r="J41" s="192"/>
-      <c r="K41" s="192"/>
-      <c r="L41" s="192"/>
-      <c r="M41" s="192"/>
-      <c r="N41" s="192"/>
-      <c r="O41" s="193"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="204"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="204"/>
+      <c r="J41" s="204"/>
+      <c r="K41" s="204"/>
+      <c r="L41" s="204"/>
+      <c r="M41" s="204"/>
+      <c r="N41" s="204"/>
+      <c r="O41" s="205"/>
       <c r="W41" s="35"/>
       <c r="X41" s="35"/>
       <c r="Y41" s="35"/>
@@ -21767,20 +21770,20 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="194"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="194"/>
-      <c r="G42" s="194"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="194"/>
-      <c r="J42" s="194"/>
-      <c r="K42" s="194"/>
-      <c r="L42" s="194"/>
-      <c r="M42" s="194"/>
-      <c r="N42" s="194"/>
-      <c r="O42" s="195"/>
+      <c r="B42" s="206"/>
+      <c r="C42" s="206"/>
+      <c r="D42" s="206"/>
+      <c r="E42" s="206"/>
+      <c r="F42" s="206"/>
+      <c r="G42" s="206"/>
+      <c r="H42" s="206"/>
+      <c r="I42" s="206"/>
+      <c r="J42" s="206"/>
+      <c r="K42" s="206"/>
+      <c r="L42" s="206"/>
+      <c r="M42" s="206"/>
+      <c r="N42" s="206"/>
+      <c r="O42" s="207"/>
       <c r="W42" s="35"/>
       <c r="X42" s="35"/>
       <c r="Y42" s="35"/>
@@ -21830,6 +21833,36 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B26:O26"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
     <mergeCell ref="B39:O39"/>
     <mergeCell ref="B40:O40"/>
     <mergeCell ref="B41:O41"/>
@@ -21839,36 +21872,6 @@
     <mergeCell ref="B36:O36"/>
     <mergeCell ref="B37:O37"/>
     <mergeCell ref="B38:O38"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B26:O26"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21879,8 +21882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -21900,14 +21903,14 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
-      <c r="J1" s="137" t="s">
+      <c r="J1" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
       <c r="P1" s="26"/>
       <c r="Q1" s="26"/>
       <c r="R1" s="26"/>
@@ -22009,12 +22012,12 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
@@ -22116,12 +22119,12 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="137"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="149"/>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
@@ -22223,12 +22226,12 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
@@ -22375,6 +22378,9 @@
       <c r="AD9" s="35"/>
     </row>
     <row r="10" spans="4:108">
+      <c r="H10" s="25" t="s">
+        <v>179</v>
+      </c>
       <c r="AC10" s="123"/>
       <c r="AD10" s="35"/>
     </row>
@@ -23082,74 +23088,74 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="5:19">
-      <c r="E1" s="138" t="s">
+      <c r="E1" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="150"/>
     </row>
     <row r="2" spans="5:19">
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="150"/>
     </row>
     <row r="3" spans="5:19">
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
     </row>
     <row r="4" spans="5:19">
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="138"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
     </row>
     <row r="5" spans="5:19">
       <c r="E5" t="s">
@@ -23218,74 +23224,74 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="138"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1">
-      <c r="A4" s="138"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="138"/>
+      <c r="A4" s="150"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="71" t="s">
@@ -23409,73 +23415,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
@@ -23521,12 +23527,12 @@
       </c>
     </row>
     <row r="56" spans="9:73">
-      <c r="I56" s="139" t="s">
+      <c r="I56" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="J56" s="139"/>
-      <c r="K56" s="139"/>
-      <c r="L56" s="139"/>
+      <c r="J56" s="151"/>
+      <c r="K56" s="151"/>
+      <c r="L56" s="151"/>
       <c r="BU56" t="s">
         <v>89</v>
       </c>
@@ -23573,73 +23579,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
@@ -23664,10 +23670,10 @@
       <c r="CM38" s="103"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="139"/>
-      <c r="J56" s="139"/>
-      <c r="K56" s="139"/>
-      <c r="L56" s="139"/>
+      <c r="I56" s="151"/>
+      <c r="J56" s="151"/>
+      <c r="K56" s="151"/>
+      <c r="L56" s="151"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" t="s">
@@ -23705,70 +23711,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="137"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="137"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
     </row>
@@ -23792,10 +23798,10 @@
       <c r="CM38" s="119"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="140"/>
-      <c r="J56" s="140"/>
-      <c r="K56" s="140"/>
-      <c r="L56" s="140"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="152"/>
+      <c r="K56" s="152"/>
+      <c r="L56" s="152"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" s="24" t="s">
@@ -23829,73 +23835,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
@@ -23929,70 +23935,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="137"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="137"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
     </row>
@@ -24010,10 +24016,10 @@
       <c r="CM38" s="119"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="140"/>
-      <c r="J56" s="140"/>
-      <c r="K56" s="140"/>
-      <c r="L56" s="140"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="152"/>
+      <c r="K56" s="152"/>
+      <c r="L56" s="152"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" s="24" t="s">

--- a/IS_456_COLUMN/IS456_Column_Specifications__0817_1.xlsx
+++ b/IS_456_COLUMN/IS456_Column_Specifications__0817_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="183">
   <si>
     <t>Development Specifications</t>
   </si>
@@ -886,6 +886,15 @@
   </si>
   <si>
     <t>Seismic design asper IS 13920</t>
+  </si>
+  <si>
+    <t>Effective Length  =</t>
+  </si>
+  <si>
+    <t>Add 5 percent for spiral condiditon</t>
+  </si>
+  <si>
+    <t>for m given obtain e as m = p e</t>
   </si>
 </sst>
 </file>
@@ -2001,31 +2010,70 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2055,59 +2103,35 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2130,37 +2154,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2189,6 +2186,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15569,19 +15578,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>206</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>295</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="11" name="Picture 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -15601,7 +15610,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="57150" y="37318950"/>
+          <a:off x="0" y="37280850"/>
           <a:ext cx="11449050" cy="16182975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16243,8 +16252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16747,7 +16756,9 @@
       <c r="AA20" s="52"/>
     </row>
     <row r="21" spans="1:27" ht="17.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="28" t="s">
+        <v>180</v>
+      </c>
       <c r="B21" s="29"/>
       <c r="C21" s="51"/>
       <c r="D21" s="29"/>
@@ -18136,24 +18147,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="165"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="178"/>
       <c r="Q1" s="99"/>
       <c r="R1" s="99"/>
       <c r="S1" s="99"/>
@@ -18163,22 +18174,22 @@
       <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="181"/>
       <c r="Q2" s="99"/>
       <c r="R2" s="99"/>
       <c r="S2" s="99"/>
@@ -18188,22 +18199,22 @@
       <c r="W2" s="99"/>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A3" s="166"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="181"/>
       <c r="Q3" s="99"/>
       <c r="R3" s="99"/>
       <c r="S3" s="99"/>
@@ -18213,22 +18224,22 @@
       <c r="W3" s="99"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A4" s="169"/>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="171"/>
+      <c r="A4" s="182"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="184"/>
       <c r="Q4" s="99"/>
       <c r="R4" s="99"/>
       <c r="S4" s="99"/>
@@ -18346,365 +18357,365 @@
       <c r="D10" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="161" t="s">
+      <c r="E10" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="161" t="s">
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="162"/>
-      <c r="J10" s="161" t="s">
+      <c r="I10" s="158"/>
+      <c r="J10" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="162"/>
-      <c r="L10" s="161" t="s">
+      <c r="K10" s="158"/>
+      <c r="L10" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="162"/>
-      <c r="N10" s="161" t="s">
+      <c r="M10" s="158"/>
+      <c r="N10" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="189"/>
-      <c r="P10" s="162"/>
+      <c r="O10" s="157"/>
+      <c r="P10" s="158"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="185" t="s">
+      <c r="A11" s="166" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="157" t="s">
+      <c r="B11" s="188" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="177" t="s">
+      <c r="C11" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="159" t="s">
+      <c r="D11" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="179" t="s">
+      <c r="E11" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="173"/>
-      <c r="N11" s="174"/>
-      <c r="O11" s="175"/>
-      <c r="P11" s="176"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="160"/>
+      <c r="P11" s="161"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="186"/>
-      <c r="B12" s="155"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="181" t="s">
+      <c r="A12" s="167"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="175"/>
-      <c r="P12" s="176"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="160"/>
+      <c r="P12" s="161"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="186"/>
-      <c r="B13" s="155"/>
-      <c r="C13" s="188" t="s">
+      <c r="A13" s="167"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="159" t="s">
+      <c r="D13" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="179" t="s">
+      <c r="E13" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="172"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="174"/>
-      <c r="O13" s="175"/>
-      <c r="P13" s="176"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="161"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="186"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="181" t="s">
+      <c r="A14" s="167"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="172"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="174"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="176"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="161"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="186"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="177" t="s">
+      <c r="A15" s="167"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="169" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="159" t="s">
+      <c r="D15" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="179" t="s">
+      <c r="E15" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="180"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="172"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="174"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="176"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="160"/>
+      <c r="P15" s="161"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="186"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="183" t="s">
+      <c r="A16" s="167"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="184"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="174"/>
-      <c r="O16" s="175"/>
-      <c r="P16" s="176"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="161"/>
     </row>
     <row r="17" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="186"/>
-      <c r="B17" s="155"/>
-      <c r="C17" s="177" t="s">
+      <c r="A17" s="167"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="169" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="179" t="s">
+      <c r="E17" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="180"/>
-      <c r="G17" s="177"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="169"/>
       <c r="H17" s="107"/>
       <c r="I17" s="108"/>
       <c r="J17" s="107"/>
       <c r="K17" s="108"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="173"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="155"/>
       <c r="N17" s="104"/>
       <c r="O17" s="105"/>
       <c r="P17" s="106"/>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="186"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="178"/>
+      <c r="A18" s="167"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="170"/>
       <c r="H18" s="107"/>
       <c r="I18" s="108"/>
       <c r="J18" s="107"/>
       <c r="K18" s="108"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="173"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="155"/>
       <c r="N18" s="104"/>
       <c r="O18" s="105"/>
       <c r="P18" s="106"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="186"/>
-      <c r="B19" s="154" t="s">
+      <c r="A19" s="167"/>
+      <c r="B19" s="185" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="177" t="s">
+      <c r="C19" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="159" t="s">
+      <c r="D19" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="179" t="s">
+      <c r="E19" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="173"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="173"/>
-      <c r="N19" s="174"/>
-      <c r="O19" s="175"/>
-      <c r="P19" s="176"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="161"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="186"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="181" t="s">
+      <c r="A20" s="167"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="173"/>
-      <c r="L20" s="172"/>
-      <c r="M20" s="173"/>
-      <c r="N20" s="174"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="176"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="159"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="161"/>
     </row>
     <row r="21" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="186"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="188" t="s">
+      <c r="A21" s="167"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="159" t="s">
+      <c r="D21" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="179" t="s">
+      <c r="E21" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="173"/>
-      <c r="L21" s="172"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="174"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="176"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="160"/>
+      <c r="P21" s="161"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="186"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="188"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="181" t="s">
+      <c r="A22" s="167"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="173"/>
-      <c r="L22" s="172"/>
-      <c r="M22" s="173"/>
-      <c r="N22" s="174"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="176"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="161"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="186"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="177" t="s">
+      <c r="A23" s="167"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="169" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="159" t="s">
+      <c r="D23" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="179" t="s">
+      <c r="E23" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="180"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="172"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="174"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="176"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="161"/>
       <c r="Q23" s="75"/>
       <c r="R23" s="75"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="186"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="183" t="s">
+      <c r="A24" s="167"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="184"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="172"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="174"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="176"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="159"/>
+      <c r="O24" s="160"/>
+      <c r="P24" s="161"/>
       <c r="Q24" s="74"/>
       <c r="R24" s="75"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="186"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="177" t="s">
+      <c r="A25" s="167"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="169" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="159" t="s">
+      <c r="D25" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="179" t="s">
+      <c r="E25" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="180"/>
-      <c r="G25" s="177"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="169"/>
       <c r="H25" s="107"/>
       <c r="I25" s="108"/>
       <c r="J25" s="107"/>
       <c r="K25" s="108"/>
-      <c r="L25" s="172"/>
-      <c r="M25" s="173"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="155"/>
       <c r="N25" s="104"/>
       <c r="O25" s="105"/>
       <c r="P25" s="106"/>
@@ -18712,19 +18723,19 @@
       <c r="R25" s="75"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="187"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="178"/>
+      <c r="A26" s="168"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="170"/>
       <c r="H26" s="107"/>
       <c r="I26" s="108"/>
       <c r="J26" s="107"/>
       <c r="K26" s="108"/>
-      <c r="L26" s="172"/>
-      <c r="M26" s="173"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="155"/>
       <c r="N26" s="104"/>
       <c r="O26" s="105"/>
       <c r="P26" s="106"/>
@@ -18753,33 +18764,52 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A11:A26"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:G26"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A1:P4"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
     <mergeCell ref="N22:P22"/>
     <mergeCell ref="N23:P23"/>
     <mergeCell ref="N14:P14"/>
@@ -18796,54 +18826,35 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:G18"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A1:P4"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A11:A26"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="B19:B26"/>
     <mergeCell ref="B11:B18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:G26"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18868,66 +18879,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="202"/>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202" t="s">
+      <c r="A1" s="193"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="202"/>
-      <c r="T1" s="202"/>
-      <c r="U1" s="202"/>
-      <c r="V1" s="202"/>
-      <c r="W1" s="202"/>
-      <c r="X1" s="202"/>
-      <c r="Y1" s="202"/>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="202"/>
-      <c r="AB1" s="202"/>
-      <c r="AC1" s="202"/>
-      <c r="AD1" s="202"/>
-      <c r="AE1" s="202"/>
-      <c r="AF1" s="202"/>
-      <c r="AG1" s="202"/>
-      <c r="AH1" s="202"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="193"/>
+      <c r="T1" s="193"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
+      <c r="X1" s="193"/>
+      <c r="Y1" s="193"/>
+      <c r="Z1" s="193"/>
+      <c r="AA1" s="193"/>
+      <c r="AB1" s="193"/>
+      <c r="AC1" s="193"/>
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="193"/>
+      <c r="AG1" s="193"/>
+      <c r="AH1" s="193"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="202"/>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="202" t="s">
+      <c r="I2" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -18944,10 +18955,10 @@
       <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
+      <c r="A3" s="193"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -19040,14 +19051,14 @@
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -19079,12 +19090,12 @@
       <c r="AH4" s="16"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="203"/>
-      <c r="B5" s="194" t="s">
+      <c r="A5" s="194"/>
+      <c r="B5" s="199" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
       <c r="E5" s="16"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
@@ -19117,12 +19128,12 @@
       <c r="AH5" s="16"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="203"/>
-      <c r="B6" s="194" t="s">
+      <c r="A6" s="194"/>
+      <c r="B6" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
       <c r="E6" s="16"/>
       <c r="F6" s="93"/>
       <c r="G6" s="93"/>
@@ -19155,12 +19166,12 @@
       <c r="AH6" s="16"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="203"/>
-      <c r="B7" s="194" t="s">
+      <c r="A7" s="194"/>
+      <c r="B7" s="199" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
       <c r="E7" s="16"/>
       <c r="F7" s="93"/>
       <c r="G7" s="93"/>
@@ -19230,66 +19241,66 @@
       <c r="AI8" s="18"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="202"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202" t="s">
+      <c r="A9" s="193"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="202"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="202"/>
-      <c r="P9" s="202"/>
-      <c r="Q9" s="202"/>
-      <c r="R9" s="202"/>
-      <c r="S9" s="202"/>
-      <c r="T9" s="202"/>
-      <c r="U9" s="202"/>
-      <c r="V9" s="202"/>
-      <c r="W9" s="202"/>
-      <c r="X9" s="202"/>
-      <c r="Y9" s="202"/>
-      <c r="Z9" s="202"/>
-      <c r="AA9" s="202"/>
-      <c r="AB9" s="202"/>
-      <c r="AC9" s="202"/>
-      <c r="AD9" s="202"/>
-      <c r="AE9" s="202"/>
-      <c r="AF9" s="202"/>
-      <c r="AG9" s="202"/>
-      <c r="AH9" s="202"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="193"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="193"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="193"/>
+      <c r="S9" s="193"/>
+      <c r="T9" s="193"/>
+      <c r="U9" s="193"/>
+      <c r="V9" s="193"/>
+      <c r="W9" s="193"/>
+      <c r="X9" s="193"/>
+      <c r="Y9" s="193"/>
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="193"/>
+      <c r="AB9" s="193"/>
+      <c r="AC9" s="193"/>
+      <c r="AD9" s="193"/>
+      <c r="AE9" s="193"/>
+      <c r="AF9" s="193"/>
+      <c r="AG9" s="193"/>
+      <c r="AH9" s="193"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="202"/>
-      <c r="B10" s="202"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
+      <c r="A10" s="193"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="202" t="s">
+      <c r="I10" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="202"/>
-      <c r="O10" s="202"/>
-      <c r="P10" s="202"/>
-      <c r="Q10" s="202"/>
-      <c r="R10" s="202"/>
-      <c r="S10" s="202"/>
-      <c r="T10" s="202"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
+      <c r="N10" s="193"/>
+      <c r="O10" s="193"/>
+      <c r="P10" s="193"/>
+      <c r="Q10" s="193"/>
+      <c r="R10" s="193"/>
+      <c r="S10" s="193"/>
+      <c r="T10" s="193"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
@@ -19306,10 +19317,10 @@
       <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="202"/>
-      <c r="B11" s="202"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="202"/>
+      <c r="A11" s="193"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="193"/>
       <c r="E11" s="13">
         <v>1</v>
       </c>
@@ -19406,10 +19417,10 @@
       <c r="B12" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="200" t="s">
+      <c r="C12" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="201"/>
+      <c r="D12" s="203"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
@@ -19442,13 +19453,13 @@
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="196" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="197" t="s">
+      <c r="B13" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="197" t="s">
+      <c r="C13" s="190" t="s">
         <v>171</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -19486,9 +19497,9 @@
       <c r="AH13" s="13"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="192"/>
-      <c r="B14" s="199"/>
-      <c r="C14" s="199"/>
+      <c r="A14" s="197"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="191"/>
       <c r="D14" s="23" t="s">
         <v>70</v>
       </c>
@@ -19524,9 +19535,9 @@
       <c r="AH14" s="13"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="192"/>
-      <c r="B15" s="199"/>
-      <c r="C15" s="199"/>
+      <c r="A15" s="197"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="191"/>
       <c r="D15" s="23" t="s">
         <v>71</v>
       </c>
@@ -19562,9 +19573,9 @@
       <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="192"/>
-      <c r="B16" s="199"/>
-      <c r="C16" s="199"/>
+      <c r="A16" s="197"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="23" t="s">
         <v>72</v>
       </c>
@@ -19600,9 +19611,9 @@
       <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="1:45">
-      <c r="A17" s="192"/>
-      <c r="B17" s="199"/>
-      <c r="C17" s="199"/>
+      <c r="A17" s="197"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="191"/>
       <c r="D17" s="23" t="s">
         <v>174</v>
       </c>
@@ -19638,9 +19649,9 @@
       <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="1:45">
-      <c r="A18" s="192"/>
-      <c r="B18" s="199"/>
-      <c r="C18" s="198"/>
+      <c r="A18" s="197"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="192"/>
       <c r="D18" s="109" t="s">
         <v>129</v>
       </c>
@@ -19676,9 +19687,9 @@
       <c r="AH18" s="13"/>
     </row>
     <row r="19" spans="1:45">
-      <c r="A19" s="192"/>
-      <c r="B19" s="199"/>
-      <c r="C19" s="197" t="s">
+      <c r="A19" s="197"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="190" t="s">
         <v>172</v>
       </c>
       <c r="D19" s="23" t="s">
@@ -19716,9 +19727,9 @@
       <c r="AH19" s="13"/>
     </row>
     <row r="20" spans="1:45">
-      <c r="A20" s="192"/>
-      <c r="B20" s="199"/>
-      <c r="C20" s="199"/>
+      <c r="A20" s="197"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="191"/>
       <c r="D20" s="23" t="s">
         <v>70</v>
       </c>
@@ -19754,9 +19765,9 @@
       <c r="AH20" s="13"/>
     </row>
     <row r="21" spans="1:45">
-      <c r="A21" s="192"/>
-      <c r="B21" s="199"/>
-      <c r="C21" s="199"/>
+      <c r="A21" s="197"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
       <c r="D21" s="23" t="s">
         <v>71</v>
       </c>
@@ -19792,9 +19803,9 @@
       <c r="AH21" s="13"/>
     </row>
     <row r="22" spans="1:45">
-      <c r="A22" s="192"/>
-      <c r="B22" s="199"/>
-      <c r="C22" s="199"/>
+      <c r="A22" s="197"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="191"/>
       <c r="D22" s="23" t="s">
         <v>72</v>
       </c>
@@ -19830,9 +19841,9 @@
       <c r="AH22" s="13"/>
     </row>
     <row r="23" spans="1:45">
-      <c r="A23" s="192"/>
-      <c r="B23" s="199"/>
-      <c r="C23" s="199"/>
+      <c r="A23" s="197"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="23" t="s">
         <v>173</v>
       </c>
@@ -19868,9 +19879,9 @@
       <c r="AH23" s="13"/>
     </row>
     <row r="24" spans="1:45">
-      <c r="A24" s="192"/>
+      <c r="A24" s="197"/>
       <c r="B24" s="110"/>
-      <c r="C24" s="198"/>
+      <c r="C24" s="192"/>
       <c r="D24" s="111" t="s">
         <v>129</v>
       </c>
@@ -19906,11 +19917,11 @@
       <c r="AH24" s="13"/>
     </row>
     <row r="25" spans="1:45">
-      <c r="A25" s="192"/>
-      <c r="B25" s="192" t="s">
+      <c r="A25" s="197"/>
+      <c r="B25" s="197" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="197" t="s">
+      <c r="C25" s="190" t="s">
         <v>175</v>
       </c>
       <c r="D25" s="96" t="s">
@@ -19948,9 +19959,9 @@
       <c r="AH25" s="13"/>
     </row>
     <row r="26" spans="1:45">
-      <c r="A26" s="192"/>
-      <c r="B26" s="192"/>
-      <c r="C26" s="198"/>
+      <c r="A26" s="197"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="192"/>
       <c r="D26" s="96" t="s">
         <v>119</v>
       </c>
@@ -19997,14 +20008,14 @@
       <c r="AS26" s="29"/>
     </row>
     <row r="27" spans="1:45">
-      <c r="A27" s="192"/>
-      <c r="B27" s="190" t="s">
+      <c r="A27" s="197"/>
+      <c r="B27" s="195" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="195" t="s">
+      <c r="C27" s="200" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="196"/>
+      <c r="D27" s="201"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -20048,12 +20059,12 @@
       <c r="AS27" s="29"/>
     </row>
     <row r="28" spans="1:45">
-      <c r="A28" s="192"/>
-      <c r="B28" s="190"/>
-      <c r="C28" s="195" t="s">
+      <c r="A28" s="197"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="200" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="196"/>
+      <c r="D28" s="201"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -20097,11 +20108,11 @@
       <c r="AS28" s="29"/>
     </row>
     <row r="29" spans="1:45">
-      <c r="A29" s="192"/>
-      <c r="B29" s="190" t="s">
+      <c r="A29" s="197"/>
+      <c r="B29" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="190" t="s">
+      <c r="C29" s="195" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="94" t="s">
@@ -20150,9 +20161,9 @@
       <c r="AS29" s="29"/>
     </row>
     <row r="30" spans="1:45">
-      <c r="A30" s="192"/>
-      <c r="B30" s="190"/>
-      <c r="C30" s="190"/>
+      <c r="A30" s="197"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="195"/>
       <c r="D30" s="94" t="s">
         <v>18</v>
       </c>
@@ -20199,9 +20210,9 @@
       <c r="AS30" s="29"/>
     </row>
     <row r="31" spans="1:45">
-      <c r="A31" s="192"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="190"/>
+      <c r="A31" s="197"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="195"/>
       <c r="D31" s="94" t="s">
         <v>19</v>
       </c>
@@ -20248,9 +20259,9 @@
       <c r="AS31" s="29"/>
     </row>
     <row r="32" spans="1:45">
-      <c r="A32" s="192"/>
-      <c r="B32" s="190"/>
-      <c r="C32" s="190"/>
+      <c r="A32" s="197"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="195"/>
       <c r="D32" s="94" t="s">
         <v>20</v>
       </c>
@@ -20297,9 +20308,9 @@
       <c r="AS32" s="29"/>
     </row>
     <row r="33" spans="1:45">
-      <c r="A33" s="192"/>
-      <c r="B33" s="190"/>
-      <c r="C33" s="190" t="s">
+      <c r="A33" s="197"/>
+      <c r="B33" s="195"/>
+      <c r="C33" s="195" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="94" t="s">
@@ -20348,9 +20359,9 @@
       <c r="AS33" s="29"/>
     </row>
     <row r="34" spans="1:45">
-      <c r="A34" s="192"/>
-      <c r="B34" s="190"/>
-      <c r="C34" s="190"/>
+      <c r="A34" s="197"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="195"/>
       <c r="D34" s="94" t="s">
         <v>18</v>
       </c>
@@ -20397,9 +20408,9 @@
       <c r="AS34" s="29"/>
     </row>
     <row r="35" spans="1:45">
-      <c r="A35" s="192"/>
-      <c r="B35" s="190"/>
-      <c r="C35" s="190"/>
+      <c r="A35" s="197"/>
+      <c r="B35" s="195"/>
+      <c r="C35" s="195"/>
       <c r="D35" s="94" t="s">
         <v>19</v>
       </c>
@@ -20446,9 +20457,9 @@
       <c r="AS35" s="29"/>
     </row>
     <row r="36" spans="1:45">
-      <c r="A36" s="192"/>
-      <c r="B36" s="190"/>
-      <c r="C36" s="190" t="s">
+      <c r="A36" s="197"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="195" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="94" t="s">
@@ -20497,9 +20508,9 @@
       <c r="AS36" s="29"/>
     </row>
     <row r="37" spans="1:45">
-      <c r="A37" s="193"/>
-      <c r="B37" s="190"/>
-      <c r="C37" s="190"/>
+      <c r="A37" s="198"/>
+      <c r="B37" s="195"/>
+      <c r="C37" s="195"/>
       <c r="D37" s="94" t="s">
         <v>18</v>
       </c>
@@ -20563,15 +20574,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:AH1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:D11"/>
-    <mergeCell ref="E9:AH9"/>
-    <mergeCell ref="I10:T10"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="A13:A37"/>
@@ -20588,6 +20590,15 @@
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:AH1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:D11"/>
+    <mergeCell ref="E9:AH9"/>
+    <mergeCell ref="I10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20598,7 +20609,7 @@
   <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:O25"/>
+      <selection activeCell="B6" sqref="B6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -20607,133 +20618,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="210"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
+      <c r="L1" s="205"/>
+      <c r="M1" s="205"/>
+      <c r="N1" s="205"/>
+      <c r="O1" s="206"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="211"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="213"/>
+      <c r="A2" s="207"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="209"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="211"/>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="213"/>
+      <c r="A3" s="207"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="209"/>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1">
-      <c r="A4" s="214"/>
-      <c r="B4" s="215"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="216"/>
+      <c r="A4" s="210"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="212"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="100">
         <v>1</v>
       </c>
-      <c r="B5" s="204"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="204"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="204"/>
-      <c r="K5" s="204"/>
-      <c r="L5" s="204"/>
-      <c r="M5" s="204"/>
-      <c r="N5" s="204"/>
-      <c r="O5" s="205"/>
+      <c r="B5" s="213" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="214"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="101">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="205"/>
+      <c r="B6" s="213" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="213"/>
+      <c r="I6" s="213"/>
+      <c r="J6" s="213"/>
+      <c r="K6" s="213"/>
+      <c r="L6" s="213"/>
+      <c r="M6" s="213"/>
+      <c r="N6" s="213"/>
+      <c r="O6" s="214"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="101">
         <f t="shared" ref="A7:A42" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="205"/>
+      <c r="B7" s="213"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="213"/>
+      <c r="I7" s="213"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="213"/>
+      <c r="L7" s="213"/>
+      <c r="M7" s="213"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="214"/>
       <c r="W7" s="35"/>
       <c r="X7" s="35"/>
       <c r="Y7" s="35"/>
@@ -20750,20 +20765,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="204"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="204"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="205"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="213"/>
+      <c r="L8" s="213"/>
+      <c r="M8" s="213"/>
+      <c r="N8" s="213"/>
+      <c r="O8" s="214"/>
       <c r="W8" s="35"/>
       <c r="X8" s="35"/>
       <c r="Y8" s="35"/>
@@ -20780,20 +20795,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="205"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="213"/>
+      <c r="L9" s="213"/>
+      <c r="M9" s="213"/>
+      <c r="N9" s="213"/>
+      <c r="O9" s="214"/>
       <c r="W9" s="35"/>
       <c r="X9" s="35"/>
       <c r="Y9" s="35"/>
@@ -20810,20 +20825,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="204"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="204"/>
-      <c r="M10" s="204"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="205"/>
+      <c r="B10" s="213"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="213"/>
+      <c r="L10" s="213"/>
+      <c r="M10" s="213"/>
+      <c r="N10" s="213"/>
+      <c r="O10" s="214"/>
       <c r="W10" s="35"/>
       <c r="X10" s="35"/>
       <c r="Y10" s="35"/>
@@ -20840,20 +20855,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="204"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="204"/>
-      <c r="M11" s="204"/>
-      <c r="N11" s="204"/>
-      <c r="O11" s="205"/>
+      <c r="B11" s="213"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
+      <c r="L11" s="213"/>
+      <c r="M11" s="213"/>
+      <c r="N11" s="213"/>
+      <c r="O11" s="214"/>
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
@@ -20870,20 +20885,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="204"/>
-      <c r="C12" s="204"/>
-      <c r="D12" s="204"/>
-      <c r="E12" s="204"/>
-      <c r="F12" s="204"/>
-      <c r="G12" s="204"/>
-      <c r="H12" s="204"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="204"/>
-      <c r="L12" s="204"/>
-      <c r="M12" s="204"/>
-      <c r="N12" s="204"/>
-      <c r="O12" s="205"/>
+      <c r="B12" s="213"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="213"/>
+      <c r="L12" s="213"/>
+      <c r="M12" s="213"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="214"/>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
       <c r="Y12" s="35"/>
@@ -20900,20 +20915,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="204"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="205"/>
+      <c r="B13" s="213"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="213"/>
+      <c r="K13" s="213"/>
+      <c r="L13" s="213"/>
+      <c r="M13" s="213"/>
+      <c r="N13" s="213"/>
+      <c r="O13" s="214"/>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
@@ -20930,20 +20945,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="204"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="204"/>
-      <c r="E14" s="204"/>
-      <c r="F14" s="204"/>
-      <c r="G14" s="204"/>
-      <c r="H14" s="204"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="204"/>
-      <c r="L14" s="204"/>
-      <c r="M14" s="204"/>
-      <c r="N14" s="204"/>
-      <c r="O14" s="205"/>
+      <c r="B14" s="213"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="213"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="213"/>
+      <c r="K14" s="213"/>
+      <c r="L14" s="213"/>
+      <c r="M14" s="213"/>
+      <c r="N14" s="213"/>
+      <c r="O14" s="214"/>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
@@ -20960,20 +20975,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="204"/>
-      <c r="C15" s="204"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="204"/>
-      <c r="M15" s="204"/>
-      <c r="N15" s="204"/>
-      <c r="O15" s="205"/>
+      <c r="B15" s="213"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="213"/>
+      <c r="L15" s="213"/>
+      <c r="M15" s="213"/>
+      <c r="N15" s="213"/>
+      <c r="O15" s="214"/>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
       <c r="Y15" s="35"/>
@@ -20990,20 +21005,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="204"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="204"/>
-      <c r="L16" s="204"/>
-      <c r="M16" s="204"/>
-      <c r="N16" s="204"/>
-      <c r="O16" s="205"/>
+      <c r="B16" s="213"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="213"/>
+      <c r="K16" s="213"/>
+      <c r="L16" s="213"/>
+      <c r="M16" s="213"/>
+      <c r="N16" s="213"/>
+      <c r="O16" s="214"/>
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="35"/>
@@ -21020,20 +21035,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="204"/>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="204"/>
-      <c r="L17" s="204"/>
-      <c r="M17" s="204"/>
-      <c r="N17" s="204"/>
-      <c r="O17" s="205"/>
+      <c r="B17" s="213"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="213"/>
+      <c r="L17" s="213"/>
+      <c r="M17" s="213"/>
+      <c r="N17" s="213"/>
+      <c r="O17" s="214"/>
       <c r="W17" s="35"/>
       <c r="X17" s="35"/>
       <c r="Y17" s="35"/>
@@ -21050,20 +21065,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="204"/>
-      <c r="C18" s="204"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="204"/>
-      <c r="L18" s="204"/>
-      <c r="M18" s="204"/>
-      <c r="N18" s="204"/>
-      <c r="O18" s="205"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="213"/>
+      <c r="J18" s="213"/>
+      <c r="K18" s="213"/>
+      <c r="L18" s="213"/>
+      <c r="M18" s="213"/>
+      <c r="N18" s="213"/>
+      <c r="O18" s="214"/>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
       <c r="Y18" s="35"/>
@@ -21080,20 +21095,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="204"/>
-      <c r="C19" s="204"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="204"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="204"/>
-      <c r="L19" s="204"/>
-      <c r="M19" s="204"/>
-      <c r="N19" s="204"/>
-      <c r="O19" s="205"/>
+      <c r="B19" s="213"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="213"/>
+      <c r="N19" s="213"/>
+      <c r="O19" s="214"/>
       <c r="W19" s="35"/>
       <c r="X19" s="35"/>
       <c r="Y19" s="35"/>
@@ -21110,20 +21125,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="204"/>
-      <c r="C20" s="204"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="204"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="204"/>
-      <c r="L20" s="204"/>
-      <c r="M20" s="204"/>
-      <c r="N20" s="204"/>
-      <c r="O20" s="205"/>
+      <c r="B20" s="213"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="213"/>
+      <c r="J20" s="213"/>
+      <c r="K20" s="213"/>
+      <c r="L20" s="213"/>
+      <c r="M20" s="213"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="214"/>
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
       <c r="Y20" s="35"/>
@@ -21140,20 +21155,20 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="204"/>
-      <c r="C21" s="204"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="204"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="204"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="204"/>
-      <c r="K21" s="204"/>
-      <c r="L21" s="204"/>
-      <c r="M21" s="204"/>
-      <c r="N21" s="204"/>
-      <c r="O21" s="205"/>
+      <c r="B21" s="213"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="213"/>
+      <c r="J21" s="213"/>
+      <c r="K21" s="213"/>
+      <c r="L21" s="213"/>
+      <c r="M21" s="213"/>
+      <c r="N21" s="213"/>
+      <c r="O21" s="214"/>
       <c r="W21" s="35"/>
       <c r="X21" s="35"/>
       <c r="Y21" s="35"/>
@@ -21170,20 +21185,20 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="204"/>
-      <c r="C22" s="204"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="204"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="204"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="204"/>
-      <c r="L22" s="204"/>
-      <c r="M22" s="204"/>
-      <c r="N22" s="204"/>
-      <c r="O22" s="205"/>
+      <c r="B22" s="213"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="213"/>
+      <c r="G22" s="213"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="213"/>
+      <c r="J22" s="213"/>
+      <c r="K22" s="213"/>
+      <c r="L22" s="213"/>
+      <c r="M22" s="213"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="214"/>
       <c r="W22" s="35"/>
       <c r="X22" s="35"/>
       <c r="Y22" s="35"/>
@@ -21200,20 +21215,20 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="204"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="204"/>
-      <c r="L23" s="204"/>
-      <c r="M23" s="204"/>
-      <c r="N23" s="204"/>
-      <c r="O23" s="205"/>
+      <c r="B23" s="213"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="213"/>
+      <c r="G23" s="213"/>
+      <c r="H23" s="213"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="213"/>
+      <c r="K23" s="213"/>
+      <c r="L23" s="213"/>
+      <c r="M23" s="213"/>
+      <c r="N23" s="213"/>
+      <c r="O23" s="214"/>
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
@@ -21230,20 +21245,20 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="204"/>
-      <c r="C24" s="204"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="204"/>
-      <c r="H24" s="204"/>
-      <c r="I24" s="204"/>
-      <c r="J24" s="204"/>
-      <c r="K24" s="204"/>
-      <c r="L24" s="204"/>
-      <c r="M24" s="204"/>
-      <c r="N24" s="204"/>
-      <c r="O24" s="205"/>
+      <c r="B24" s="213"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="213"/>
+      <c r="F24" s="213"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="213"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="213"/>
+      <c r="K24" s="213"/>
+      <c r="L24" s="213"/>
+      <c r="M24" s="213"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="214"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
@@ -21260,20 +21275,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="204"/>
-      <c r="C25" s="204"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="204"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="204"/>
-      <c r="M25" s="204"/>
-      <c r="N25" s="204"/>
-      <c r="O25" s="205"/>
+      <c r="B25" s="213"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="213"/>
+      <c r="F25" s="213"/>
+      <c r="G25" s="213"/>
+      <c r="H25" s="213"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="213"/>
+      <c r="K25" s="213"/>
+      <c r="L25" s="213"/>
+      <c r="M25" s="213"/>
+      <c r="N25" s="213"/>
+      <c r="O25" s="214"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
@@ -21290,20 +21305,20 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="204"/>
-      <c r="C26" s="204"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="204"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="204"/>
-      <c r="K26" s="204"/>
-      <c r="L26" s="204"/>
-      <c r="M26" s="204"/>
-      <c r="N26" s="204"/>
-      <c r="O26" s="205"/>
+      <c r="B26" s="213"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="213"/>
+      <c r="E26" s="213"/>
+      <c r="F26" s="213"/>
+      <c r="G26" s="213"/>
+      <c r="H26" s="213"/>
+      <c r="I26" s="213"/>
+      <c r="J26" s="213"/>
+      <c r="K26" s="213"/>
+      <c r="L26" s="213"/>
+      <c r="M26" s="213"/>
+      <c r="N26" s="213"/>
+      <c r="O26" s="214"/>
       <c r="W26" s="35"/>
       <c r="X26" s="35"/>
       <c r="Y26" s="35"/>
@@ -21320,20 +21335,20 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="204"/>
-      <c r="C27" s="204"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="204"/>
-      <c r="F27" s="204"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="204"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="204"/>
-      <c r="K27" s="204"/>
-      <c r="L27" s="204"/>
-      <c r="M27" s="204"/>
-      <c r="N27" s="204"/>
-      <c r="O27" s="205"/>
+      <c r="B27" s="213"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="213"/>
+      <c r="F27" s="213"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="213"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="213"/>
+      <c r="K27" s="213"/>
+      <c r="L27" s="213"/>
+      <c r="M27" s="213"/>
+      <c r="N27" s="213"/>
+      <c r="O27" s="214"/>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
@@ -21350,20 +21365,20 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="204"/>
-      <c r="C28" s="204"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="204"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="204"/>
-      <c r="K28" s="204"/>
-      <c r="L28" s="204"/>
-      <c r="M28" s="204"/>
-      <c r="N28" s="204"/>
-      <c r="O28" s="205"/>
+      <c r="B28" s="213"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="213"/>
+      <c r="E28" s="213"/>
+      <c r="F28" s="213"/>
+      <c r="G28" s="213"/>
+      <c r="H28" s="213"/>
+      <c r="I28" s="213"/>
+      <c r="J28" s="213"/>
+      <c r="K28" s="213"/>
+      <c r="L28" s="213"/>
+      <c r="M28" s="213"/>
+      <c r="N28" s="213"/>
+      <c r="O28" s="214"/>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
@@ -21380,20 +21395,20 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="204"/>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="204"/>
-      <c r="J29" s="204"/>
-      <c r="K29" s="204"/>
-      <c r="L29" s="204"/>
-      <c r="M29" s="204"/>
-      <c r="N29" s="204"/>
-      <c r="O29" s="205"/>
+      <c r="B29" s="213"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="213"/>
+      <c r="F29" s="213"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="213"/>
+      <c r="I29" s="213"/>
+      <c r="J29" s="213"/>
+      <c r="K29" s="213"/>
+      <c r="L29" s="213"/>
+      <c r="M29" s="213"/>
+      <c r="N29" s="213"/>
+      <c r="O29" s="214"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
@@ -21410,20 +21425,20 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="204"/>
-      <c r="C30" s="204"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="204"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="204"/>
-      <c r="H30" s="204"/>
-      <c r="I30" s="204"/>
-      <c r="J30" s="204"/>
-      <c r="K30" s="204"/>
-      <c r="L30" s="204"/>
-      <c r="M30" s="204"/>
-      <c r="N30" s="204"/>
-      <c r="O30" s="205"/>
+      <c r="B30" s="213"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="213"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="213"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="213"/>
+      <c r="I30" s="213"/>
+      <c r="J30" s="213"/>
+      <c r="K30" s="213"/>
+      <c r="L30" s="213"/>
+      <c r="M30" s="213"/>
+      <c r="N30" s="213"/>
+      <c r="O30" s="214"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
@@ -21440,20 +21455,20 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="204"/>
-      <c r="C31" s="204"/>
-      <c r="D31" s="204"/>
-      <c r="E31" s="204"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="204"/>
-      <c r="H31" s="204"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="204"/>
-      <c r="K31" s="204"/>
-      <c r="L31" s="204"/>
-      <c r="M31" s="204"/>
-      <c r="N31" s="204"/>
-      <c r="O31" s="205"/>
+      <c r="B31" s="213"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="213"/>
+      <c r="E31" s="213"/>
+      <c r="F31" s="213"/>
+      <c r="G31" s="213"/>
+      <c r="H31" s="213"/>
+      <c r="I31" s="213"/>
+      <c r="J31" s="213"/>
+      <c r="K31" s="213"/>
+      <c r="L31" s="213"/>
+      <c r="M31" s="213"/>
+      <c r="N31" s="213"/>
+      <c r="O31" s="214"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
@@ -21470,20 +21485,20 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="204"/>
-      <c r="C32" s="204"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="204"/>
-      <c r="H32" s="204"/>
-      <c r="I32" s="204"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="204"/>
-      <c r="L32" s="204"/>
-      <c r="M32" s="204"/>
-      <c r="N32" s="204"/>
-      <c r="O32" s="205"/>
+      <c r="B32" s="213"/>
+      <c r="C32" s="213"/>
+      <c r="D32" s="213"/>
+      <c r="E32" s="213"/>
+      <c r="F32" s="213"/>
+      <c r="G32" s="213"/>
+      <c r="H32" s="213"/>
+      <c r="I32" s="213"/>
+      <c r="J32" s="213"/>
+      <c r="K32" s="213"/>
+      <c r="L32" s="213"/>
+      <c r="M32" s="213"/>
+      <c r="N32" s="213"/>
+      <c r="O32" s="214"/>
       <c r="W32" s="35"/>
       <c r="X32" s="35"/>
       <c r="Y32" s="35"/>
@@ -21500,20 +21515,20 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="204"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="204"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="204"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="204"/>
-      <c r="L33" s="204"/>
-      <c r="M33" s="204"/>
-      <c r="N33" s="204"/>
-      <c r="O33" s="205"/>
+      <c r="B33" s="213"/>
+      <c r="C33" s="213"/>
+      <c r="D33" s="213"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="213"/>
+      <c r="K33" s="213"/>
+      <c r="L33" s="213"/>
+      <c r="M33" s="213"/>
+      <c r="N33" s="213"/>
+      <c r="O33" s="214"/>
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
@@ -21530,20 +21545,20 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="204"/>
-      <c r="C34" s="204"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="204"/>
-      <c r="G34" s="204"/>
-      <c r="H34" s="204"/>
-      <c r="I34" s="204"/>
-      <c r="J34" s="204"/>
-      <c r="K34" s="204"/>
-      <c r="L34" s="204"/>
-      <c r="M34" s="204"/>
-      <c r="N34" s="204"/>
-      <c r="O34" s="205"/>
+      <c r="B34" s="213"/>
+      <c r="C34" s="213"/>
+      <c r="D34" s="213"/>
+      <c r="E34" s="213"/>
+      <c r="F34" s="213"/>
+      <c r="G34" s="213"/>
+      <c r="H34" s="213"/>
+      <c r="I34" s="213"/>
+      <c r="J34" s="213"/>
+      <c r="K34" s="213"/>
+      <c r="L34" s="213"/>
+      <c r="M34" s="213"/>
+      <c r="N34" s="213"/>
+      <c r="O34" s="214"/>
       <c r="W34" s="35"/>
       <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
@@ -21560,20 +21575,20 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="204"/>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
-      <c r="G35" s="204"/>
-      <c r="H35" s="204"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="204"/>
-      <c r="K35" s="204"/>
-      <c r="L35" s="204"/>
-      <c r="M35" s="204"/>
-      <c r="N35" s="204"/>
-      <c r="O35" s="205"/>
+      <c r="B35" s="213"/>
+      <c r="C35" s="213"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="213"/>
+      <c r="F35" s="213"/>
+      <c r="G35" s="213"/>
+      <c r="H35" s="213"/>
+      <c r="I35" s="213"/>
+      <c r="J35" s="213"/>
+      <c r="K35" s="213"/>
+      <c r="L35" s="213"/>
+      <c r="M35" s="213"/>
+      <c r="N35" s="213"/>
+      <c r="O35" s="214"/>
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
       <c r="Y35" s="35"/>
@@ -21590,20 +21605,20 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="204"/>
-      <c r="C36" s="204"/>
-      <c r="D36" s="204"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="204"/>
-      <c r="G36" s="204"/>
-      <c r="H36" s="204"/>
-      <c r="I36" s="204"/>
-      <c r="J36" s="204"/>
-      <c r="K36" s="204"/>
-      <c r="L36" s="204"/>
-      <c r="M36" s="204"/>
-      <c r="N36" s="204"/>
-      <c r="O36" s="205"/>
+      <c r="B36" s="213"/>
+      <c r="C36" s="213"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="213"/>
+      <c r="F36" s="213"/>
+      <c r="G36" s="213"/>
+      <c r="H36" s="213"/>
+      <c r="I36" s="213"/>
+      <c r="J36" s="213"/>
+      <c r="K36" s="213"/>
+      <c r="L36" s="213"/>
+      <c r="M36" s="213"/>
+      <c r="N36" s="213"/>
+      <c r="O36" s="214"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
       <c r="Y36" s="35"/>
@@ -21620,20 +21635,20 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="204"/>
-      <c r="C37" s="204"/>
-      <c r="D37" s="204"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="204"/>
-      <c r="G37" s="204"/>
-      <c r="H37" s="204"/>
-      <c r="I37" s="204"/>
-      <c r="J37" s="204"/>
-      <c r="K37" s="204"/>
-      <c r="L37" s="204"/>
-      <c r="M37" s="204"/>
-      <c r="N37" s="204"/>
-      <c r="O37" s="205"/>
+      <c r="B37" s="213"/>
+      <c r="C37" s="213"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="213"/>
+      <c r="F37" s="213"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="213"/>
+      <c r="I37" s="213"/>
+      <c r="J37" s="213"/>
+      <c r="K37" s="213"/>
+      <c r="L37" s="213"/>
+      <c r="M37" s="213"/>
+      <c r="N37" s="213"/>
+      <c r="O37" s="214"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
@@ -21650,20 +21665,20 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="204"/>
-      <c r="C38" s="204"/>
-      <c r="D38" s="204"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="204"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="204"/>
-      <c r="I38" s="204"/>
-      <c r="J38" s="204"/>
-      <c r="K38" s="204"/>
-      <c r="L38" s="204"/>
-      <c r="M38" s="204"/>
-      <c r="N38" s="204"/>
-      <c r="O38" s="205"/>
+      <c r="B38" s="213"/>
+      <c r="C38" s="213"/>
+      <c r="D38" s="213"/>
+      <c r="E38" s="213"/>
+      <c r="F38" s="213"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="213"/>
+      <c r="J38" s="213"/>
+      <c r="K38" s="213"/>
+      <c r="L38" s="213"/>
+      <c r="M38" s="213"/>
+      <c r="N38" s="213"/>
+      <c r="O38" s="214"/>
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
       <c r="Y38" s="35"/>
@@ -21680,20 +21695,20 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="204"/>
-      <c r="C39" s="204"/>
-      <c r="D39" s="204"/>
-      <c r="E39" s="204"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="204"/>
-      <c r="H39" s="204"/>
-      <c r="I39" s="204"/>
-      <c r="J39" s="204"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="204"/>
-      <c r="M39" s="204"/>
-      <c r="N39" s="204"/>
-      <c r="O39" s="205"/>
+      <c r="B39" s="213"/>
+      <c r="C39" s="213"/>
+      <c r="D39" s="213"/>
+      <c r="E39" s="213"/>
+      <c r="F39" s="213"/>
+      <c r="G39" s="213"/>
+      <c r="H39" s="213"/>
+      <c r="I39" s="213"/>
+      <c r="J39" s="213"/>
+      <c r="K39" s="213"/>
+      <c r="L39" s="213"/>
+      <c r="M39" s="213"/>
+      <c r="N39" s="213"/>
+      <c r="O39" s="214"/>
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
       <c r="Y39" s="35"/>
@@ -21710,20 +21725,20 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="204"/>
-      <c r="C40" s="204"/>
-      <c r="D40" s="204"/>
-      <c r="E40" s="204"/>
-      <c r="F40" s="204"/>
-      <c r="G40" s="204"/>
-      <c r="H40" s="204"/>
-      <c r="I40" s="204"/>
-      <c r="J40" s="204"/>
-      <c r="K40" s="204"/>
-      <c r="L40" s="204"/>
-      <c r="M40" s="204"/>
-      <c r="N40" s="204"/>
-      <c r="O40" s="205"/>
+      <c r="B40" s="213"/>
+      <c r="C40" s="213"/>
+      <c r="D40" s="213"/>
+      <c r="E40" s="213"/>
+      <c r="F40" s="213"/>
+      <c r="G40" s="213"/>
+      <c r="H40" s="213"/>
+      <c r="I40" s="213"/>
+      <c r="J40" s="213"/>
+      <c r="K40" s="213"/>
+      <c r="L40" s="213"/>
+      <c r="M40" s="213"/>
+      <c r="N40" s="213"/>
+      <c r="O40" s="214"/>
       <c r="W40" s="35"/>
       <c r="X40" s="35"/>
       <c r="Y40" s="35"/>
@@ -21740,20 +21755,20 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="204"/>
-      <c r="C41" s="204"/>
-      <c r="D41" s="204"/>
-      <c r="E41" s="204"/>
-      <c r="F41" s="204"/>
-      <c r="G41" s="204"/>
-      <c r="H41" s="204"/>
-      <c r="I41" s="204"/>
-      <c r="J41" s="204"/>
-      <c r="K41" s="204"/>
-      <c r="L41" s="204"/>
-      <c r="M41" s="204"/>
-      <c r="N41" s="204"/>
-      <c r="O41" s="205"/>
+      <c r="B41" s="213"/>
+      <c r="C41" s="213"/>
+      <c r="D41" s="213"/>
+      <c r="E41" s="213"/>
+      <c r="F41" s="213"/>
+      <c r="G41" s="213"/>
+      <c r="H41" s="213"/>
+      <c r="I41" s="213"/>
+      <c r="J41" s="213"/>
+      <c r="K41" s="213"/>
+      <c r="L41" s="213"/>
+      <c r="M41" s="213"/>
+      <c r="N41" s="213"/>
+      <c r="O41" s="214"/>
       <c r="W41" s="35"/>
       <c r="X41" s="35"/>
       <c r="Y41" s="35"/>
@@ -21770,20 +21785,20 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="206"/>
-      <c r="C42" s="206"/>
-      <c r="D42" s="206"/>
-      <c r="E42" s="206"/>
-      <c r="F42" s="206"/>
-      <c r="G42" s="206"/>
-      <c r="H42" s="206"/>
-      <c r="I42" s="206"/>
-      <c r="J42" s="206"/>
-      <c r="K42" s="206"/>
-      <c r="L42" s="206"/>
-      <c r="M42" s="206"/>
-      <c r="N42" s="206"/>
-      <c r="O42" s="207"/>
+      <c r="B42" s="215"/>
+      <c r="C42" s="215"/>
+      <c r="D42" s="215"/>
+      <c r="E42" s="215"/>
+      <c r="F42" s="215"/>
+      <c r="G42" s="215"/>
+      <c r="H42" s="215"/>
+      <c r="I42" s="215"/>
+      <c r="J42" s="215"/>
+      <c r="K42" s="215"/>
+      <c r="L42" s="215"/>
+      <c r="M42" s="215"/>
+      <c r="N42" s="215"/>
+      <c r="O42" s="216"/>
       <c r="W42" s="35"/>
       <c r="X42" s="35"/>
       <c r="Y42" s="35"/>
@@ -21833,36 +21848,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B26:O26"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
     <mergeCell ref="B39:O39"/>
     <mergeCell ref="B40:O40"/>
     <mergeCell ref="B41:O41"/>
@@ -21872,6 +21857,36 @@
     <mergeCell ref="B36:O36"/>
     <mergeCell ref="B37:O37"/>
     <mergeCell ref="B38:O38"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B26:O26"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21882,7 +21897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -23925,8 +23940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM206"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="P299" sqref="P299"/>
+    <sheetView topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="S276" sqref="S276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/IS_456_COLUMN/IS456_Column_Specifications__0817_1.xlsx
+++ b/IS_456_COLUMN/IS456_Column_Specifications__0817_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="181">
   <si>
     <t>Development Specifications</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t>Seismic design asper IS 13920</t>
+  </si>
+  <si>
+    <t>Check ashx ashy</t>
   </si>
 </sst>
 </file>
@@ -2001,31 +2004,70 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2055,59 +2097,35 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2130,37 +2148,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2189,6 +2180,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15569,19 +15572,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>295</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="10" name="Picture 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -15601,7 +15604,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="57150" y="37318950"/>
+          <a:off x="95250" y="37576125"/>
           <a:ext cx="11449050" cy="16182975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18136,24 +18139,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="165"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="178"/>
       <c r="Q1" s="99"/>
       <c r="R1" s="99"/>
       <c r="S1" s="99"/>
@@ -18163,22 +18166,22 @@
       <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="181"/>
       <c r="Q2" s="99"/>
       <c r="R2" s="99"/>
       <c r="S2" s="99"/>
@@ -18188,22 +18191,22 @@
       <c r="W2" s="99"/>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A3" s="166"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="181"/>
       <c r="Q3" s="99"/>
       <c r="R3" s="99"/>
       <c r="S3" s="99"/>
@@ -18213,22 +18216,22 @@
       <c r="W3" s="99"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A4" s="169"/>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="171"/>
+      <c r="A4" s="182"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="184"/>
       <c r="Q4" s="99"/>
       <c r="R4" s="99"/>
       <c r="S4" s="99"/>
@@ -18346,365 +18349,365 @@
       <c r="D10" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="161" t="s">
+      <c r="E10" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="161" t="s">
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="162"/>
-      <c r="J10" s="161" t="s">
+      <c r="I10" s="158"/>
+      <c r="J10" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="162"/>
-      <c r="L10" s="161" t="s">
+      <c r="K10" s="158"/>
+      <c r="L10" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="162"/>
-      <c r="N10" s="161" t="s">
+      <c r="M10" s="158"/>
+      <c r="N10" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="189"/>
-      <c r="P10" s="162"/>
+      <c r="O10" s="157"/>
+      <c r="P10" s="158"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="185" t="s">
+      <c r="A11" s="166" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="157" t="s">
+      <c r="B11" s="188" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="177" t="s">
+      <c r="C11" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="159" t="s">
+      <c r="D11" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="179" t="s">
+      <c r="E11" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="173"/>
-      <c r="N11" s="174"/>
-      <c r="O11" s="175"/>
-      <c r="P11" s="176"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="160"/>
+      <c r="P11" s="161"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="186"/>
-      <c r="B12" s="155"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="181" t="s">
+      <c r="A12" s="167"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="175"/>
-      <c r="P12" s="176"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="160"/>
+      <c r="P12" s="161"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="186"/>
-      <c r="B13" s="155"/>
-      <c r="C13" s="188" t="s">
+      <c r="A13" s="167"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="159" t="s">
+      <c r="D13" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="179" t="s">
+      <c r="E13" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="172"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="174"/>
-      <c r="O13" s="175"/>
-      <c r="P13" s="176"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="161"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="186"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="181" t="s">
+      <c r="A14" s="167"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="172"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="174"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="176"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="161"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="186"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="177" t="s">
+      <c r="A15" s="167"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="169" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="159" t="s">
+      <c r="D15" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="179" t="s">
+      <c r="E15" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="180"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="172"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="174"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="176"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="160"/>
+      <c r="P15" s="161"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="186"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="183" t="s">
+      <c r="A16" s="167"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="184"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="174"/>
-      <c r="O16" s="175"/>
-      <c r="P16" s="176"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="161"/>
     </row>
     <row r="17" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="186"/>
-      <c r="B17" s="155"/>
-      <c r="C17" s="177" t="s">
+      <c r="A17" s="167"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="169" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="179" t="s">
+      <c r="E17" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="180"/>
-      <c r="G17" s="177"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="169"/>
       <c r="H17" s="107"/>
       <c r="I17" s="108"/>
       <c r="J17" s="107"/>
       <c r="K17" s="108"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="173"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="155"/>
       <c r="N17" s="104"/>
       <c r="O17" s="105"/>
       <c r="P17" s="106"/>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="186"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="178"/>
+      <c r="A18" s="167"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="170"/>
       <c r="H18" s="107"/>
       <c r="I18" s="108"/>
       <c r="J18" s="107"/>
       <c r="K18" s="108"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="173"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="155"/>
       <c r="N18" s="104"/>
       <c r="O18" s="105"/>
       <c r="P18" s="106"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="186"/>
-      <c r="B19" s="154" t="s">
+      <c r="A19" s="167"/>
+      <c r="B19" s="185" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="177" t="s">
+      <c r="C19" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="159" t="s">
+      <c r="D19" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="179" t="s">
+      <c r="E19" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="173"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="173"/>
-      <c r="N19" s="174"/>
-      <c r="O19" s="175"/>
-      <c r="P19" s="176"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="161"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="186"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="181" t="s">
+      <c r="A20" s="167"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="173"/>
-      <c r="L20" s="172"/>
-      <c r="M20" s="173"/>
-      <c r="N20" s="174"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="176"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="159"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="161"/>
     </row>
     <row r="21" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="186"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="188" t="s">
+      <c r="A21" s="167"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="159" t="s">
+      <c r="D21" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="179" t="s">
+      <c r="E21" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="173"/>
-      <c r="L21" s="172"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="174"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="176"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="160"/>
+      <c r="P21" s="161"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="186"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="188"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="181" t="s">
+      <c r="A22" s="167"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="173"/>
-      <c r="L22" s="172"/>
-      <c r="M22" s="173"/>
-      <c r="N22" s="174"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="176"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="161"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="186"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="177" t="s">
+      <c r="A23" s="167"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="169" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="159" t="s">
+      <c r="D23" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="179" t="s">
+      <c r="E23" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="180"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="172"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="174"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="176"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="161"/>
       <c r="Q23" s="75"/>
       <c r="R23" s="75"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="186"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="183" t="s">
+      <c r="A24" s="167"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="184"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="172"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="174"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="176"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="159"/>
+      <c r="O24" s="160"/>
+      <c r="P24" s="161"/>
       <c r="Q24" s="74"/>
       <c r="R24" s="75"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="186"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="177" t="s">
+      <c r="A25" s="167"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="169" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="159" t="s">
+      <c r="D25" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="179" t="s">
+      <c r="E25" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="180"/>
-      <c r="G25" s="177"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="169"/>
       <c r="H25" s="107"/>
       <c r="I25" s="108"/>
       <c r="J25" s="107"/>
       <c r="K25" s="108"/>
-      <c r="L25" s="172"/>
-      <c r="M25" s="173"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="155"/>
       <c r="N25" s="104"/>
       <c r="O25" s="105"/>
       <c r="P25" s="106"/>
@@ -18712,19 +18715,19 @@
       <c r="R25" s="75"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="187"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="178"/>
+      <c r="A26" s="168"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="170"/>
       <c r="H26" s="107"/>
       <c r="I26" s="108"/>
       <c r="J26" s="107"/>
       <c r="K26" s="108"/>
-      <c r="L26" s="172"/>
-      <c r="M26" s="173"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="155"/>
       <c r="N26" s="104"/>
       <c r="O26" s="105"/>
       <c r="P26" s="106"/>
@@ -18753,33 +18756,52 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A11:A26"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:G26"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A1:P4"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
     <mergeCell ref="N22:P22"/>
     <mergeCell ref="N23:P23"/>
     <mergeCell ref="N14:P14"/>
@@ -18796,54 +18818,35 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:G18"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A1:P4"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A11:A26"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="B19:B26"/>
     <mergeCell ref="B11:B18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:G26"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18868,66 +18871,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="202"/>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202" t="s">
+      <c r="A1" s="193"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="202"/>
-      <c r="T1" s="202"/>
-      <c r="U1" s="202"/>
-      <c r="V1" s="202"/>
-      <c r="W1" s="202"/>
-      <c r="X1" s="202"/>
-      <c r="Y1" s="202"/>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="202"/>
-      <c r="AB1" s="202"/>
-      <c r="AC1" s="202"/>
-      <c r="AD1" s="202"/>
-      <c r="AE1" s="202"/>
-      <c r="AF1" s="202"/>
-      <c r="AG1" s="202"/>
-      <c r="AH1" s="202"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="193"/>
+      <c r="T1" s="193"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
+      <c r="X1" s="193"/>
+      <c r="Y1" s="193"/>
+      <c r="Z1" s="193"/>
+      <c r="AA1" s="193"/>
+      <c r="AB1" s="193"/>
+      <c r="AC1" s="193"/>
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="193"/>
+      <c r="AG1" s="193"/>
+      <c r="AH1" s="193"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="202"/>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="202" t="s">
+      <c r="I2" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -18944,10 +18947,10 @@
       <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
+      <c r="A3" s="193"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -19040,14 +19043,14 @@
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -19079,12 +19082,12 @@
       <c r="AH4" s="16"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="203"/>
-      <c r="B5" s="194" t="s">
+      <c r="A5" s="194"/>
+      <c r="B5" s="199" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
       <c r="E5" s="16"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
@@ -19117,12 +19120,12 @@
       <c r="AH5" s="16"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="203"/>
-      <c r="B6" s="194" t="s">
+      <c r="A6" s="194"/>
+      <c r="B6" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
       <c r="E6" s="16"/>
       <c r="F6" s="93"/>
       <c r="G6" s="93"/>
@@ -19155,12 +19158,12 @@
       <c r="AH6" s="16"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="203"/>
-      <c r="B7" s="194" t="s">
+      <c r="A7" s="194"/>
+      <c r="B7" s="199" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
       <c r="E7" s="16"/>
       <c r="F7" s="93"/>
       <c r="G7" s="93"/>
@@ -19230,66 +19233,66 @@
       <c r="AI8" s="18"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="202"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202" t="s">
+      <c r="A9" s="193"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="202"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="202"/>
-      <c r="P9" s="202"/>
-      <c r="Q9" s="202"/>
-      <c r="R9" s="202"/>
-      <c r="S9" s="202"/>
-      <c r="T9" s="202"/>
-      <c r="U9" s="202"/>
-      <c r="V9" s="202"/>
-      <c r="W9" s="202"/>
-      <c r="X9" s="202"/>
-      <c r="Y9" s="202"/>
-      <c r="Z9" s="202"/>
-      <c r="AA9" s="202"/>
-      <c r="AB9" s="202"/>
-      <c r="AC9" s="202"/>
-      <c r="AD9" s="202"/>
-      <c r="AE9" s="202"/>
-      <c r="AF9" s="202"/>
-      <c r="AG9" s="202"/>
-      <c r="AH9" s="202"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="193"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="193"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="193"/>
+      <c r="S9" s="193"/>
+      <c r="T9" s="193"/>
+      <c r="U9" s="193"/>
+      <c r="V9" s="193"/>
+      <c r="W9" s="193"/>
+      <c r="X9" s="193"/>
+      <c r="Y9" s="193"/>
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="193"/>
+      <c r="AB9" s="193"/>
+      <c r="AC9" s="193"/>
+      <c r="AD9" s="193"/>
+      <c r="AE9" s="193"/>
+      <c r="AF9" s="193"/>
+      <c r="AG9" s="193"/>
+      <c r="AH9" s="193"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="202"/>
-      <c r="B10" s="202"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
+      <c r="A10" s="193"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="202" t="s">
+      <c r="I10" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="202"/>
-      <c r="O10" s="202"/>
-      <c r="P10" s="202"/>
-      <c r="Q10" s="202"/>
-      <c r="R10" s="202"/>
-      <c r="S10" s="202"/>
-      <c r="T10" s="202"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
+      <c r="N10" s="193"/>
+      <c r="O10" s="193"/>
+      <c r="P10" s="193"/>
+      <c r="Q10" s="193"/>
+      <c r="R10" s="193"/>
+      <c r="S10" s="193"/>
+      <c r="T10" s="193"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
@@ -19306,10 +19309,10 @@
       <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="202"/>
-      <c r="B11" s="202"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="202"/>
+      <c r="A11" s="193"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="193"/>
       <c r="E11" s="13">
         <v>1</v>
       </c>
@@ -19406,10 +19409,10 @@
       <c r="B12" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="200" t="s">
+      <c r="C12" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="201"/>
+      <c r="D12" s="203"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
@@ -19442,13 +19445,13 @@
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="196" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="197" t="s">
+      <c r="B13" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="197" t="s">
+      <c r="C13" s="190" t="s">
         <v>171</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -19486,9 +19489,9 @@
       <c r="AH13" s="13"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="192"/>
-      <c r="B14" s="199"/>
-      <c r="C14" s="199"/>
+      <c r="A14" s="197"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="191"/>
       <c r="D14" s="23" t="s">
         <v>70</v>
       </c>
@@ -19524,9 +19527,9 @@
       <c r="AH14" s="13"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="192"/>
-      <c r="B15" s="199"/>
-      <c r="C15" s="199"/>
+      <c r="A15" s="197"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="191"/>
       <c r="D15" s="23" t="s">
         <v>71</v>
       </c>
@@ -19562,9 +19565,9 @@
       <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="192"/>
-      <c r="B16" s="199"/>
-      <c r="C16" s="199"/>
+      <c r="A16" s="197"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="23" t="s">
         <v>72</v>
       </c>
@@ -19600,9 +19603,9 @@
       <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="1:45">
-      <c r="A17" s="192"/>
-      <c r="B17" s="199"/>
-      <c r="C17" s="199"/>
+      <c r="A17" s="197"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="191"/>
       <c r="D17" s="23" t="s">
         <v>174</v>
       </c>
@@ -19638,9 +19641,9 @@
       <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="1:45">
-      <c r="A18" s="192"/>
-      <c r="B18" s="199"/>
-      <c r="C18" s="198"/>
+      <c r="A18" s="197"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="192"/>
       <c r="D18" s="109" t="s">
         <v>129</v>
       </c>
@@ -19676,9 +19679,9 @@
       <c r="AH18" s="13"/>
     </row>
     <row r="19" spans="1:45">
-      <c r="A19" s="192"/>
-      <c r="B19" s="199"/>
-      <c r="C19" s="197" t="s">
+      <c r="A19" s="197"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="190" t="s">
         <v>172</v>
       </c>
       <c r="D19" s="23" t="s">
@@ -19716,9 +19719,9 @@
       <c r="AH19" s="13"/>
     </row>
     <row r="20" spans="1:45">
-      <c r="A20" s="192"/>
-      <c r="B20" s="199"/>
-      <c r="C20" s="199"/>
+      <c r="A20" s="197"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="191"/>
       <c r="D20" s="23" t="s">
         <v>70</v>
       </c>
@@ -19754,9 +19757,9 @@
       <c r="AH20" s="13"/>
     </row>
     <row r="21" spans="1:45">
-      <c r="A21" s="192"/>
-      <c r="B21" s="199"/>
-      <c r="C21" s="199"/>
+      <c r="A21" s="197"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
       <c r="D21" s="23" t="s">
         <v>71</v>
       </c>
@@ -19792,9 +19795,9 @@
       <c r="AH21" s="13"/>
     </row>
     <row r="22" spans="1:45">
-      <c r="A22" s="192"/>
-      <c r="B22" s="199"/>
-      <c r="C22" s="199"/>
+      <c r="A22" s="197"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="191"/>
       <c r="D22" s="23" t="s">
         <v>72</v>
       </c>
@@ -19830,9 +19833,9 @@
       <c r="AH22" s="13"/>
     </row>
     <row r="23" spans="1:45">
-      <c r="A23" s="192"/>
-      <c r="B23" s="199"/>
-      <c r="C23" s="199"/>
+      <c r="A23" s="197"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="23" t="s">
         <v>173</v>
       </c>
@@ -19868,9 +19871,9 @@
       <c r="AH23" s="13"/>
     </row>
     <row r="24" spans="1:45">
-      <c r="A24" s="192"/>
+      <c r="A24" s="197"/>
       <c r="B24" s="110"/>
-      <c r="C24" s="198"/>
+      <c r="C24" s="192"/>
       <c r="D24" s="111" t="s">
         <v>129</v>
       </c>
@@ -19906,11 +19909,11 @@
       <c r="AH24" s="13"/>
     </row>
     <row r="25" spans="1:45">
-      <c r="A25" s="192"/>
-      <c r="B25" s="192" t="s">
+      <c r="A25" s="197"/>
+      <c r="B25" s="197" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="197" t="s">
+      <c r="C25" s="190" t="s">
         <v>175</v>
       </c>
       <c r="D25" s="96" t="s">
@@ -19948,9 +19951,9 @@
       <c r="AH25" s="13"/>
     </row>
     <row r="26" spans="1:45">
-      <c r="A26" s="192"/>
-      <c r="B26" s="192"/>
-      <c r="C26" s="198"/>
+      <c r="A26" s="197"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="192"/>
       <c r="D26" s="96" t="s">
         <v>119</v>
       </c>
@@ -19997,14 +20000,14 @@
       <c r="AS26" s="29"/>
     </row>
     <row r="27" spans="1:45">
-      <c r="A27" s="192"/>
-      <c r="B27" s="190" t="s">
+      <c r="A27" s="197"/>
+      <c r="B27" s="195" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="195" t="s">
+      <c r="C27" s="200" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="196"/>
+      <c r="D27" s="201"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -20048,12 +20051,12 @@
       <c r="AS27" s="29"/>
     </row>
     <row r="28" spans="1:45">
-      <c r="A28" s="192"/>
-      <c r="B28" s="190"/>
-      <c r="C28" s="195" t="s">
+      <c r="A28" s="197"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="200" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="196"/>
+      <c r="D28" s="201"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -20097,11 +20100,11 @@
       <c r="AS28" s="29"/>
     </row>
     <row r="29" spans="1:45">
-      <c r="A29" s="192"/>
-      <c r="B29" s="190" t="s">
+      <c r="A29" s="197"/>
+      <c r="B29" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="190" t="s">
+      <c r="C29" s="195" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="94" t="s">
@@ -20150,9 +20153,9 @@
       <c r="AS29" s="29"/>
     </row>
     <row r="30" spans="1:45">
-      <c r="A30" s="192"/>
-      <c r="B30" s="190"/>
-      <c r="C30" s="190"/>
+      <c r="A30" s="197"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="195"/>
       <c r="D30" s="94" t="s">
         <v>18</v>
       </c>
@@ -20199,9 +20202,9 @@
       <c r="AS30" s="29"/>
     </row>
     <row r="31" spans="1:45">
-      <c r="A31" s="192"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="190"/>
+      <c r="A31" s="197"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="195"/>
       <c r="D31" s="94" t="s">
         <v>19</v>
       </c>
@@ -20248,9 +20251,9 @@
       <c r="AS31" s="29"/>
     </row>
     <row r="32" spans="1:45">
-      <c r="A32" s="192"/>
-      <c r="B32" s="190"/>
-      <c r="C32" s="190"/>
+      <c r="A32" s="197"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="195"/>
       <c r="D32" s="94" t="s">
         <v>20</v>
       </c>
@@ -20297,9 +20300,9 @@
       <c r="AS32" s="29"/>
     </row>
     <row r="33" spans="1:45">
-      <c r="A33" s="192"/>
-      <c r="B33" s="190"/>
-      <c r="C33" s="190" t="s">
+      <c r="A33" s="197"/>
+      <c r="B33" s="195"/>
+      <c r="C33" s="195" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="94" t="s">
@@ -20348,9 +20351,9 @@
       <c r="AS33" s="29"/>
     </row>
     <row r="34" spans="1:45">
-      <c r="A34" s="192"/>
-      <c r="B34" s="190"/>
-      <c r="C34" s="190"/>
+      <c r="A34" s="197"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="195"/>
       <c r="D34" s="94" t="s">
         <v>18</v>
       </c>
@@ -20397,9 +20400,9 @@
       <c r="AS34" s="29"/>
     </row>
     <row r="35" spans="1:45">
-      <c r="A35" s="192"/>
-      <c r="B35" s="190"/>
-      <c r="C35" s="190"/>
+      <c r="A35" s="197"/>
+      <c r="B35" s="195"/>
+      <c r="C35" s="195"/>
       <c r="D35" s="94" t="s">
         <v>19</v>
       </c>
@@ -20446,9 +20449,9 @@
       <c r="AS35" s="29"/>
     </row>
     <row r="36" spans="1:45">
-      <c r="A36" s="192"/>
-      <c r="B36" s="190"/>
-      <c r="C36" s="190" t="s">
+      <c r="A36" s="197"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="195" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="94" t="s">
@@ -20497,9 +20500,9 @@
       <c r="AS36" s="29"/>
     </row>
     <row r="37" spans="1:45">
-      <c r="A37" s="193"/>
-      <c r="B37" s="190"/>
-      <c r="C37" s="190"/>
+      <c r="A37" s="198"/>
+      <c r="B37" s="195"/>
+      <c r="C37" s="195"/>
       <c r="D37" s="94" t="s">
         <v>18</v>
       </c>
@@ -20563,15 +20566,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:AH1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:D11"/>
-    <mergeCell ref="E9:AH9"/>
-    <mergeCell ref="I10:T10"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="A13:A37"/>
@@ -20588,6 +20582,15 @@
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:AH1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:D11"/>
+    <mergeCell ref="E9:AH9"/>
+    <mergeCell ref="I10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20598,7 +20601,7 @@
   <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:O25"/>
+      <selection activeCell="B6" sqref="B6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -20607,133 +20610,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="210"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
+      <c r="L1" s="205"/>
+      <c r="M1" s="205"/>
+      <c r="N1" s="205"/>
+      <c r="O1" s="206"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="211"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="213"/>
+      <c r="A2" s="207"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="209"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="211"/>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="213"/>
+      <c r="A3" s="207"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="209"/>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1">
-      <c r="A4" s="214"/>
-      <c r="B4" s="215"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="216"/>
+      <c r="A4" s="210"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="212"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="100">
         <v>1</v>
       </c>
-      <c r="B5" s="204"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="204"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="204"/>
-      <c r="K5" s="204"/>
-      <c r="L5" s="204"/>
-      <c r="M5" s="204"/>
-      <c r="N5" s="204"/>
-      <c r="O5" s="205"/>
+      <c r="B5" s="213" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="214"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="101">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="205"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="213"/>
+      <c r="I6" s="213"/>
+      <c r="J6" s="213"/>
+      <c r="K6" s="213"/>
+      <c r="L6" s="213"/>
+      <c r="M6" s="213"/>
+      <c r="N6" s="213"/>
+      <c r="O6" s="214"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="101">
         <f t="shared" ref="A7:A42" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="205"/>
+      <c r="B7" s="213"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="213"/>
+      <c r="I7" s="213"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="213"/>
+      <c r="L7" s="213"/>
+      <c r="M7" s="213"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="214"/>
       <c r="W7" s="35"/>
       <c r="X7" s="35"/>
       <c r="Y7" s="35"/>
@@ -20750,20 +20755,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="204"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="204"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="205"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="213"/>
+      <c r="L8" s="213"/>
+      <c r="M8" s="213"/>
+      <c r="N8" s="213"/>
+      <c r="O8" s="214"/>
       <c r="W8" s="35"/>
       <c r="X8" s="35"/>
       <c r="Y8" s="35"/>
@@ -20780,20 +20785,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="205"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="213"/>
+      <c r="L9" s="213"/>
+      <c r="M9" s="213"/>
+      <c r="N9" s="213"/>
+      <c r="O9" s="214"/>
       <c r="W9" s="35"/>
       <c r="X9" s="35"/>
       <c r="Y9" s="35"/>
@@ -20810,20 +20815,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="204"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="204"/>
-      <c r="M10" s="204"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="205"/>
+      <c r="B10" s="213"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="213"/>
+      <c r="L10" s="213"/>
+      <c r="M10" s="213"/>
+      <c r="N10" s="213"/>
+      <c r="O10" s="214"/>
       <c r="W10" s="35"/>
       <c r="X10" s="35"/>
       <c r="Y10" s="35"/>
@@ -20840,20 +20845,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="204"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="204"/>
-      <c r="M11" s="204"/>
-      <c r="N11" s="204"/>
-      <c r="O11" s="205"/>
+      <c r="B11" s="213"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
+      <c r="L11" s="213"/>
+      <c r="M11" s="213"/>
+      <c r="N11" s="213"/>
+      <c r="O11" s="214"/>
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
@@ -20870,20 +20875,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="204"/>
-      <c r="C12" s="204"/>
-      <c r="D12" s="204"/>
-      <c r="E12" s="204"/>
-      <c r="F12" s="204"/>
-      <c r="G12" s="204"/>
-      <c r="H12" s="204"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="204"/>
-      <c r="L12" s="204"/>
-      <c r="M12" s="204"/>
-      <c r="N12" s="204"/>
-      <c r="O12" s="205"/>
+      <c r="B12" s="213"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="213"/>
+      <c r="L12" s="213"/>
+      <c r="M12" s="213"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="214"/>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
       <c r="Y12" s="35"/>
@@ -20900,20 +20905,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="204"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="205"/>
+      <c r="B13" s="213"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="213"/>
+      <c r="K13" s="213"/>
+      <c r="L13" s="213"/>
+      <c r="M13" s="213"/>
+      <c r="N13" s="213"/>
+      <c r="O13" s="214"/>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
@@ -20930,20 +20935,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="204"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="204"/>
-      <c r="E14" s="204"/>
-      <c r="F14" s="204"/>
-      <c r="G14" s="204"/>
-      <c r="H14" s="204"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="204"/>
-      <c r="L14" s="204"/>
-      <c r="M14" s="204"/>
-      <c r="N14" s="204"/>
-      <c r="O14" s="205"/>
+      <c r="B14" s="213"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="213"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="213"/>
+      <c r="K14" s="213"/>
+      <c r="L14" s="213"/>
+      <c r="M14" s="213"/>
+      <c r="N14" s="213"/>
+      <c r="O14" s="214"/>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
@@ -20960,20 +20965,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="204"/>
-      <c r="C15" s="204"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="204"/>
-      <c r="M15" s="204"/>
-      <c r="N15" s="204"/>
-      <c r="O15" s="205"/>
+      <c r="B15" s="213"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="213"/>
+      <c r="L15" s="213"/>
+      <c r="M15" s="213"/>
+      <c r="N15" s="213"/>
+      <c r="O15" s="214"/>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
       <c r="Y15" s="35"/>
@@ -20990,20 +20995,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="204"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="204"/>
-      <c r="L16" s="204"/>
-      <c r="M16" s="204"/>
-      <c r="N16" s="204"/>
-      <c r="O16" s="205"/>
+      <c r="B16" s="213"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="213"/>
+      <c r="K16" s="213"/>
+      <c r="L16" s="213"/>
+      <c r="M16" s="213"/>
+      <c r="N16" s="213"/>
+      <c r="O16" s="214"/>
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="35"/>
@@ -21020,20 +21025,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="204"/>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="204"/>
-      <c r="L17" s="204"/>
-      <c r="M17" s="204"/>
-      <c r="N17" s="204"/>
-      <c r="O17" s="205"/>
+      <c r="B17" s="213"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="213"/>
+      <c r="L17" s="213"/>
+      <c r="M17" s="213"/>
+      <c r="N17" s="213"/>
+      <c r="O17" s="214"/>
       <c r="W17" s="35"/>
       <c r="X17" s="35"/>
       <c r="Y17" s="35"/>
@@ -21050,20 +21055,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="204"/>
-      <c r="C18" s="204"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="204"/>
-      <c r="L18" s="204"/>
-      <c r="M18" s="204"/>
-      <c r="N18" s="204"/>
-      <c r="O18" s="205"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="213"/>
+      <c r="J18" s="213"/>
+      <c r="K18" s="213"/>
+      <c r="L18" s="213"/>
+      <c r="M18" s="213"/>
+      <c r="N18" s="213"/>
+      <c r="O18" s="214"/>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
       <c r="Y18" s="35"/>
@@ -21080,20 +21085,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="204"/>
-      <c r="C19" s="204"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="204"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="204"/>
-      <c r="L19" s="204"/>
-      <c r="M19" s="204"/>
-      <c r="N19" s="204"/>
-      <c r="O19" s="205"/>
+      <c r="B19" s="213"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="213"/>
+      <c r="N19" s="213"/>
+      <c r="O19" s="214"/>
       <c r="W19" s="35"/>
       <c r="X19" s="35"/>
       <c r="Y19" s="35"/>
@@ -21110,20 +21115,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="204"/>
-      <c r="C20" s="204"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="204"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="204"/>
-      <c r="L20" s="204"/>
-      <c r="M20" s="204"/>
-      <c r="N20" s="204"/>
-      <c r="O20" s="205"/>
+      <c r="B20" s="213"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="213"/>
+      <c r="J20" s="213"/>
+      <c r="K20" s="213"/>
+      <c r="L20" s="213"/>
+      <c r="M20" s="213"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="214"/>
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
       <c r="Y20" s="35"/>
@@ -21140,20 +21145,20 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="204"/>
-      <c r="C21" s="204"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="204"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="204"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="204"/>
-      <c r="K21" s="204"/>
-      <c r="L21" s="204"/>
-      <c r="M21" s="204"/>
-      <c r="N21" s="204"/>
-      <c r="O21" s="205"/>
+      <c r="B21" s="213"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="213"/>
+      <c r="J21" s="213"/>
+      <c r="K21" s="213"/>
+      <c r="L21" s="213"/>
+      <c r="M21" s="213"/>
+      <c r="N21" s="213"/>
+      <c r="O21" s="214"/>
       <c r="W21" s="35"/>
       <c r="X21" s="35"/>
       <c r="Y21" s="35"/>
@@ -21170,20 +21175,20 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="204"/>
-      <c r="C22" s="204"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="204"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="204"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="204"/>
-      <c r="L22" s="204"/>
-      <c r="M22" s="204"/>
-      <c r="N22" s="204"/>
-      <c r="O22" s="205"/>
+      <c r="B22" s="213"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="213"/>
+      <c r="G22" s="213"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="213"/>
+      <c r="J22" s="213"/>
+      <c r="K22" s="213"/>
+      <c r="L22" s="213"/>
+      <c r="M22" s="213"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="214"/>
       <c r="W22" s="35"/>
       <c r="X22" s="35"/>
       <c r="Y22" s="35"/>
@@ -21200,20 +21205,20 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="204"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="204"/>
-      <c r="L23" s="204"/>
-      <c r="M23" s="204"/>
-      <c r="N23" s="204"/>
-      <c r="O23" s="205"/>
+      <c r="B23" s="213"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="213"/>
+      <c r="G23" s="213"/>
+      <c r="H23" s="213"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="213"/>
+      <c r="K23" s="213"/>
+      <c r="L23" s="213"/>
+      <c r="M23" s="213"/>
+      <c r="N23" s="213"/>
+      <c r="O23" s="214"/>
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
@@ -21230,20 +21235,20 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="204"/>
-      <c r="C24" s="204"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="204"/>
-      <c r="H24" s="204"/>
-      <c r="I24" s="204"/>
-      <c r="J24" s="204"/>
-      <c r="K24" s="204"/>
-      <c r="L24" s="204"/>
-      <c r="M24" s="204"/>
-      <c r="N24" s="204"/>
-      <c r="O24" s="205"/>
+      <c r="B24" s="213"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="213"/>
+      <c r="F24" s="213"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="213"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="213"/>
+      <c r="K24" s="213"/>
+      <c r="L24" s="213"/>
+      <c r="M24" s="213"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="214"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
@@ -21260,20 +21265,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="204"/>
-      <c r="C25" s="204"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="204"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="204"/>
-      <c r="M25" s="204"/>
-      <c r="N25" s="204"/>
-      <c r="O25" s="205"/>
+      <c r="B25" s="213"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="213"/>
+      <c r="F25" s="213"/>
+      <c r="G25" s="213"/>
+      <c r="H25" s="213"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="213"/>
+      <c r="K25" s="213"/>
+      <c r="L25" s="213"/>
+      <c r="M25" s="213"/>
+      <c r="N25" s="213"/>
+      <c r="O25" s="214"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
@@ -21290,20 +21295,20 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="204"/>
-      <c r="C26" s="204"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="204"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="204"/>
-      <c r="K26" s="204"/>
-      <c r="L26" s="204"/>
-      <c r="M26" s="204"/>
-      <c r="N26" s="204"/>
-      <c r="O26" s="205"/>
+      <c r="B26" s="213"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="213"/>
+      <c r="E26" s="213"/>
+      <c r="F26" s="213"/>
+      <c r="G26" s="213"/>
+      <c r="H26" s="213"/>
+      <c r="I26" s="213"/>
+      <c r="J26" s="213"/>
+      <c r="K26" s="213"/>
+      <c r="L26" s="213"/>
+      <c r="M26" s="213"/>
+      <c r="N26" s="213"/>
+      <c r="O26" s="214"/>
       <c r="W26" s="35"/>
       <c r="X26" s="35"/>
       <c r="Y26" s="35"/>
@@ -21320,20 +21325,20 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="204"/>
-      <c r="C27" s="204"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="204"/>
-      <c r="F27" s="204"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="204"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="204"/>
-      <c r="K27" s="204"/>
-      <c r="L27" s="204"/>
-      <c r="M27" s="204"/>
-      <c r="N27" s="204"/>
-      <c r="O27" s="205"/>
+      <c r="B27" s="213"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="213"/>
+      <c r="F27" s="213"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="213"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="213"/>
+      <c r="K27" s="213"/>
+      <c r="L27" s="213"/>
+      <c r="M27" s="213"/>
+      <c r="N27" s="213"/>
+      <c r="O27" s="214"/>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
@@ -21350,20 +21355,20 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="204"/>
-      <c r="C28" s="204"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="204"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="204"/>
-      <c r="K28" s="204"/>
-      <c r="L28" s="204"/>
-      <c r="M28" s="204"/>
-      <c r="N28" s="204"/>
-      <c r="O28" s="205"/>
+      <c r="B28" s="213"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="213"/>
+      <c r="E28" s="213"/>
+      <c r="F28" s="213"/>
+      <c r="G28" s="213"/>
+      <c r="H28" s="213"/>
+      <c r="I28" s="213"/>
+      <c r="J28" s="213"/>
+      <c r="K28" s="213"/>
+      <c r="L28" s="213"/>
+      <c r="M28" s="213"/>
+      <c r="N28" s="213"/>
+      <c r="O28" s="214"/>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
@@ -21380,20 +21385,20 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="204"/>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="204"/>
-      <c r="J29" s="204"/>
-      <c r="K29" s="204"/>
-      <c r="L29" s="204"/>
-      <c r="M29" s="204"/>
-      <c r="N29" s="204"/>
-      <c r="O29" s="205"/>
+      <c r="B29" s="213"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="213"/>
+      <c r="F29" s="213"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="213"/>
+      <c r="I29" s="213"/>
+      <c r="J29" s="213"/>
+      <c r="K29" s="213"/>
+      <c r="L29" s="213"/>
+      <c r="M29" s="213"/>
+      <c r="N29" s="213"/>
+      <c r="O29" s="214"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
@@ -21410,20 +21415,20 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="204"/>
-      <c r="C30" s="204"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="204"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="204"/>
-      <c r="H30" s="204"/>
-      <c r="I30" s="204"/>
-      <c r="J30" s="204"/>
-      <c r="K30" s="204"/>
-      <c r="L30" s="204"/>
-      <c r="M30" s="204"/>
-      <c r="N30" s="204"/>
-      <c r="O30" s="205"/>
+      <c r="B30" s="213"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="213"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="213"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="213"/>
+      <c r="I30" s="213"/>
+      <c r="J30" s="213"/>
+      <c r="K30" s="213"/>
+      <c r="L30" s="213"/>
+      <c r="M30" s="213"/>
+      <c r="N30" s="213"/>
+      <c r="O30" s="214"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
@@ -21440,20 +21445,20 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="204"/>
-      <c r="C31" s="204"/>
-      <c r="D31" s="204"/>
-      <c r="E31" s="204"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="204"/>
-      <c r="H31" s="204"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="204"/>
-      <c r="K31" s="204"/>
-      <c r="L31" s="204"/>
-      <c r="M31" s="204"/>
-      <c r="N31" s="204"/>
-      <c r="O31" s="205"/>
+      <c r="B31" s="213"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="213"/>
+      <c r="E31" s="213"/>
+      <c r="F31" s="213"/>
+      <c r="G31" s="213"/>
+      <c r="H31" s="213"/>
+      <c r="I31" s="213"/>
+      <c r="J31" s="213"/>
+      <c r="K31" s="213"/>
+      <c r="L31" s="213"/>
+      <c r="M31" s="213"/>
+      <c r="N31" s="213"/>
+      <c r="O31" s="214"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
@@ -21470,20 +21475,20 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="204"/>
-      <c r="C32" s="204"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="204"/>
-      <c r="H32" s="204"/>
-      <c r="I32" s="204"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="204"/>
-      <c r="L32" s="204"/>
-      <c r="M32" s="204"/>
-      <c r="N32" s="204"/>
-      <c r="O32" s="205"/>
+      <c r="B32" s="213"/>
+      <c r="C32" s="213"/>
+      <c r="D32" s="213"/>
+      <c r="E32" s="213"/>
+      <c r="F32" s="213"/>
+      <c r="G32" s="213"/>
+      <c r="H32" s="213"/>
+      <c r="I32" s="213"/>
+      <c r="J32" s="213"/>
+      <c r="K32" s="213"/>
+      <c r="L32" s="213"/>
+      <c r="M32" s="213"/>
+      <c r="N32" s="213"/>
+      <c r="O32" s="214"/>
       <c r="W32" s="35"/>
       <c r="X32" s="35"/>
       <c r="Y32" s="35"/>
@@ -21500,20 +21505,20 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="204"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="204"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="204"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="204"/>
-      <c r="L33" s="204"/>
-      <c r="M33" s="204"/>
-      <c r="N33" s="204"/>
-      <c r="O33" s="205"/>
+      <c r="B33" s="213"/>
+      <c r="C33" s="213"/>
+      <c r="D33" s="213"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="213"/>
+      <c r="K33" s="213"/>
+      <c r="L33" s="213"/>
+      <c r="M33" s="213"/>
+      <c r="N33" s="213"/>
+      <c r="O33" s="214"/>
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
@@ -21530,20 +21535,20 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="204"/>
-      <c r="C34" s="204"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="204"/>
-      <c r="G34" s="204"/>
-      <c r="H34" s="204"/>
-      <c r="I34" s="204"/>
-      <c r="J34" s="204"/>
-      <c r="K34" s="204"/>
-      <c r="L34" s="204"/>
-      <c r="M34" s="204"/>
-      <c r="N34" s="204"/>
-      <c r="O34" s="205"/>
+      <c r="B34" s="213"/>
+      <c r="C34" s="213"/>
+      <c r="D34" s="213"/>
+      <c r="E34" s="213"/>
+      <c r="F34" s="213"/>
+      <c r="G34" s="213"/>
+      <c r="H34" s="213"/>
+      <c r="I34" s="213"/>
+      <c r="J34" s="213"/>
+      <c r="K34" s="213"/>
+      <c r="L34" s="213"/>
+      <c r="M34" s="213"/>
+      <c r="N34" s="213"/>
+      <c r="O34" s="214"/>
       <c r="W34" s="35"/>
       <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
@@ -21560,20 +21565,20 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="204"/>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
-      <c r="G35" s="204"/>
-      <c r="H35" s="204"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="204"/>
-      <c r="K35" s="204"/>
-      <c r="L35" s="204"/>
-      <c r="M35" s="204"/>
-      <c r="N35" s="204"/>
-      <c r="O35" s="205"/>
+      <c r="B35" s="213"/>
+      <c r="C35" s="213"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="213"/>
+      <c r="F35" s="213"/>
+      <c r="G35" s="213"/>
+      <c r="H35" s="213"/>
+      <c r="I35" s="213"/>
+      <c r="J35" s="213"/>
+      <c r="K35" s="213"/>
+      <c r="L35" s="213"/>
+      <c r="M35" s="213"/>
+      <c r="N35" s="213"/>
+      <c r="O35" s="214"/>
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
       <c r="Y35" s="35"/>
@@ -21590,20 +21595,20 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="204"/>
-      <c r="C36" s="204"/>
-      <c r="D36" s="204"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="204"/>
-      <c r="G36" s="204"/>
-      <c r="H36" s="204"/>
-      <c r="I36" s="204"/>
-      <c r="J36" s="204"/>
-      <c r="K36" s="204"/>
-      <c r="L36" s="204"/>
-      <c r="M36" s="204"/>
-      <c r="N36" s="204"/>
-      <c r="O36" s="205"/>
+      <c r="B36" s="213"/>
+      <c r="C36" s="213"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="213"/>
+      <c r="F36" s="213"/>
+      <c r="G36" s="213"/>
+      <c r="H36" s="213"/>
+      <c r="I36" s="213"/>
+      <c r="J36" s="213"/>
+      <c r="K36" s="213"/>
+      <c r="L36" s="213"/>
+      <c r="M36" s="213"/>
+      <c r="N36" s="213"/>
+      <c r="O36" s="214"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
       <c r="Y36" s="35"/>
@@ -21620,20 +21625,20 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="204"/>
-      <c r="C37" s="204"/>
-      <c r="D37" s="204"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="204"/>
-      <c r="G37" s="204"/>
-      <c r="H37" s="204"/>
-      <c r="I37" s="204"/>
-      <c r="J37" s="204"/>
-      <c r="K37" s="204"/>
-      <c r="L37" s="204"/>
-      <c r="M37" s="204"/>
-      <c r="N37" s="204"/>
-      <c r="O37" s="205"/>
+      <c r="B37" s="213"/>
+      <c r="C37" s="213"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="213"/>
+      <c r="F37" s="213"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="213"/>
+      <c r="I37" s="213"/>
+      <c r="J37" s="213"/>
+      <c r="K37" s="213"/>
+      <c r="L37" s="213"/>
+      <c r="M37" s="213"/>
+      <c r="N37" s="213"/>
+      <c r="O37" s="214"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
@@ -21650,20 +21655,20 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="204"/>
-      <c r="C38" s="204"/>
-      <c r="D38" s="204"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="204"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="204"/>
-      <c r="I38" s="204"/>
-      <c r="J38" s="204"/>
-      <c r="K38" s="204"/>
-      <c r="L38" s="204"/>
-      <c r="M38" s="204"/>
-      <c r="N38" s="204"/>
-      <c r="O38" s="205"/>
+      <c r="B38" s="213"/>
+      <c r="C38" s="213"/>
+      <c r="D38" s="213"/>
+      <c r="E38" s="213"/>
+      <c r="F38" s="213"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="213"/>
+      <c r="J38" s="213"/>
+      <c r="K38" s="213"/>
+      <c r="L38" s="213"/>
+      <c r="M38" s="213"/>
+      <c r="N38" s="213"/>
+      <c r="O38" s="214"/>
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
       <c r="Y38" s="35"/>
@@ -21680,20 +21685,20 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="204"/>
-      <c r="C39" s="204"/>
-      <c r="D39" s="204"/>
-      <c r="E39" s="204"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="204"/>
-      <c r="H39" s="204"/>
-      <c r="I39" s="204"/>
-      <c r="J39" s="204"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="204"/>
-      <c r="M39" s="204"/>
-      <c r="N39" s="204"/>
-      <c r="O39" s="205"/>
+      <c r="B39" s="213"/>
+      <c r="C39" s="213"/>
+      <c r="D39" s="213"/>
+      <c r="E39" s="213"/>
+      <c r="F39" s="213"/>
+      <c r="G39" s="213"/>
+      <c r="H39" s="213"/>
+      <c r="I39" s="213"/>
+      <c r="J39" s="213"/>
+      <c r="K39" s="213"/>
+      <c r="L39" s="213"/>
+      <c r="M39" s="213"/>
+      <c r="N39" s="213"/>
+      <c r="O39" s="214"/>
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
       <c r="Y39" s="35"/>
@@ -21710,20 +21715,20 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="204"/>
-      <c r="C40" s="204"/>
-      <c r="D40" s="204"/>
-      <c r="E40" s="204"/>
-      <c r="F40" s="204"/>
-      <c r="G40" s="204"/>
-      <c r="H40" s="204"/>
-      <c r="I40" s="204"/>
-      <c r="J40" s="204"/>
-      <c r="K40" s="204"/>
-      <c r="L40" s="204"/>
-      <c r="M40" s="204"/>
-      <c r="N40" s="204"/>
-      <c r="O40" s="205"/>
+      <c r="B40" s="213"/>
+      <c r="C40" s="213"/>
+      <c r="D40" s="213"/>
+      <c r="E40" s="213"/>
+      <c r="F40" s="213"/>
+      <c r="G40" s="213"/>
+      <c r="H40" s="213"/>
+      <c r="I40" s="213"/>
+      <c r="J40" s="213"/>
+      <c r="K40" s="213"/>
+      <c r="L40" s="213"/>
+      <c r="M40" s="213"/>
+      <c r="N40" s="213"/>
+      <c r="O40" s="214"/>
       <c r="W40" s="35"/>
       <c r="X40" s="35"/>
       <c r="Y40" s="35"/>
@@ -21740,20 +21745,20 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="204"/>
-      <c r="C41" s="204"/>
-      <c r="D41" s="204"/>
-      <c r="E41" s="204"/>
-      <c r="F41" s="204"/>
-      <c r="G41" s="204"/>
-      <c r="H41" s="204"/>
-      <c r="I41" s="204"/>
-      <c r="J41" s="204"/>
-      <c r="K41" s="204"/>
-      <c r="L41" s="204"/>
-      <c r="M41" s="204"/>
-      <c r="N41" s="204"/>
-      <c r="O41" s="205"/>
+      <c r="B41" s="213"/>
+      <c r="C41" s="213"/>
+      <c r="D41" s="213"/>
+      <c r="E41" s="213"/>
+      <c r="F41" s="213"/>
+      <c r="G41" s="213"/>
+      <c r="H41" s="213"/>
+      <c r="I41" s="213"/>
+      <c r="J41" s="213"/>
+      <c r="K41" s="213"/>
+      <c r="L41" s="213"/>
+      <c r="M41" s="213"/>
+      <c r="N41" s="213"/>
+      <c r="O41" s="214"/>
       <c r="W41" s="35"/>
       <c r="X41" s="35"/>
       <c r="Y41" s="35"/>
@@ -21770,20 +21775,20 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="206"/>
-      <c r="C42" s="206"/>
-      <c r="D42" s="206"/>
-      <c r="E42" s="206"/>
-      <c r="F42" s="206"/>
-      <c r="G42" s="206"/>
-      <c r="H42" s="206"/>
-      <c r="I42" s="206"/>
-      <c r="J42" s="206"/>
-      <c r="K42" s="206"/>
-      <c r="L42" s="206"/>
-      <c r="M42" s="206"/>
-      <c r="N42" s="206"/>
-      <c r="O42" s="207"/>
+      <c r="B42" s="215"/>
+      <c r="C42" s="215"/>
+      <c r="D42" s="215"/>
+      <c r="E42" s="215"/>
+      <c r="F42" s="215"/>
+      <c r="G42" s="215"/>
+      <c r="H42" s="215"/>
+      <c r="I42" s="215"/>
+      <c r="J42" s="215"/>
+      <c r="K42" s="215"/>
+      <c r="L42" s="215"/>
+      <c r="M42" s="215"/>
+      <c r="N42" s="215"/>
+      <c r="O42" s="216"/>
       <c r="W42" s="35"/>
       <c r="X42" s="35"/>
       <c r="Y42" s="35"/>
@@ -21833,36 +21838,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B26:O26"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
     <mergeCell ref="B39:O39"/>
     <mergeCell ref="B40:O40"/>
     <mergeCell ref="B41:O41"/>
@@ -21872,6 +21847,36 @@
     <mergeCell ref="B36:O36"/>
     <mergeCell ref="B37:O37"/>
     <mergeCell ref="B38:O38"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B26:O26"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21882,7 +21887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -23925,8 +23930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM206"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="P299" sqref="P299"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T299" sqref="T299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/IS_456_COLUMN/IS456_Column_Specifications__0817_1.xlsx
+++ b/IS_456_COLUMN/IS456_Column_Specifications__0817_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="188">
   <si>
     <t>Development Specifications</t>
   </si>
@@ -766,9 +766,6 @@
     <t>Gen Style</t>
   </si>
   <si>
-    <t>Change PM CURVE TO SINGLE PM CURVE AS PER IS</t>
-  </si>
-  <si>
     <t>Serviceability</t>
   </si>
   <si>
@@ -776,9 +773,6 @@
   </si>
   <si>
     <t>Change PM CUVE</t>
-  </si>
-  <si>
-    <t>Limit of Crack width</t>
   </si>
   <si>
     <t>COLUMN</t>
@@ -806,9 +800,6 @@
   </si>
   <si>
     <t>[40.2.2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L  = </t>
   </si>
   <si>
     <r>
@@ -895,6 +886,30 @@
   </si>
   <si>
     <t>for m given obtain e as m = p e</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Obtain Crack width/Max Limit of Crack width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lx = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ly = </t>
+  </si>
+  <si>
+    <t>Dimension_min require/Provided</t>
+  </si>
+  <si>
+    <t>Minimum Dimension / Provided Dimension</t>
+  </si>
+  <si>
+    <t>Porvided area steel/minimum area of steel</t>
+  </si>
+  <si>
+    <t>PM CURVE AS PER IS 456</t>
   </si>
 </sst>
 </file>
@@ -2010,28 +2025,28 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2040,40 +2055,16 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2103,6 +2094,27 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2118,20 +2130,8 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2154,10 +2154,37 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2186,18 +2213,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6541,65 +6556,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>369705</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>168521</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>499147</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>144099</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10037580" y="2311646"/>
-          <a:ext cx="3582255" cy="3190266"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0">
-            <a:alpha val="37000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>674077</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -6643,65 +6599,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>431434</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>188668</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>36634</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10099309" y="10251281"/>
-          <a:ext cx="3210047" cy="500978"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0">
-            <a:alpha val="37000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7220,13 +7117,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>509589</xdr:colOff>
+      <xdr:colOff>521495</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>176030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
+      <xdr:colOff>273843</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>23811</xdr:rowOff>
     </xdr:to>
@@ -7237,7 +7134,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3271839" y="8569936"/>
+          <a:off x="3283745" y="8569936"/>
           <a:ext cx="1824036" cy="204969"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7791,29 +7688,34 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>416719</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
+      <xdr:colOff>488157</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8703469" y="7965281"/>
-          <a:ext cx="1464468" cy="2833688"/>
+          <a:off x="8703469" y="7238817"/>
+          <a:ext cx="1452563" cy="3560152"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -7944,15 +7846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>428627</xdr:colOff>
+      <xdr:colOff>452440</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>11724</xdr:rowOff>
+      <xdr:rowOff>23631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>202406</xdr:colOff>
+      <xdr:colOff>226219</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>11907</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7961,7 +7863,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10096502" y="6441099"/>
+          <a:off x="10120315" y="6453006"/>
           <a:ext cx="3226592" cy="166870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8479,15 +8381,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>640557</xdr:colOff>
+      <xdr:colOff>664370</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>92686</xdr:rowOff>
+      <xdr:rowOff>104592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>374710</xdr:colOff>
+      <xdr:colOff>398523</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>73048</xdr:rowOff>
+      <xdr:rowOff>84954</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8496,7 +8398,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23548182" y="7950811"/>
+          <a:off x="23571995" y="7962717"/>
           <a:ext cx="1805841" cy="158956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9385,6 +9287,260 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>631032</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Arrow Connector 74"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8703469" y="7608094"/>
+          <a:ext cx="1595438" cy="3214687"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>83345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>488157</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Arrow Connector 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8715375" y="8477251"/>
+          <a:ext cx="1440657" cy="2333624"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>619127</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8727281" y="8774907"/>
+          <a:ext cx="1559721" cy="2035968"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>392906</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="15265" r="5607" b="7491"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10120313" y="2476500"/>
+          <a:ext cx="3393281" cy="3012281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>345893</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>475335</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10013768" y="2406896"/>
+          <a:ext cx="3582255" cy="3190266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10242,15 +10398,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>329235</xdr:colOff>
+      <xdr:colOff>213280</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>138320</xdr:rowOff>
+      <xdr:rowOff>88625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>310184</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>100220</xdr:rowOff>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10259,8 +10415,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10641083" y="8702537"/>
-          <a:ext cx="2730775" cy="690770"/>
+          <a:off x="10525128" y="8652842"/>
+          <a:ext cx="2627655" cy="201267"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10732,16 +10888,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>183460</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>564461</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>9112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>223631</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>173935</xdr:rowOff>
+      <xdr:rowOff>25677</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10749,9 +10905,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11182764" y="10395503"/>
-          <a:ext cx="40171" cy="529258"/>
+        <a:xfrm flipH="1">
+          <a:off x="12251222" y="10171043"/>
+          <a:ext cx="843582" cy="241025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11044,6 +11200,1130 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>637140</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>164076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>280601</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>140814</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5449336" y="8728293"/>
+          <a:ext cx="1705830" cy="158956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Apply</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>IS 13920 Design </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>560939</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304411</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>160819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5373135" y="8930515"/>
+          <a:ext cx="1805841" cy="158956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590963</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>8284</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2915478" y="8232914"/>
+          <a:ext cx="1800224" cy="157370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>41414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>599246</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>16567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2923761" y="8423414"/>
+          <a:ext cx="1800224" cy="157370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>607528</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33132</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rectangle 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2932043" y="8622197"/>
+          <a:ext cx="1800224" cy="157370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>607528</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>41415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rectangle 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2932043" y="8812697"/>
+          <a:ext cx="1800224" cy="157370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>455543</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>646044</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>67371</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Rectangle 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5267739" y="6946408"/>
+          <a:ext cx="3627783" cy="227441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Type of Hoop Rebar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>532720</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>35315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>87105</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>68326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rectangle 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6719829" y="6959576"/>
+          <a:ext cx="929298" cy="215228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t>Ties </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                             </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>681090</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>93930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>103538</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>53673</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Oval 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6868199" y="7018191"/>
+          <a:ext cx="109904" cy="141960"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>330168</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>572009</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rectangle 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7892190" y="6957389"/>
+          <a:ext cx="929297" cy="215349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" baseline="0"/>
+            <a:t>Spira</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>l                              </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>530755</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>99770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647375</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>59513</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Oval 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8092777" y="7024031"/>
+          <a:ext cx="116620" cy="141960"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>358638</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>414130</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47210</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Rectangle 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11357942" y="9503465"/>
+          <a:ext cx="742949" cy="201267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="37000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>403781</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>670892</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>130038</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Arrow Connector 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12090542" y="9541565"/>
+          <a:ext cx="954567" cy="63777"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>358637</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>414130</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Rectangle 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11357941" y="9685683"/>
+          <a:ext cx="742950" cy="201267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="37000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>395499</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>88624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Arrow Connector 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12082260" y="9746146"/>
+          <a:ext cx="979414" cy="27332"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>350356</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>177247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>455543</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>14079</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Rectangle 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11349660" y="9105899"/>
+          <a:ext cx="792644" cy="201267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="37000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>366921</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>11596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438978</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>30646</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Rectangle 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11366225" y="9304683"/>
+          <a:ext cx="759514" cy="201267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="37000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>205002</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>88625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11891763" y="9160565"/>
+          <a:ext cx="1178194" cy="38930"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180154</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>130038</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Straight Arrow Connector 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11866915" y="9226826"/>
+          <a:ext cx="1227889" cy="196299"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11307,6 +12587,44 @@
         <a:xfrm>
           <a:off x="0" y="52312957"/>
           <a:ext cx="6800000" cy="8028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>661071</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>41414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="60322239"/>
+          <a:ext cx="6848180" cy="3329610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16101,7 +17419,7 @@
       </c>
       <c r="L13" s="21">
         <f ca="1">(TODAY())</f>
-        <v>42966</v>
+        <v>42968</v>
       </c>
     </row>
     <row r="14" spans="5:13" ht="15">
@@ -16252,8 +17570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16364,7 +17682,7 @@
         <v>123</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7" s="37">
         <v>40</v>
@@ -16373,7 +17691,7 @@
         <v>123</v>
       </c>
       <c r="G7" s="140" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H7" s="37">
         <v>10000</v>
@@ -16399,14 +17717,14 @@
       <c r="E8" s="37"/>
       <c r="F8" s="24"/>
       <c r="G8" s="37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H8" s="37">
         <f>H7*B14</f>
         <v>200000</v>
       </c>
       <c r="I8" s="115" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
@@ -16426,14 +17744,14 @@
       <c r="E9" s="37"/>
       <c r="F9" s="57"/>
       <c r="G9" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H9" s="37">
         <f>H7*B15</f>
         <v>100000</v>
       </c>
       <c r="I9" s="115" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
@@ -16481,7 +17799,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="36" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B12" s="37">
         <v>3500</v>
@@ -16500,9 +17818,15 @@
       <c r="L12" s="68"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="57"/>
+      <c r="A13" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="37">
+        <v>3500</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>123</v>
+      </c>
       <c r="D13" s="36"/>
       <c r="E13" s="37"/>
       <c r="F13" s="57"/>
@@ -16515,7 +17839,7 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="36" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B14" s="37">
         <v>20</v>
@@ -16533,7 +17857,7 @@
     </row>
     <row r="15" spans="1:27" ht="15" thickBot="1">
       <c r="A15" s="36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" s="37">
         <v>10</v>
@@ -16551,7 +17875,7 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" thickBot="1">
       <c r="A16" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="47"/>
@@ -16586,7 +17910,7 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="141" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B17" s="29">
         <f>H7</f>
@@ -16639,7 +17963,7 @@
     </row>
     <row r="18" spans="1:27" ht="17.25">
       <c r="A18" s="35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B18">
         <f>H8</f>
@@ -16666,7 +17990,7 @@
         <v>126</v>
       </c>
       <c r="Q18" s="43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R18" s="43">
         <f>1+3*H7/(R17*U17*B9)</f>
@@ -16676,7 +18000,7 @@
       <c r="T18" s="43"/>
       <c r="U18" s="43"/>
       <c r="V18" s="43" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W18" s="43"/>
       <c r="X18" s="43"/>
@@ -16686,7 +18010,7 @@
     </row>
     <row r="19" spans="1:27" ht="17.25">
       <c r="A19" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B19">
         <f>H9</f>
@@ -16757,7 +18081,7 @@
     </row>
     <row r="21" spans="1:27" ht="17.25">
       <c r="A21" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="51"/>
@@ -18147,24 +19471,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
-      <c r="P1" s="178"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="170"/>
       <c r="Q1" s="99"/>
       <c r="R1" s="99"/>
       <c r="S1" s="99"/>
@@ -18174,22 +19498,22 @@
       <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="181"/>
+      <c r="A2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="173"/>
       <c r="Q2" s="99"/>
       <c r="R2" s="99"/>
       <c r="S2" s="99"/>
@@ -18199,22 +19523,22 @@
       <c r="W2" s="99"/>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="181"/>
+      <c r="A3" s="171"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="173"/>
       <c r="Q3" s="99"/>
       <c r="R3" s="99"/>
       <c r="S3" s="99"/>
@@ -18224,22 +19548,22 @@
       <c r="W3" s="99"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A4" s="182"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="183"/>
-      <c r="M4" s="183"/>
-      <c r="N4" s="183"/>
-      <c r="O4" s="183"/>
-      <c r="P4" s="184"/>
+      <c r="A4" s="174"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="176"/>
       <c r="Q4" s="99"/>
       <c r="R4" s="99"/>
       <c r="S4" s="99"/>
@@ -18294,7 +19618,7 @@
     <row r="7" spans="1:23" ht="15.75">
       <c r="A7" s="86"/>
       <c r="B7" s="89" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="88"/>
@@ -18355,367 +19679,367 @@
         <v>57</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="156" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="164" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="156" t="s">
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="158"/>
-      <c r="J10" s="156" t="s">
+      <c r="I10" s="165"/>
+      <c r="J10" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="158"/>
-      <c r="L10" s="156" t="s">
+      <c r="K10" s="165"/>
+      <c r="L10" s="164" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="158"/>
-      <c r="N10" s="156" t="s">
+      <c r="M10" s="165"/>
+      <c r="N10" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="157"/>
-      <c r="P10" s="158"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="165"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="166" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="188" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="169" t="s">
+      <c r="A11" s="180" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="187" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="174" t="s">
+      <c r="D11" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="164" t="s">
+      <c r="E11" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="155"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="160"/>
-      <c r="P11" s="161"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="178"/>
+      <c r="P11" s="179"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="167"/>
-      <c r="B12" s="186"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="175"/>
+      <c r="A12" s="181"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="160"/>
       <c r="E12" s="162" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="163"/>
       <c r="G12" s="163"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="160"/>
-      <c r="P12" s="161"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="167"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="167"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="178"/>
+      <c r="P12" s="179"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="167"/>
-      <c r="B13" s="186"/>
-      <c r="C13" s="171" t="s">
+      <c r="A13" s="181"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="174" t="s">
+      <c r="D13" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="164" t="s">
+      <c r="E13" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="155"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="155"/>
-      <c r="N13" s="159"/>
-      <c r="O13" s="160"/>
-      <c r="P13" s="161"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="167"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="167"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="178"/>
+      <c r="P13" s="179"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="167"/>
-      <c r="B14" s="186"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="175"/>
+      <c r="A14" s="181"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="160"/>
       <c r="E14" s="162" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="163"/>
       <c r="G14" s="163"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="161"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="167"/>
+      <c r="L14" s="166"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="178"/>
+      <c r="P14" s="179"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="167"/>
-      <c r="B15" s="186"/>
-      <c r="C15" s="169" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="174" t="s">
+      <c r="A15" s="181"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="161" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="164" t="s">
+      <c r="E15" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="165"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="155"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="161"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="167"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="167"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="178"/>
+      <c r="P15" s="179"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="167"/>
-      <c r="B16" s="186"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="172" t="s">
+      <c r="A16" s="181"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="173"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="155"/>
-      <c r="N16" s="159"/>
-      <c r="O16" s="160"/>
-      <c r="P16" s="161"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="167"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="167"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="178"/>
+      <c r="P16" s="179"/>
     </row>
     <row r="17" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="167"/>
-      <c r="B17" s="186"/>
-      <c r="C17" s="169" t="s">
+      <c r="A17" s="181"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="161" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="174" t="s">
+      <c r="D17" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="164" t="s">
+      <c r="E17" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="165"/>
-      <c r="G17" s="169"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="161"/>
       <c r="H17" s="107"/>
       <c r="I17" s="108"/>
       <c r="J17" s="107"/>
       <c r="K17" s="108"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="155"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="167"/>
       <c r="N17" s="104"/>
       <c r="O17" s="105"/>
       <c r="P17" s="106"/>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="167"/>
-      <c r="B18" s="189"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="170"/>
+      <c r="A18" s="181"/>
+      <c r="B18" s="188"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="156"/>
       <c r="H18" s="107"/>
       <c r="I18" s="108"/>
       <c r="J18" s="107"/>
       <c r="K18" s="108"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="155"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="167"/>
       <c r="N18" s="104"/>
       <c r="O18" s="105"/>
       <c r="P18" s="106"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="167"/>
-      <c r="B19" s="185" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="169" t="s">
+      <c r="A19" s="181"/>
+      <c r="B19" s="184" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="174" t="s">
+      <c r="D19" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="164" t="s">
+      <c r="E19" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="159"/>
-      <c r="O19" s="160"/>
-      <c r="P19" s="161"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="167"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="167"/>
+      <c r="N19" s="177"/>
+      <c r="O19" s="178"/>
+      <c r="P19" s="179"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="167"/>
-      <c r="B20" s="186"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="175"/>
+      <c r="A20" s="181"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="160"/>
       <c r="E20" s="162" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="163"/>
       <c r="G20" s="163"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="159"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="161"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="167"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="178"/>
+      <c r="P20" s="179"/>
     </row>
     <row r="21" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="167"/>
-      <c r="B21" s="186"/>
-      <c r="C21" s="171" t="s">
+      <c r="A21" s="181"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="174" t="s">
+      <c r="D21" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="164" t="s">
+      <c r="E21" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="155"/>
-      <c r="N21" s="159"/>
-      <c r="O21" s="160"/>
-      <c r="P21" s="161"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="167"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="167"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="178"/>
+      <c r="P21" s="179"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="167"/>
-      <c r="B22" s="186"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="175"/>
+      <c r="A22" s="181"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="160"/>
       <c r="E22" s="162" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="163"/>
       <c r="G22" s="163"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="161"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="178"/>
+      <c r="P22" s="179"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="167"/>
-      <c r="B23" s="186"/>
-      <c r="C23" s="169" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="174" t="s">
+      <c r="A23" s="181"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="161" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="164" t="s">
+      <c r="E23" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="165"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="159"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="161"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="177"/>
+      <c r="O23" s="178"/>
+      <c r="P23" s="179"/>
       <c r="Q23" s="75"/>
       <c r="R23" s="75"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="167"/>
-      <c r="B24" s="186"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="172" t="s">
+      <c r="A24" s="181"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="173"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="159"/>
-      <c r="O24" s="160"/>
-      <c r="P24" s="161"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="167"/>
+      <c r="L24" s="166"/>
+      <c r="M24" s="167"/>
+      <c r="N24" s="177"/>
+      <c r="O24" s="178"/>
+      <c r="P24" s="179"/>
       <c r="Q24" s="74"/>
       <c r="R24" s="75"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="167"/>
-      <c r="B25" s="186"/>
-      <c r="C25" s="169" t="s">
+      <c r="A25" s="181"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="161" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="174" t="s">
+      <c r="D25" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="164" t="s">
+      <c r="E25" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="165"/>
-      <c r="G25" s="169"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="161"/>
       <c r="H25" s="107"/>
       <c r="I25" s="108"/>
       <c r="J25" s="107"/>
       <c r="K25" s="108"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="155"/>
+      <c r="L25" s="166"/>
+      <c r="M25" s="167"/>
       <c r="N25" s="104"/>
       <c r="O25" s="105"/>
       <c r="P25" s="106"/>
@@ -18723,19 +20047,19 @@
       <c r="R25" s="75"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="168"/>
-      <c r="B26" s="187"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="170"/>
+      <c r="A26" s="182"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="156"/>
       <c r="H26" s="107"/>
       <c r="I26" s="108"/>
       <c r="J26" s="107"/>
       <c r="K26" s="108"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="155"/>
+      <c r="L26" s="166"/>
+      <c r="M26" s="167"/>
       <c r="N26" s="104"/>
       <c r="O26" s="105"/>
       <c r="P26" s="106"/>
@@ -18764,20 +20088,64 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:G26"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A11:A26"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
     <mergeCell ref="A1:P4"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
@@ -18794,67 +20162,23 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:G18"/>
-    <mergeCell ref="A11:A26"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:G26"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18879,66 +20203,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="193"/>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193" t="s">
+      <c r="A1" s="202"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="193"/>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="193"/>
-      <c r="AA1" s="193"/>
-      <c r="AB1" s="193"/>
-      <c r="AC1" s="193"/>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="193"/>
-      <c r="AG1" s="193"/>
-      <c r="AH1" s="193"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="202"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="202"/>
+      <c r="W1" s="202"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="202"/>
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="202"/>
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
+      <c r="AF1" s="202"/>
+      <c r="AG1" s="202"/>
+      <c r="AH1" s="202"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="193"/>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
+      <c r="A2" s="202"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="193" t="s">
+      <c r="I2" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -18955,10 +20279,10 @@
       <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="193"/>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -19051,14 +20375,14 @@
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="203" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="194" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -19090,12 +20414,12 @@
       <c r="AH4" s="16"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="194"/>
-      <c r="B5" s="199" t="s">
+      <c r="A5" s="203"/>
+      <c r="B5" s="194" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
       <c r="E5" s="16"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
@@ -19128,12 +20452,12 @@
       <c r="AH5" s="16"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="194"/>
-      <c r="B6" s="199" t="s">
+      <c r="A6" s="203"/>
+      <c r="B6" s="194" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
       <c r="E6" s="16"/>
       <c r="F6" s="93"/>
       <c r="G6" s="93"/>
@@ -19166,12 +20490,12 @@
       <c r="AH6" s="16"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="194"/>
-      <c r="B7" s="199" t="s">
+      <c r="A7" s="203"/>
+      <c r="B7" s="194" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
       <c r="E7" s="16"/>
       <c r="F7" s="93"/>
       <c r="G7" s="93"/>
@@ -19241,66 +20565,66 @@
       <c r="AI8" s="18"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="193"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193" t="s">
+      <c r="A9" s="202"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="193"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="193"/>
-      <c r="S9" s="193"/>
-      <c r="T9" s="193"/>
-      <c r="U9" s="193"/>
-      <c r="V9" s="193"/>
-      <c r="W9" s="193"/>
-      <c r="X9" s="193"/>
-      <c r="Y9" s="193"/>
-      <c r="Z9" s="193"/>
-      <c r="AA9" s="193"/>
-      <c r="AB9" s="193"/>
-      <c r="AC9" s="193"/>
-      <c r="AD9" s="193"/>
-      <c r="AE9" s="193"/>
-      <c r="AF9" s="193"/>
-      <c r="AG9" s="193"/>
-      <c r="AH9" s="193"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="202"/>
+      <c r="P9" s="202"/>
+      <c r="Q9" s="202"/>
+      <c r="R9" s="202"/>
+      <c r="S9" s="202"/>
+      <c r="T9" s="202"/>
+      <c r="U9" s="202"/>
+      <c r="V9" s="202"/>
+      <c r="W9" s="202"/>
+      <c r="X9" s="202"/>
+      <c r="Y9" s="202"/>
+      <c r="Z9" s="202"/>
+      <c r="AA9" s="202"/>
+      <c r="AB9" s="202"/>
+      <c r="AC9" s="202"/>
+      <c r="AD9" s="202"/>
+      <c r="AE9" s="202"/>
+      <c r="AF9" s="202"/>
+      <c r="AG9" s="202"/>
+      <c r="AH9" s="202"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="193"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
+      <c r="A10" s="202"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="193" t="s">
+      <c r="I10" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="193"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="193"/>
-      <c r="M10" s="193"/>
-      <c r="N10" s="193"/>
-      <c r="O10" s="193"/>
-      <c r="P10" s="193"/>
-      <c r="Q10" s="193"/>
-      <c r="R10" s="193"/>
-      <c r="S10" s="193"/>
-      <c r="T10" s="193"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="202"/>
+      <c r="P10" s="202"/>
+      <c r="Q10" s="202"/>
+      <c r="R10" s="202"/>
+      <c r="S10" s="202"/>
+      <c r="T10" s="202"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
@@ -19317,10 +20641,10 @@
       <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="193"/>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
+      <c r="A11" s="202"/>
+      <c r="B11" s="202"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202"/>
       <c r="E11" s="13">
         <v>1</v>
       </c>
@@ -19417,10 +20741,10 @@
       <c r="B12" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="202" t="s">
+      <c r="C12" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="203"/>
+      <c r="D12" s="201"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
@@ -19453,14 +20777,14 @@
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="196" t="s">
+      <c r="A13" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="190" t="s">
+      <c r="B13" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="190" t="s">
-        <v>171</v>
+      <c r="C13" s="197" t="s">
+        <v>168</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>69</v>
@@ -19497,9 +20821,9 @@
       <c r="AH13" s="13"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="197"/>
-      <c r="B14" s="191"/>
-      <c r="C14" s="191"/>
+      <c r="A14" s="192"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="199"/>
       <c r="D14" s="23" t="s">
         <v>70</v>
       </c>
@@ -19535,9 +20859,9 @@
       <c r="AH14" s="13"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="197"/>
-      <c r="B15" s="191"/>
-      <c r="C15" s="191"/>
+      <c r="A15" s="192"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="199"/>
       <c r="D15" s="23" t="s">
         <v>71</v>
       </c>
@@ -19573,9 +20897,9 @@
       <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="197"/>
-      <c r="B16" s="191"/>
-      <c r="C16" s="191"/>
+      <c r="A16" s="192"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="199"/>
       <c r="D16" s="23" t="s">
         <v>72</v>
       </c>
@@ -19611,11 +20935,11 @@
       <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="1:45">
-      <c r="A17" s="197"/>
-      <c r="B17" s="191"/>
-      <c r="C17" s="191"/>
+      <c r="A17" s="192"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="199"/>
       <c r="D17" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -19649,9 +20973,9 @@
       <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="1:45">
-      <c r="A18" s="197"/>
-      <c r="B18" s="191"/>
-      <c r="C18" s="192"/>
+      <c r="A18" s="192"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="198"/>
       <c r="D18" s="109" t="s">
         <v>129</v>
       </c>
@@ -19687,10 +21011,10 @@
       <c r="AH18" s="13"/>
     </row>
     <row r="19" spans="1:45">
-      <c r="A19" s="197"/>
-      <c r="B19" s="191"/>
-      <c r="C19" s="190" t="s">
-        <v>172</v>
+      <c r="A19" s="192"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="197" t="s">
+        <v>169</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>69</v>
@@ -19727,9 +21051,9 @@
       <c r="AH19" s="13"/>
     </row>
     <row r="20" spans="1:45">
-      <c r="A20" s="197"/>
-      <c r="B20" s="191"/>
-      <c r="C20" s="191"/>
+      <c r="A20" s="192"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="199"/>
       <c r="D20" s="23" t="s">
         <v>70</v>
       </c>
@@ -19765,9 +21089,9 @@
       <c r="AH20" s="13"/>
     </row>
     <row r="21" spans="1:45">
-      <c r="A21" s="197"/>
-      <c r="B21" s="191"/>
-      <c r="C21" s="191"/>
+      <c r="A21" s="192"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="199"/>
       <c r="D21" s="23" t="s">
         <v>71</v>
       </c>
@@ -19803,9 +21127,9 @@
       <c r="AH21" s="13"/>
     </row>
     <row r="22" spans="1:45">
-      <c r="A22" s="197"/>
-      <c r="B22" s="191"/>
-      <c r="C22" s="191"/>
+      <c r="A22" s="192"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="199"/>
       <c r="D22" s="23" t="s">
         <v>72</v>
       </c>
@@ -19841,11 +21165,11 @@
       <c r="AH22" s="13"/>
     </row>
     <row r="23" spans="1:45">
-      <c r="A23" s="197"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="191"/>
+      <c r="A23" s="192"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="199"/>
       <c r="D23" s="23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -19879,9 +21203,9 @@
       <c r="AH23" s="13"/>
     </row>
     <row r="24" spans="1:45">
-      <c r="A24" s="197"/>
+      <c r="A24" s="192"/>
       <c r="B24" s="110"/>
-      <c r="C24" s="192"/>
+      <c r="C24" s="198"/>
       <c r="D24" s="111" t="s">
         <v>129</v>
       </c>
@@ -19917,12 +21241,12 @@
       <c r="AH24" s="13"/>
     </row>
     <row r="25" spans="1:45">
-      <c r="A25" s="197"/>
-      <c r="B25" s="197" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="190" t="s">
-        <v>175</v>
+      <c r="A25" s="192"/>
+      <c r="B25" s="192" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="197" t="s">
+        <v>172</v>
       </c>
       <c r="D25" s="96" t="s">
         <v>118</v>
@@ -19959,9 +21283,9 @@
       <c r="AH25" s="13"/>
     </row>
     <row r="26" spans="1:45">
-      <c r="A26" s="197"/>
-      <c r="B26" s="197"/>
-      <c r="C26" s="192"/>
+      <c r="A26" s="192"/>
+      <c r="B26" s="192"/>
+      <c r="C26" s="198"/>
       <c r="D26" s="96" t="s">
         <v>119</v>
       </c>
@@ -20008,14 +21332,14 @@
       <c r="AS26" s="29"/>
     </row>
     <row r="27" spans="1:45">
-      <c r="A27" s="197"/>
-      <c r="B27" s="195" t="s">
+      <c r="A27" s="192"/>
+      <c r="B27" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="200" t="s">
+      <c r="C27" s="195" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="201"/>
+      <c r="D27" s="196"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -20059,12 +21383,12 @@
       <c r="AS27" s="29"/>
     </row>
     <row r="28" spans="1:45">
-      <c r="A28" s="197"/>
-      <c r="B28" s="195"/>
-      <c r="C28" s="200" t="s">
+      <c r="A28" s="192"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="201"/>
+      <c r="D28" s="196"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -20108,11 +21432,11 @@
       <c r="AS28" s="29"/>
     </row>
     <row r="29" spans="1:45">
-      <c r="A29" s="197"/>
-      <c r="B29" s="195" t="s">
+      <c r="A29" s="192"/>
+      <c r="B29" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="195" t="s">
+      <c r="C29" s="190" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="94" t="s">
@@ -20161,9 +21485,9 @@
       <c r="AS29" s="29"/>
     </row>
     <row r="30" spans="1:45">
-      <c r="A30" s="197"/>
-      <c r="B30" s="195"/>
-      <c r="C30" s="195"/>
+      <c r="A30" s="192"/>
+      <c r="B30" s="190"/>
+      <c r="C30" s="190"/>
       <c r="D30" s="94" t="s">
         <v>18</v>
       </c>
@@ -20210,9 +21534,9 @@
       <c r="AS30" s="29"/>
     </row>
     <row r="31" spans="1:45">
-      <c r="A31" s="197"/>
-      <c r="B31" s="195"/>
-      <c r="C31" s="195"/>
+      <c r="A31" s="192"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="190"/>
       <c r="D31" s="94" t="s">
         <v>19</v>
       </c>
@@ -20259,9 +21583,9 @@
       <c r="AS31" s="29"/>
     </row>
     <row r="32" spans="1:45">
-      <c r="A32" s="197"/>
-      <c r="B32" s="195"/>
-      <c r="C32" s="195"/>
+      <c r="A32" s="192"/>
+      <c r="B32" s="190"/>
+      <c r="C32" s="190"/>
       <c r="D32" s="94" t="s">
         <v>20</v>
       </c>
@@ -20308,9 +21632,9 @@
       <c r="AS32" s="29"/>
     </row>
     <row r="33" spans="1:45">
-      <c r="A33" s="197"/>
-      <c r="B33" s="195"/>
-      <c r="C33" s="195" t="s">
+      <c r="A33" s="192"/>
+      <c r="B33" s="190"/>
+      <c r="C33" s="190" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="94" t="s">
@@ -20359,9 +21683,9 @@
       <c r="AS33" s="29"/>
     </row>
     <row r="34" spans="1:45">
-      <c r="A34" s="197"/>
-      <c r="B34" s="195"/>
-      <c r="C34" s="195"/>
+      <c r="A34" s="192"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="190"/>
       <c r="D34" s="94" t="s">
         <v>18</v>
       </c>
@@ -20408,9 +21732,9 @@
       <c r="AS34" s="29"/>
     </row>
     <row r="35" spans="1:45">
-      <c r="A35" s="197"/>
-      <c r="B35" s="195"/>
-      <c r="C35" s="195"/>
+      <c r="A35" s="192"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="190"/>
       <c r="D35" s="94" t="s">
         <v>19</v>
       </c>
@@ -20457,9 +21781,9 @@
       <c r="AS35" s="29"/>
     </row>
     <row r="36" spans="1:45">
-      <c r="A36" s="197"/>
-      <c r="B36" s="195"/>
-      <c r="C36" s="195" t="s">
+      <c r="A36" s="192"/>
+      <c r="B36" s="190"/>
+      <c r="C36" s="190" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="94" t="s">
@@ -20508,9 +21832,9 @@
       <c r="AS36" s="29"/>
     </row>
     <row r="37" spans="1:45">
-      <c r="A37" s="198"/>
-      <c r="B37" s="195"/>
-      <c r="C37" s="195"/>
+      <c r="A37" s="193"/>
+      <c r="B37" s="190"/>
+      <c r="C37" s="190"/>
       <c r="D37" s="94" t="s">
         <v>18</v>
       </c>
@@ -20574,6 +21898,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:AH1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:D11"/>
+    <mergeCell ref="E9:AH9"/>
+    <mergeCell ref="I10:T10"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="A13:A37"/>
@@ -20590,15 +21923,6 @@
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:AH1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:D11"/>
-    <mergeCell ref="E9:AH9"/>
-    <mergeCell ref="I10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20618,137 +21942,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="206"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="207"/>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="209"/>
+      <c r="A2" s="211"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="213"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="207"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="209"/>
+      <c r="A3" s="211"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="213"/>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1">
-      <c r="A4" s="210"/>
-      <c r="B4" s="211"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="211"/>
-      <c r="N4" s="211"/>
-      <c r="O4" s="212"/>
+      <c r="A4" s="214"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="216"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="100">
         <v>1</v>
       </c>
-      <c r="B5" s="213" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="214"/>
+      <c r="B5" s="204" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="204"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="204"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="204"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="204"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="204"/>
+      <c r="O5" s="205"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="101">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="213" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="213"/>
-      <c r="I6" s="213"/>
-      <c r="J6" s="213"/>
-      <c r="K6" s="213"/>
-      <c r="L6" s="213"/>
-      <c r="M6" s="213"/>
-      <c r="N6" s="213"/>
-      <c r="O6" s="214"/>
+      <c r="B6" s="204" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="204"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="205"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="101">
         <f t="shared" ref="A7:A42" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="213"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="213"/>
-      <c r="I7" s="213"/>
-      <c r="J7" s="213"/>
-      <c r="K7" s="213"/>
-      <c r="L7" s="213"/>
-      <c r="M7" s="213"/>
-      <c r="N7" s="213"/>
-      <c r="O7" s="214"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="205"/>
       <c r="W7" s="35"/>
       <c r="X7" s="35"/>
       <c r="Y7" s="35"/>
@@ -20765,20 +22089,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="213"/>
-      <c r="K8" s="213"/>
-      <c r="L8" s="213"/>
-      <c r="M8" s="213"/>
-      <c r="N8" s="213"/>
-      <c r="O8" s="214"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="205"/>
       <c r="W8" s="35"/>
       <c r="X8" s="35"/>
       <c r="Y8" s="35"/>
@@ -20795,20 +22119,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="213"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="213"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="213"/>
-      <c r="L9" s="213"/>
-      <c r="M9" s="213"/>
-      <c r="N9" s="213"/>
-      <c r="O9" s="214"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="205"/>
       <c r="W9" s="35"/>
       <c r="X9" s="35"/>
       <c r="Y9" s="35"/>
@@ -20825,20 +22149,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="213"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="213"/>
-      <c r="E10" s="213"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="213"/>
-      <c r="H10" s="213"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="213"/>
-      <c r="L10" s="213"/>
-      <c r="M10" s="213"/>
-      <c r="N10" s="213"/>
-      <c r="O10" s="214"/>
+      <c r="B10" s="204"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="205"/>
       <c r="W10" s="35"/>
       <c r="X10" s="35"/>
       <c r="Y10" s="35"/>
@@ -20855,20 +22179,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="213"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="213"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="213"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="213"/>
-      <c r="L11" s="213"/>
-      <c r="M11" s="213"/>
-      <c r="N11" s="213"/>
-      <c r="O11" s="214"/>
+      <c r="B11" s="204"/>
+      <c r="C11" s="204"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="204"/>
+      <c r="K11" s="204"/>
+      <c r="L11" s="204"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="204"/>
+      <c r="O11" s="205"/>
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
@@ -20885,20 +22209,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="213"/>
-      <c r="C12" s="213"/>
-      <c r="D12" s="213"/>
-      <c r="E12" s="213"/>
-      <c r="F12" s="213"/>
-      <c r="G12" s="213"/>
-      <c r="H12" s="213"/>
-      <c r="I12" s="213"/>
-      <c r="J12" s="213"/>
-      <c r="K12" s="213"/>
-      <c r="L12" s="213"/>
-      <c r="M12" s="213"/>
-      <c r="N12" s="213"/>
-      <c r="O12" s="214"/>
+      <c r="B12" s="204"/>
+      <c r="C12" s="204"/>
+      <c r="D12" s="204"/>
+      <c r="E12" s="204"/>
+      <c r="F12" s="204"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="204"/>
+      <c r="I12" s="204"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="204"/>
+      <c r="L12" s="204"/>
+      <c r="M12" s="204"/>
+      <c r="N12" s="204"/>
+      <c r="O12" s="205"/>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
       <c r="Y12" s="35"/>
@@ -20915,20 +22239,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="213"/>
-      <c r="C13" s="213"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="213"/>
-      <c r="K13" s="213"/>
-      <c r="L13" s="213"/>
-      <c r="M13" s="213"/>
-      <c r="N13" s="213"/>
-      <c r="O13" s="214"/>
+      <c r="B13" s="204"/>
+      <c r="C13" s="204"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="204"/>
+      <c r="K13" s="204"/>
+      <c r="L13" s="204"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="204"/>
+      <c r="O13" s="205"/>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
@@ -20945,20 +22269,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="213"/>
-      <c r="C14" s="213"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="213"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="213"/>
-      <c r="I14" s="213"/>
-      <c r="J14" s="213"/>
-      <c r="K14" s="213"/>
-      <c r="L14" s="213"/>
-      <c r="M14" s="213"/>
-      <c r="N14" s="213"/>
-      <c r="O14" s="214"/>
+      <c r="B14" s="204"/>
+      <c r="C14" s="204"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="204"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="204"/>
+      <c r="I14" s="204"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="204"/>
+      <c r="L14" s="204"/>
+      <c r="M14" s="204"/>
+      <c r="N14" s="204"/>
+      <c r="O14" s="205"/>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
@@ -20975,20 +22299,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="213"/>
-      <c r="C15" s="213"/>
-      <c r="D15" s="213"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="213"/>
-      <c r="L15" s="213"/>
-      <c r="M15" s="213"/>
-      <c r="N15" s="213"/>
-      <c r="O15" s="214"/>
+      <c r="B15" s="204"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="204"/>
+      <c r="I15" s="204"/>
+      <c r="J15" s="204"/>
+      <c r="K15" s="204"/>
+      <c r="L15" s="204"/>
+      <c r="M15" s="204"/>
+      <c r="N15" s="204"/>
+      <c r="O15" s="205"/>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
       <c r="Y15" s="35"/>
@@ -21005,20 +22329,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="213"/>
-      <c r="C16" s="213"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="213"/>
-      <c r="K16" s="213"/>
-      <c r="L16" s="213"/>
-      <c r="M16" s="213"/>
-      <c r="N16" s="213"/>
-      <c r="O16" s="214"/>
+      <c r="B16" s="204"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="204"/>
+      <c r="L16" s="204"/>
+      <c r="M16" s="204"/>
+      <c r="N16" s="204"/>
+      <c r="O16" s="205"/>
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="35"/>
@@ -21035,20 +22359,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="213"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="213"/>
-      <c r="L17" s="213"/>
-      <c r="M17" s="213"/>
-      <c r="N17" s="213"/>
-      <c r="O17" s="214"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="204"/>
+      <c r="L17" s="204"/>
+      <c r="M17" s="204"/>
+      <c r="N17" s="204"/>
+      <c r="O17" s="205"/>
       <c r="W17" s="35"/>
       <c r="X17" s="35"/>
       <c r="Y17" s="35"/>
@@ -21065,20 +22389,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="213"/>
-      <c r="C18" s="213"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="213"/>
-      <c r="K18" s="213"/>
-      <c r="L18" s="213"/>
-      <c r="M18" s="213"/>
-      <c r="N18" s="213"/>
-      <c r="O18" s="214"/>
+      <c r="B18" s="204"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="204"/>
+      <c r="K18" s="204"/>
+      <c r="L18" s="204"/>
+      <c r="M18" s="204"/>
+      <c r="N18" s="204"/>
+      <c r="O18" s="205"/>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
       <c r="Y18" s="35"/>
@@ -21095,20 +22419,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="213"/>
-      <c r="C19" s="213"/>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
-      <c r="M19" s="213"/>
-      <c r="N19" s="213"/>
-      <c r="O19" s="214"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="204"/>
+      <c r="H19" s="204"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="204"/>
+      <c r="K19" s="204"/>
+      <c r="L19" s="204"/>
+      <c r="M19" s="204"/>
+      <c r="N19" s="204"/>
+      <c r="O19" s="205"/>
       <c r="W19" s="35"/>
       <c r="X19" s="35"/>
       <c r="Y19" s="35"/>
@@ -21125,20 +22449,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="213"/>
-      <c r="C20" s="213"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="213"/>
-      <c r="K20" s="213"/>
-      <c r="L20" s="213"/>
-      <c r="M20" s="213"/>
-      <c r="N20" s="213"/>
-      <c r="O20" s="214"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="204"/>
+      <c r="I20" s="204"/>
+      <c r="J20" s="204"/>
+      <c r="K20" s="204"/>
+      <c r="L20" s="204"/>
+      <c r="M20" s="204"/>
+      <c r="N20" s="204"/>
+      <c r="O20" s="205"/>
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
       <c r="Y20" s="35"/>
@@ -21155,20 +22479,20 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="213"/>
-      <c r="C21" s="213"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="213"/>
-      <c r="L21" s="213"/>
-      <c r="M21" s="213"/>
-      <c r="N21" s="213"/>
-      <c r="O21" s="214"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="204"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="204"/>
+      <c r="I21" s="204"/>
+      <c r="J21" s="204"/>
+      <c r="K21" s="204"/>
+      <c r="L21" s="204"/>
+      <c r="M21" s="204"/>
+      <c r="N21" s="204"/>
+      <c r="O21" s="205"/>
       <c r="W21" s="35"/>
       <c r="X21" s="35"/>
       <c r="Y21" s="35"/>
@@ -21185,20 +22509,20 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="213"/>
-      <c r="C22" s="213"/>
-      <c r="D22" s="213"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="213"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="213"/>
-      <c r="K22" s="213"/>
-      <c r="L22" s="213"/>
-      <c r="M22" s="213"/>
-      <c r="N22" s="213"/>
-      <c r="O22" s="214"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="204"/>
+      <c r="K22" s="204"/>
+      <c r="L22" s="204"/>
+      <c r="M22" s="204"/>
+      <c r="N22" s="204"/>
+      <c r="O22" s="205"/>
       <c r="W22" s="35"/>
       <c r="X22" s="35"/>
       <c r="Y22" s="35"/>
@@ -21215,20 +22539,20 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="213"/>
-      <c r="C23" s="213"/>
-      <c r="D23" s="213"/>
-      <c r="E23" s="213"/>
-      <c r="F23" s="213"/>
-      <c r="G23" s="213"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="213"/>
-      <c r="K23" s="213"/>
-      <c r="L23" s="213"/>
-      <c r="M23" s="213"/>
-      <c r="N23" s="213"/>
-      <c r="O23" s="214"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="204"/>
+      <c r="J23" s="204"/>
+      <c r="K23" s="204"/>
+      <c r="L23" s="204"/>
+      <c r="M23" s="204"/>
+      <c r="N23" s="204"/>
+      <c r="O23" s="205"/>
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
@@ -21245,20 +22569,20 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="213"/>
-      <c r="C24" s="213"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="213"/>
-      <c r="L24" s="213"/>
-      <c r="M24" s="213"/>
-      <c r="N24" s="213"/>
-      <c r="O24" s="214"/>
+      <c r="B24" s="204"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="204"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="204"/>
+      <c r="H24" s="204"/>
+      <c r="I24" s="204"/>
+      <c r="J24" s="204"/>
+      <c r="K24" s="204"/>
+      <c r="L24" s="204"/>
+      <c r="M24" s="204"/>
+      <c r="N24" s="204"/>
+      <c r="O24" s="205"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
@@ -21275,20 +22599,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="213"/>
-      <c r="C25" s="213"/>
-      <c r="D25" s="213"/>
-      <c r="E25" s="213"/>
-      <c r="F25" s="213"/>
-      <c r="G25" s="213"/>
-      <c r="H25" s="213"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="213"/>
-      <c r="K25" s="213"/>
-      <c r="L25" s="213"/>
-      <c r="M25" s="213"/>
-      <c r="N25" s="213"/>
-      <c r="O25" s="214"/>
+      <c r="B25" s="204"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="204"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="204"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="204"/>
+      <c r="L25" s="204"/>
+      <c r="M25" s="204"/>
+      <c r="N25" s="204"/>
+      <c r="O25" s="205"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
@@ -21305,20 +22629,20 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="213"/>
-      <c r="C26" s="213"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="213"/>
-      <c r="K26" s="213"/>
-      <c r="L26" s="213"/>
-      <c r="M26" s="213"/>
-      <c r="N26" s="213"/>
-      <c r="O26" s="214"/>
+      <c r="B26" s="204"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="204"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="204"/>
+      <c r="K26" s="204"/>
+      <c r="L26" s="204"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="204"/>
+      <c r="O26" s="205"/>
       <c r="W26" s="35"/>
       <c r="X26" s="35"/>
       <c r="Y26" s="35"/>
@@ -21335,20 +22659,20 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="213"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="213"/>
-      <c r="L27" s="213"/>
-      <c r="M27" s="213"/>
-      <c r="N27" s="213"/>
-      <c r="O27" s="214"/>
+      <c r="B27" s="204"/>
+      <c r="C27" s="204"/>
+      <c r="D27" s="204"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="204"/>
+      <c r="G27" s="204"/>
+      <c r="H27" s="204"/>
+      <c r="I27" s="204"/>
+      <c r="J27" s="204"/>
+      <c r="K27" s="204"/>
+      <c r="L27" s="204"/>
+      <c r="M27" s="204"/>
+      <c r="N27" s="204"/>
+      <c r="O27" s="205"/>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
@@ -21365,20 +22689,20 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="213"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="213"/>
-      <c r="F28" s="213"/>
-      <c r="G28" s="213"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="213"/>
-      <c r="K28" s="213"/>
-      <c r="L28" s="213"/>
-      <c r="M28" s="213"/>
-      <c r="N28" s="213"/>
-      <c r="O28" s="214"/>
+      <c r="B28" s="204"/>
+      <c r="C28" s="204"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="204"/>
+      <c r="I28" s="204"/>
+      <c r="J28" s="204"/>
+      <c r="K28" s="204"/>
+      <c r="L28" s="204"/>
+      <c r="M28" s="204"/>
+      <c r="N28" s="204"/>
+      <c r="O28" s="205"/>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
@@ -21395,20 +22719,20 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="213"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="213"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="213"/>
-      <c r="K29" s="213"/>
-      <c r="L29" s="213"/>
-      <c r="M29" s="213"/>
-      <c r="N29" s="213"/>
-      <c r="O29" s="214"/>
+      <c r="B29" s="204"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="204"/>
+      <c r="J29" s="204"/>
+      <c r="K29" s="204"/>
+      <c r="L29" s="204"/>
+      <c r="M29" s="204"/>
+      <c r="N29" s="204"/>
+      <c r="O29" s="205"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
@@ -21425,20 +22749,20 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="213"/>
-      <c r="C30" s="213"/>
-      <c r="D30" s="213"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="213"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="213"/>
-      <c r="K30" s="213"/>
-      <c r="L30" s="213"/>
-      <c r="M30" s="213"/>
-      <c r="N30" s="213"/>
-      <c r="O30" s="214"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="204"/>
+      <c r="K30" s="204"/>
+      <c r="L30" s="204"/>
+      <c r="M30" s="204"/>
+      <c r="N30" s="204"/>
+      <c r="O30" s="205"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
@@ -21455,20 +22779,20 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="213"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="213"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="213"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="213"/>
-      <c r="K31" s="213"/>
-      <c r="L31" s="213"/>
-      <c r="M31" s="213"/>
-      <c r="N31" s="213"/>
-      <c r="O31" s="214"/>
+      <c r="B31" s="204"/>
+      <c r="C31" s="204"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="204"/>
+      <c r="K31" s="204"/>
+      <c r="L31" s="204"/>
+      <c r="M31" s="204"/>
+      <c r="N31" s="204"/>
+      <c r="O31" s="205"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
@@ -21485,20 +22809,20 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="213"/>
-      <c r="C32" s="213"/>
-      <c r="D32" s="213"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="213"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="213"/>
-      <c r="K32" s="213"/>
-      <c r="L32" s="213"/>
-      <c r="M32" s="213"/>
-      <c r="N32" s="213"/>
-      <c r="O32" s="214"/>
+      <c r="B32" s="204"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="204"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="204"/>
+      <c r="I32" s="204"/>
+      <c r="J32" s="204"/>
+      <c r="K32" s="204"/>
+      <c r="L32" s="204"/>
+      <c r="M32" s="204"/>
+      <c r="N32" s="204"/>
+      <c r="O32" s="205"/>
       <c r="W32" s="35"/>
       <c r="X32" s="35"/>
       <c r="Y32" s="35"/>
@@ -21515,20 +22839,20 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="213"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="213"/>
-      <c r="K33" s="213"/>
-      <c r="L33" s="213"/>
-      <c r="M33" s="213"/>
-      <c r="N33" s="213"/>
-      <c r="O33" s="214"/>
+      <c r="B33" s="204"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="204"/>
+      <c r="H33" s="204"/>
+      <c r="I33" s="204"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="204"/>
+      <c r="L33" s="204"/>
+      <c r="M33" s="204"/>
+      <c r="N33" s="204"/>
+      <c r="O33" s="205"/>
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
@@ -21545,20 +22869,20 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="213"/>
-      <c r="C34" s="213"/>
-      <c r="D34" s="213"/>
-      <c r="E34" s="213"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="213"/>
-      <c r="K34" s="213"/>
-      <c r="L34" s="213"/>
-      <c r="M34" s="213"/>
-      <c r="N34" s="213"/>
-      <c r="O34" s="214"/>
+      <c r="B34" s="204"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="204"/>
+      <c r="G34" s="204"/>
+      <c r="H34" s="204"/>
+      <c r="I34" s="204"/>
+      <c r="J34" s="204"/>
+      <c r="K34" s="204"/>
+      <c r="L34" s="204"/>
+      <c r="M34" s="204"/>
+      <c r="N34" s="204"/>
+      <c r="O34" s="205"/>
       <c r="W34" s="35"/>
       <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
@@ -21575,20 +22899,20 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="213"/>
-      <c r="C35" s="213"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="213"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="213"/>
-      <c r="J35" s="213"/>
-      <c r="K35" s="213"/>
-      <c r="L35" s="213"/>
-      <c r="M35" s="213"/>
-      <c r="N35" s="213"/>
-      <c r="O35" s="214"/>
+      <c r="B35" s="204"/>
+      <c r="C35" s="204"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="204"/>
+      <c r="L35" s="204"/>
+      <c r="M35" s="204"/>
+      <c r="N35" s="204"/>
+      <c r="O35" s="205"/>
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
       <c r="Y35" s="35"/>
@@ -21605,20 +22929,20 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="213"/>
-      <c r="C36" s="213"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="213"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="213"/>
-      <c r="H36" s="213"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="213"/>
-      <c r="K36" s="213"/>
-      <c r="L36" s="213"/>
-      <c r="M36" s="213"/>
-      <c r="N36" s="213"/>
-      <c r="O36" s="214"/>
+      <c r="B36" s="204"/>
+      <c r="C36" s="204"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="204"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="204"/>
+      <c r="I36" s="204"/>
+      <c r="J36" s="204"/>
+      <c r="K36" s="204"/>
+      <c r="L36" s="204"/>
+      <c r="M36" s="204"/>
+      <c r="N36" s="204"/>
+      <c r="O36" s="205"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
       <c r="Y36" s="35"/>
@@ -21635,20 +22959,20 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="213"/>
-      <c r="C37" s="213"/>
-      <c r="D37" s="213"/>
-      <c r="E37" s="213"/>
-      <c r="F37" s="213"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="213"/>
-      <c r="K37" s="213"/>
-      <c r="L37" s="213"/>
-      <c r="M37" s="213"/>
-      <c r="N37" s="213"/>
-      <c r="O37" s="214"/>
+      <c r="B37" s="204"/>
+      <c r="C37" s="204"/>
+      <c r="D37" s="204"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="204"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
+      <c r="I37" s="204"/>
+      <c r="J37" s="204"/>
+      <c r="K37" s="204"/>
+      <c r="L37" s="204"/>
+      <c r="M37" s="204"/>
+      <c r="N37" s="204"/>
+      <c r="O37" s="205"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
@@ -21665,20 +22989,20 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="213"/>
-      <c r="C38" s="213"/>
-      <c r="D38" s="213"/>
-      <c r="E38" s="213"/>
-      <c r="F38" s="213"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="213"/>
-      <c r="K38" s="213"/>
-      <c r="L38" s="213"/>
-      <c r="M38" s="213"/>
-      <c r="N38" s="213"/>
-      <c r="O38" s="214"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="204"/>
+      <c r="D38" s="204"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="204"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
+      <c r="I38" s="204"/>
+      <c r="J38" s="204"/>
+      <c r="K38" s="204"/>
+      <c r="L38" s="204"/>
+      <c r="M38" s="204"/>
+      <c r="N38" s="204"/>
+      <c r="O38" s="205"/>
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
       <c r="Y38" s="35"/>
@@ -21695,20 +23019,20 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="213"/>
-      <c r="C39" s="213"/>
-      <c r="D39" s="213"/>
-      <c r="E39" s="213"/>
-      <c r="F39" s="213"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="213"/>
-      <c r="I39" s="213"/>
-      <c r="J39" s="213"/>
-      <c r="K39" s="213"/>
-      <c r="L39" s="213"/>
-      <c r="M39" s="213"/>
-      <c r="N39" s="213"/>
-      <c r="O39" s="214"/>
+      <c r="B39" s="204"/>
+      <c r="C39" s="204"/>
+      <c r="D39" s="204"/>
+      <c r="E39" s="204"/>
+      <c r="F39" s="204"/>
+      <c r="G39" s="204"/>
+      <c r="H39" s="204"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="204"/>
+      <c r="L39" s="204"/>
+      <c r="M39" s="204"/>
+      <c r="N39" s="204"/>
+      <c r="O39" s="205"/>
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
       <c r="Y39" s="35"/>
@@ -21725,20 +23049,20 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="213"/>
-      <c r="C40" s="213"/>
-      <c r="D40" s="213"/>
-      <c r="E40" s="213"/>
-      <c r="F40" s="213"/>
-      <c r="G40" s="213"/>
-      <c r="H40" s="213"/>
-      <c r="I40" s="213"/>
-      <c r="J40" s="213"/>
-      <c r="K40" s="213"/>
-      <c r="L40" s="213"/>
-      <c r="M40" s="213"/>
-      <c r="N40" s="213"/>
-      <c r="O40" s="214"/>
+      <c r="B40" s="204"/>
+      <c r="C40" s="204"/>
+      <c r="D40" s="204"/>
+      <c r="E40" s="204"/>
+      <c r="F40" s="204"/>
+      <c r="G40" s="204"/>
+      <c r="H40" s="204"/>
+      <c r="I40" s="204"/>
+      <c r="J40" s="204"/>
+      <c r="K40" s="204"/>
+      <c r="L40" s="204"/>
+      <c r="M40" s="204"/>
+      <c r="N40" s="204"/>
+      <c r="O40" s="205"/>
       <c r="W40" s="35"/>
       <c r="X40" s="35"/>
       <c r="Y40" s="35"/>
@@ -21755,20 +23079,20 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="213"/>
-      <c r="C41" s="213"/>
-      <c r="D41" s="213"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="213"/>
-      <c r="G41" s="213"/>
-      <c r="H41" s="213"/>
-      <c r="I41" s="213"/>
-      <c r="J41" s="213"/>
-      <c r="K41" s="213"/>
-      <c r="L41" s="213"/>
-      <c r="M41" s="213"/>
-      <c r="N41" s="213"/>
-      <c r="O41" s="214"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="204"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="204"/>
+      <c r="J41" s="204"/>
+      <c r="K41" s="204"/>
+      <c r="L41" s="204"/>
+      <c r="M41" s="204"/>
+      <c r="N41" s="204"/>
+      <c r="O41" s="205"/>
       <c r="W41" s="35"/>
       <c r="X41" s="35"/>
       <c r="Y41" s="35"/>
@@ -21785,20 +23109,20 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="215"/>
-      <c r="C42" s="215"/>
-      <c r="D42" s="215"/>
-      <c r="E42" s="215"/>
-      <c r="F42" s="215"/>
-      <c r="G42" s="215"/>
-      <c r="H42" s="215"/>
-      <c r="I42" s="215"/>
-      <c r="J42" s="215"/>
-      <c r="K42" s="215"/>
-      <c r="L42" s="215"/>
-      <c r="M42" s="215"/>
-      <c r="N42" s="215"/>
-      <c r="O42" s="216"/>
+      <c r="B42" s="206"/>
+      <c r="C42" s="206"/>
+      <c r="D42" s="206"/>
+      <c r="E42" s="206"/>
+      <c r="F42" s="206"/>
+      <c r="G42" s="206"/>
+      <c r="H42" s="206"/>
+      <c r="I42" s="206"/>
+      <c r="J42" s="206"/>
+      <c r="K42" s="206"/>
+      <c r="L42" s="206"/>
+      <c r="M42" s="206"/>
+      <c r="N42" s="206"/>
+      <c r="O42" s="207"/>
       <c r="W42" s="35"/>
       <c r="X42" s="35"/>
       <c r="Y42" s="35"/>
@@ -21848,6 +23172,36 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B26:O26"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
     <mergeCell ref="B39:O39"/>
     <mergeCell ref="B40:O40"/>
     <mergeCell ref="B41:O41"/>
@@ -21857,36 +23211,6 @@
     <mergeCell ref="B36:O36"/>
     <mergeCell ref="B37:O37"/>
     <mergeCell ref="B38:O38"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B26:O26"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21897,8 +23221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -22374,27 +23698,27 @@
     </row>
     <row r="8" spans="4:108">
       <c r="H8" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="AC8" s="123"/>
       <c r="AD8" s="35"/>
       <c r="BF8" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="4:108">
       <c r="H9" s="25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AC9" s="123"/>
       <c r="AD9" s="35"/>
     </row>
     <row r="10" spans="4:108">
       <c r="H10" s="25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AC10" s="123"/>
       <c r="AD10" s="35"/>
@@ -22404,7 +23728,7 @@
         <v>145</v>
       </c>
       <c r="Y11" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AC11" s="123"/>
       <c r="AD11" s="35"/>
@@ -22593,7 +23917,7 @@
       <c r="AC56" s="123"/>
       <c r="AD56" s="35"/>
       <c r="AK56" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="13:53">
@@ -22619,8 +23943,8 @@
       <c r="AD61" s="35"/>
     </row>
     <row r="62" spans="13:53">
-      <c r="M62" s="25" t="s">
-        <v>168</v>
+      <c r="M62" s="124" t="s">
+        <v>165</v>
       </c>
       <c r="AC62" s="123"/>
       <c r="AD62" s="35"/>
@@ -22634,8 +23958,8 @@
       <c r="AD64" s="35"/>
     </row>
     <row r="65" spans="7:68">
-      <c r="G65" s="25" t="s">
-        <v>170</v>
+      <c r="G65" s="124" t="s">
+        <v>180</v>
       </c>
       <c r="S65" s="25" t="s">
         <v>30</v>
@@ -23094,10 +24418,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="E1:T61"/>
+  <dimension ref="E1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="E19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23203,19 +24527,32 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="12:20">
-      <c r="T52" t="s">
+    <row r="49" spans="12:20">
+      <c r="T49" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="12:20">
+      <c r="T51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="12:20">
+      <c r="T53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="12:20">
+      <c r="T54" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="12:20">
       <c r="L56" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="61" spans="12:20">
-      <c r="Q61" t="s">
-        <v>150</v>
+      <c r="T56" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -23232,8 +24569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
+    <sheetView topLeftCell="A284" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K337" sqref="K337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23940,8 +25277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM206"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="S276" sqref="S276"/>
+    <sheetView topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="I199" sqref="I199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -24024,7 +25361,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="91:91">
@@ -24043,12 +25380,12 @@
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
